--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13d324e688e91ab4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FA096073-3766-402E-B09F-32EE9FFEABBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F26B421-2B06-437C-B272-3B18BC6CFE39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6871E3-210A-4FA1-BE2F-67E9D06E0140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,7 +1632,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1644,16 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2720,7 +2720,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21" outlineLevel="1">
@@ -2731,7 +2731,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="16" t="s">
+      <c r="A296" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
+      <c r="B296" s="23"/>
+      <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
+      <c r="B356" s="16"/>
+      <c r="C356" s="16"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="22"/>
-      <c r="C402" s="22"/>
+      <c r="B402" s="17"/>
+      <c r="C402" s="17"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="23"/>
-      <c r="C410" s="23"/>
+      <c r="B410" s="18"/>
+      <c r="C410" s="18"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="20" t="s">
+      <c r="A472" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="20"/>
-      <c r="C472" s="20"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="19"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6871E3-210A-4FA1-BE2F-67E9D06E0140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D145FF3-FE7B-4D38-A472-178DAF3BF86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,16 +1632,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1653,7 +1644,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2742,7 +2742,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="23" t="s">
+      <c r="A238" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="23"/>
-      <c r="C238" s="23"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="23" t="s">
+      <c r="A296" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="23"/>
-      <c r="C296" s="23"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="17"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="16" t="s">
+      <c r="A356" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="17" t="s">
+      <c r="A402" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
+      <c r="B402" s="22"/>
+      <c r="C402" s="22"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="18" t="s">
+      <c r="A410" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
+      <c r="B410" s="23"/>
+      <c r="C410" s="23"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="19" t="s">
+      <c r="A472" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="19"/>
-      <c r="C472" s="19"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D145FF3-FE7B-4D38-A472-178DAF3BF86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F501A93-361B-4320-90E7-7D70B95B4EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1632,7 +1632,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1644,16 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1973,18 +1973,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6">
+    <row r="1" spans="1:6" ht="25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2786,7 +2786,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="16" t="s">
+      <c r="A296" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
+      <c r="B296" s="23"/>
+      <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
+      <c r="B356" s="16"/>
+      <c r="C356" s="16"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="22"/>
-      <c r="C402" s="22"/>
+      <c r="B402" s="17"/>
+      <c r="C402" s="17"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="23"/>
-      <c r="C410" s="23"/>
+      <c r="B410" s="18"/>
+      <c r="C410" s="18"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="20" t="s">
+      <c r="A472" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="20"/>
-      <c r="C472" s="20"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="19"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\DSA-with-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F501A93-361B-4320-90E7-7D70B95B4EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D098EA3-A5EA-44E4-9129-DD88FD0DDD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1632,16 +1632,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1653,7 +1644,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1974,17 +1974,17 @@
   <dimension ref="A1:F482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25">
+    <row r="1" spans="1:6" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2797,7 +2797,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="23" t="s">
+      <c r="A238" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="23"/>
-      <c r="C238" s="23"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="23" t="s">
+      <c r="A296" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="23"/>
-      <c r="C296" s="23"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="17"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="16" t="s">
+      <c r="A356" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="17" t="s">
+      <c r="A402" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
+      <c r="B402" s="22"/>
+      <c r="C402" s="22"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="18" t="s">
+      <c r="A410" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
+      <c r="B410" s="23"/>
+      <c r="C410" s="23"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="19" t="s">
+      <c r="A472" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="19"/>
-      <c r="C472" s="19"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D098EA3-A5EA-44E4-9129-DD88FD0DDD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2AB60C-4804-400C-97CB-6ECB4A6D5087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1632,7 +1632,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1644,16 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:F482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,11 +2011,11 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2807,8 +2807,8 @@
       <c r="B79" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>4</v>
+      <c r="C79" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="16" t="s">
+      <c r="A296" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
+      <c r="B296" s="23"/>
+      <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
+      <c r="B356" s="16"/>
+      <c r="C356" s="16"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="22"/>
-      <c r="C402" s="22"/>
+      <c r="B402" s="17"/>
+      <c r="C402" s="17"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="23"/>
-      <c r="C410" s="23"/>
+      <c r="B410" s="18"/>
+      <c r="C410" s="18"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="20" t="s">
+      <c r="A472" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="20"/>
-      <c r="C472" s="20"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="19"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2AB60C-4804-400C-97CB-6ECB4A6D5087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6C4631-FFAA-485B-91C4-1E551C906F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,16 +1632,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1653,7 +1644,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2819,7 +2819,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="23" t="s">
+      <c r="A238" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="23"/>
-      <c r="C238" s="23"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="23" t="s">
+      <c r="A296" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="23"/>
-      <c r="C296" s="23"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="17"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="16" t="s">
+      <c r="A356" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="17" t="s">
+      <c r="A402" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
+      <c r="B402" s="22"/>
+      <c r="C402" s="22"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="18" t="s">
+      <c r="A410" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
+      <c r="B410" s="23"/>
+      <c r="C410" s="23"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="19" t="s">
+      <c r="A472" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="19"/>
-      <c r="C472" s="19"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6C4631-FFAA-485B-91C4-1E551C906F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF5C647-BAA2-4AAD-B2C4-F70D756DA415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1632,7 +1632,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1644,16 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:F482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2826,11 +2826,11 @@
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="4" t="b">
-        <v>0</v>
+      <c r="C81" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21" outlineLevel="1">
@@ -2852,7 +2852,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="16" t="s">
+      <c r="A296" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
+      <c r="B296" s="23"/>
+      <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
+      <c r="B356" s="16"/>
+      <c r="C356" s="16"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="22"/>
-      <c r="C402" s="22"/>
+      <c r="B402" s="17"/>
+      <c r="C402" s="17"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="23"/>
-      <c r="C410" s="23"/>
+      <c r="B410" s="18"/>
+      <c r="C410" s="18"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="20" t="s">
+      <c r="A472" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="20"/>
-      <c r="C472" s="20"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="19"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF5C647-BAA2-4AAD-B2C4-F70D756DA415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910FA475-1DD2-4E03-82B8-C9EAD4149F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,16 +1632,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1653,7 +1644,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2863,7 +2863,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="23" t="s">
+      <c r="A238" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="23"/>
-      <c r="C238" s="23"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="23" t="s">
+      <c r="A296" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="23"/>
-      <c r="C296" s="23"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="17"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="16" t="s">
+      <c r="A356" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="17" t="s">
+      <c r="A402" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
+      <c r="B402" s="22"/>
+      <c r="C402" s="22"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="18" t="s">
+      <c r="A410" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
+      <c r="B410" s="23"/>
+      <c r="C410" s="23"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="19" t="s">
+      <c r="A472" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="19"/>
-      <c r="C472" s="19"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910FA475-1DD2-4E03-82B8-C9EAD4149F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5BA12E-1C3E-4364-B9F9-78C8A92EC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,7 +1632,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1644,16 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:F482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2874,7 +2874,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="16" t="s">
+      <c r="A296" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
+      <c r="B296" s="23"/>
+      <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
+      <c r="B356" s="16"/>
+      <c r="C356" s="16"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="22"/>
-      <c r="C402" s="22"/>
+      <c r="B402" s="17"/>
+      <c r="C402" s="17"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="23"/>
-      <c r="C410" s="23"/>
+      <c r="B410" s="18"/>
+      <c r="C410" s="18"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="20" t="s">
+      <c r="A472" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="20"/>
-      <c r="C472" s="20"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="19"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5BA12E-1C3E-4364-B9F9-78C8A92EC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509F71D-83BF-4544-AD33-EB4999DFEA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,16 +1632,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1653,7 +1644,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2885,7 +2885,7 @@
         <v>83</v>
       </c>
       <c r="C86" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="23" t="s">
+      <c r="A238" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="23"/>
-      <c r="C238" s="23"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="23" t="s">
+      <c r="A296" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="23"/>
-      <c r="C296" s="23"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="17"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="16" t="s">
+      <c r="A356" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="17" t="s">
+      <c r="A402" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
+      <c r="B402" s="22"/>
+      <c r="C402" s="22"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="18" t="s">
+      <c r="A410" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
+      <c r="B410" s="23"/>
+      <c r="C410" s="23"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="19" t="s">
+      <c r="A472" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="19"/>
-      <c r="C472" s="19"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509F71D-83BF-4544-AD33-EB4999DFEA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1C091-F282-4A45-B232-6D4ADD36A91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,7 +1632,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1644,16 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:F482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2896,7 +2896,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="16" t="s">
+      <c r="A296" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
+      <c r="B296" s="23"/>
+      <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
+      <c r="B356" s="16"/>
+      <c r="C356" s="16"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="22"/>
-      <c r="C402" s="22"/>
+      <c r="B402" s="17"/>
+      <c r="C402" s="17"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="23"/>
-      <c r="C410" s="23"/>
+      <c r="B410" s="18"/>
+      <c r="C410" s="18"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="20" t="s">
+      <c r="A472" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="20"/>
-      <c r="C472" s="20"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="19"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1C091-F282-4A45-B232-6D4ADD36A91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60C2A4-B8E1-47CE-9223-4A64419A8852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,16 +1632,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1653,7 +1644,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2940,7 +2940,7 @@
         <v>88</v>
       </c>
       <c r="C91" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="23" t="s">
+      <c r="A238" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="23"/>
-      <c r="C238" s="23"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="23" t="s">
+      <c r="A296" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="23"/>
-      <c r="C296" s="23"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="17"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="16" t="s">
+      <c r="A356" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="17" t="s">
+      <c r="A402" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
+      <c r="B402" s="22"/>
+      <c r="C402" s="22"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="18" t="s">
+      <c r="A410" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
+      <c r="B410" s="23"/>
+      <c r="C410" s="23"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="19" t="s">
+      <c r="A472" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="19"/>
-      <c r="C472" s="19"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60C2A4-B8E1-47CE-9223-4A64419A8852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082F48D5-E8BA-4373-B910-1496F9EF9A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,7 +1632,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1644,16 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:F482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -2973,7 +2973,7 @@
         <v>91</v>
       </c>
       <c r="C94" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="16" t="s">
+      <c r="A296" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
+      <c r="B296" s="23"/>
+      <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
+      <c r="B356" s="16"/>
+      <c r="C356" s="16"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="22"/>
-      <c r="C402" s="22"/>
+      <c r="B402" s="17"/>
+      <c r="C402" s="17"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="23"/>
-      <c r="C410" s="23"/>
+      <c r="B410" s="18"/>
+      <c r="C410" s="18"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="20" t="s">
+      <c r="A472" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="20"/>
-      <c r="C472" s="20"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="19"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082F48D5-E8BA-4373-B910-1496F9EF9A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED810D2C-42D7-4094-94EE-B09C2AA88CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1632,16 +1632,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1653,7 +1644,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:F482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2011,17 +2011,17 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="F6" s="15" cm="1">
         <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" outlineLevel="1">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" outlineLevel="1">
@@ -2435,11 +2435,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="21" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2552,11 +2552,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3017,7 +3017,7 @@
         <v>95</v>
       </c>
       <c r="C98" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="21" outlineLevel="1">
@@ -3032,11 +3032,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3435,11 +3435,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3838,11 +3838,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" spans="1:3" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4235,11 +4235,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4488,11 +4488,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="23" t="s">
+      <c r="A238" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="23"/>
-      <c r="C238" s="23"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4884,11 +4884,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
     </row>
     <row r="276" spans="1:3" ht="21" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5104,11 +5104,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="23" t="s">
+      <c r="A296" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="23"/>
-      <c r="C296" s="23"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5533,11 +5533,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="17"/>
     </row>
     <row r="337" spans="1:3" ht="21" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5742,11 +5742,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="16" t="s">
+      <c r="A356" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6237,11 +6237,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="17" t="s">
+      <c r="A402" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
+      <c r="B402" s="22"/>
+      <c r="C402" s="22"/>
     </row>
     <row r="403" spans="1:3" ht="21" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6314,11 +6314,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="18" t="s">
+      <c r="A410" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
+      <c r="B410" s="23"/>
+      <c r="C410" s="23"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6985,11 +6985,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="19" t="s">
+      <c r="A472" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="19"/>
-      <c r="C472" s="19"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
     </row>
     <row r="473" spans="1:3" ht="21" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7103,21 +7103,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED810D2C-42D7-4094-94EE-B09C2AA88CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9702825C-EC20-4E8E-A00A-89429E55838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1465,14 +1465,14 @@
     <t>TO-DO:</t>
   </si>
   <si>
-    <t>PROGRESS:</t>
+    <t>DONE:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1552,8 +1552,16 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF111111"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1601,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1629,10 +1637,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1644,17 +1658,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1971,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F482"/>
+  <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2004,27 +2015,34 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E4" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="24" cm="1">
+        <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
+        <v>313</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="21">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
+      <c r="E5" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" s="23" cm="1">
+        <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="E6" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="F6" s="15" cm="1">
-        <f t="array" ref="F6">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" outlineLevel="1">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2034,15 +2052,8 @@
       <c r="C7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" outlineLevel="1">
+    </row>
+    <row r="8" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2065,7 @@
       </c>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="21" outlineLevel="1">
+    <row r="9" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21" outlineLevel="1">
+    <row r="10" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" outlineLevel="1">
+    <row r="11" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" outlineLevel="1">
+    <row r="12" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" outlineLevel="1">
+    <row r="13" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21" outlineLevel="1">
+    <row r="14" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21" outlineLevel="1">
+    <row r="15" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21" outlineLevel="1">
+    <row r="16" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" outlineLevel="1">
+    <row r="17" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" outlineLevel="1">
+    <row r="18" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" outlineLevel="1">
+    <row r="19" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2175,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" outlineLevel="1">
+    <row r="20" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" outlineLevel="1">
+    <row r="21" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" outlineLevel="1">
+    <row r="22" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" outlineLevel="1">
+    <row r="23" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" outlineLevel="1">
+    <row r="24" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" outlineLevel="1">
+    <row r="25" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2241,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" outlineLevel="1">
+    <row r="26" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21" outlineLevel="1">
+    <row r="27" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2263,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21" outlineLevel="1">
+    <row r="28" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2274,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21" outlineLevel="1">
+    <row r="29" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21" outlineLevel="1">
+    <row r="30" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" outlineLevel="1">
+    <row r="31" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2307,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" outlineLevel="1">
+    <row r="32" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" outlineLevel="1">
+    <row r="33" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2329,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" outlineLevel="1">
+    <row r="34" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21" outlineLevel="1">
+    <row r="35" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2351,7 +2362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21" outlineLevel="1">
+    <row r="36" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21" outlineLevel="1">
+    <row r="37" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2373,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" outlineLevel="1">
+    <row r="38" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21" outlineLevel="1">
+    <row r="39" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2395,7 +2406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21" outlineLevel="1">
+    <row r="40" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21" outlineLevel="1">
+    <row r="41" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2417,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21" outlineLevel="1">
+    <row r="42" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
@@ -2428,20 +2439,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" spans="1:3" ht="21" collapsed="1">
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-    </row>
-    <row r="45" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+    </row>
+    <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2452,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21" outlineLevel="1">
+    <row r="46" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2463,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21" outlineLevel="1">
+    <row r="47" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2474,7 +2485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21" outlineLevel="1">
+    <row r="48" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2485,7 +2496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" outlineLevel="1">
+    <row r="49" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2496,69 +2507,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21" outlineLevel="1">
+    <row r="50" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C50" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C51" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C52" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C53" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A54" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
+      <c r="C54" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-    </row>
-    <row r="57" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+    </row>
+    <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2569,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21" outlineLevel="1">
+    <row r="58" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2580,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21" outlineLevel="1">
+    <row r="59" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2591,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21" outlineLevel="1">
+    <row r="60" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2602,7 +2614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21" outlineLevel="1">
+    <row r="61" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2613,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21" outlineLevel="1">
+    <row r="62" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2624,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21" outlineLevel="1">
+    <row r="63" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2635,7 +2647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21" outlineLevel="1">
+    <row r="64" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2646,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21" outlineLevel="1">
+    <row r="65" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2657,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21" outlineLevel="1">
+    <row r="66" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2668,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21" outlineLevel="1">
+    <row r="67" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2679,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21" outlineLevel="1">
+    <row r="68" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2690,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21" outlineLevel="1">
+    <row r="69" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2701,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21" outlineLevel="1">
+    <row r="70" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2712,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" outlineLevel="1">
+    <row r="71" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2723,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21" outlineLevel="1">
+    <row r="72" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2734,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21" outlineLevel="1">
+    <row r="73" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21" outlineLevel="1">
+    <row r="74" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2756,7 +2768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21" outlineLevel="1">
+    <row r="75" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2767,7 +2779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" outlineLevel="1">
+    <row r="76" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2778,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21" outlineLevel="1">
+    <row r="77" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2789,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21" outlineLevel="1">
+    <row r="78" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2800,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21" outlineLevel="1">
+    <row r="79" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2811,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21" outlineLevel="1">
+    <row r="80" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2822,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21" outlineLevel="1">
+    <row r="81" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2833,7 +2845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" outlineLevel="1">
+    <row r="82" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2844,7 +2856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21" outlineLevel="1">
+    <row r="83" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2855,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21" outlineLevel="1">
+    <row r="84" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2866,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21" outlineLevel="1">
+    <row r="85" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2877,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21" outlineLevel="1">
+    <row r="86" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21" outlineLevel="1">
+    <row r="87" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2899,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21" outlineLevel="1">
+    <row r="88" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2910,7 +2922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21" outlineLevel="1">
+    <row r="89" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2921,7 +2933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21" outlineLevel="1">
+    <row r="90" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21" outlineLevel="1">
+    <row r="91" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2943,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21" outlineLevel="1">
+    <row r="92" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2954,7 +2966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21" outlineLevel="1">
+    <row r="93" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21" outlineLevel="1">
+    <row r="94" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -2976,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21" outlineLevel="1">
+    <row r="95" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -2987,7 +2999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21" outlineLevel="1">
+    <row r="96" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -2998,7 +3010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21" outlineLevel="1">
+    <row r="97" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21" outlineLevel="1">
+    <row r="98" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -3020,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="21" outlineLevel="1">
+    <row r="99" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A99" s="5" t="s">
         <v>53</v>
       </c>
@@ -3031,25 +3043,26 @@
         <v>4</v>
       </c>
     </row>
+    <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-    </row>
-    <row r="102" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+    </row>
+    <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C102" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -3060,150 +3073,150 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21" outlineLevel="1">
+    <row r="104" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C104" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C105" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C106" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C107" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C108" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C109" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C110" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C111" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C112" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C113" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C114" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C115" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C116" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3214,29 +3227,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21" outlineLevel="1">
+    <row r="118" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C118" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C119" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3247,7 +3260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21" outlineLevel="1">
+    <row r="121" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3258,40 +3271,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21" outlineLevel="1">
+    <row r="122" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C122" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C123" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C124" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3302,18 +3315,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21" outlineLevel="1">
+    <row r="126" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C126" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3324,40 +3337,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21" outlineLevel="1">
+    <row r="128" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C128" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C129" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C130" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3368,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21" outlineLevel="1">
+    <row r="132" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3379,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21" outlineLevel="1">
+    <row r="133" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3390,40 +3403,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21" outlineLevel="1">
+    <row r="134" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C134" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C135" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C136" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A137" s="5" t="s">
         <v>97</v>
       </c>
@@ -3434,289 +3447,290 @@
         <v>4</v>
       </c>
     </row>
+    <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
-    </row>
-    <row r="140" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+    </row>
+    <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C140" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C141" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C142" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C143" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C144" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C145" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C146" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C147" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C148" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C149" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C150" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C151" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C152" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C153" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C154" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C155" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C156" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C157" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C158" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C159" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C160" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C161" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C162" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C163" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C164" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3727,7 +3741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21" outlineLevel="1">
+    <row r="166" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3738,311 +3752,310 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21" outlineLevel="1">
+    <row r="167" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C167" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C168" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C169" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C170" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C171" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C172" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C173" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C174" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A175" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
-    </row>
-    <row r="178" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B177" s="22"/>
+      <c r="C177" s="22"/>
+    </row>
+    <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C178" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C179" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C180" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C181" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C182" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C183" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C184" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C185" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C186" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C187" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C187" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C188" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C189" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C190" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C191" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C192" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C192" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C193" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C194" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C194" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C195" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4053,106 +4066,106 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21" outlineLevel="1">
+    <row r="197" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C197" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C198" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C199" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C200" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C201" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C202" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C203" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C203" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C204" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C204" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C205" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C205" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4163,140 +4176,140 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21" outlineLevel="1">
+    <row r="207" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C207" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C207" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C208" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C208" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C209" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C210" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C210" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C211" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A212" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C212" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="21">
+      <c r="C212" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="21" collapsed="1">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
-    </row>
-    <row r="215" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B214" s="19"/>
+      <c r="C214" s="19"/>
+    </row>
+    <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C215" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C215" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C216" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C216" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C217" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C217" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C218" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C218" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C219" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C219" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4307,95 +4320,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21" outlineLevel="1">
+    <row r="221" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C221" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C221" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C222" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C222" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C223" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C223" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C224" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C224" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C225" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C225" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C226" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C226" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C227" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C227" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C228" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C228" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4406,7 +4419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21" outlineLevel="1">
+    <row r="230" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4417,106 +4430,106 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21" outlineLevel="1">
+    <row r="231" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C231" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C232" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C233" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C233" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C234" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C234" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C235" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C235" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A236" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C236" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="21">
+      <c r="C236" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="21" collapsed="1">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
-    </row>
-    <row r="239" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B238" s="22"/>
+      <c r="C238" s="22"/>
+    </row>
+    <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C239" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C239" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C240" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C240" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -4527,271 +4540,271 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21" outlineLevel="1">
+    <row r="242" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C242" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C242" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C243" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C243" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C244" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C244" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C245" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C246" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C246" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C247" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C247" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C248" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C249" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C249" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C250" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C250" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C251" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C251" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C252" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C253" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C253" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C254" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C255" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C255" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C256" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C256" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C257" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C257" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C258" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C258" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C259" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C259" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C260" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C260" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C261" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C261" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C262" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C262" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C263" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C263" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C264" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C264" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C265" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C265" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -4802,139 +4815,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21" outlineLevel="1">
+    <row r="267" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C267" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C267" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C268" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C268" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C269" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C269" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C270" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C270" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C271" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C271" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C272" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C272" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A273" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C273" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="21">
+      <c r="C273" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="21" collapsed="1">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
-    </row>
-    <row r="276" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B275" s="19"/>
+      <c r="C275" s="19"/>
+    </row>
+    <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C276" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A277" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C277" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C277" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A278" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C278" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C278" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A279" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C279" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C279" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A280" s="5" t="s">
         <v>265</v>
       </c>
@@ -4945,73 +4958,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21" outlineLevel="1">
+    <row r="281" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A281" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C281" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C281" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A282" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C282" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C282" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A283" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C283" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C283" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C284" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C284" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A285" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C285" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C285" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C286" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C286" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A287" s="5" t="s">
         <v>265</v>
       </c>
@@ -5022,194 +5035,194 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21" outlineLevel="1">
+    <row r="288" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A288" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C288" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C288" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A289" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C289" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C289" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A290" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C290" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C290" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A291" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C291" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C291" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A292" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C292" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C292" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A293" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C293" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C293" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A294" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C294" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="21">
+      <c r="C294" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="21" collapsed="1">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="16" t="s">
+      <c r="A296" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
-    </row>
-    <row r="297" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B296" s="22"/>
+      <c r="C296" s="22"/>
+    </row>
+    <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C297" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C297" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C298" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C298" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C299" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C299" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C300" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C300" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C301" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C301" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C302" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C302" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C303" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C303" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C304" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C304" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C305" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C305" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5220,29 +5233,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21" outlineLevel="1">
+    <row r="307" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C307" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C307" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C308" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C308" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5253,139 +5266,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21" outlineLevel="1">
+    <row r="310" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B310" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C310" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C310" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C311" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C311" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C312" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C312" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B313" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C313" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C313" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C314" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C314" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C315" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C315" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C316" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C316" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B317" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C317" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C317" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C318" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C318" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C319" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C319" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C320" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C320" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C321" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C321" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5396,62 +5409,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21" outlineLevel="1">
+    <row r="323" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C323" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C323" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C324" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C324" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C325" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C325" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C326" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C326" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C327" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C327" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5462,150 +5475,150 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21" outlineLevel="1">
+    <row r="329" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C329" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C329" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C330" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C330" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C331" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C331" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C332" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C332" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C333" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C333" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A334" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C334" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="21">
+      <c r="C334" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="21" collapsed="1">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
-    </row>
-    <row r="337" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B336" s="19"/>
+      <c r="C336" s="19"/>
+    </row>
+    <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C337" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C337" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A338" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C338" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C338" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A339" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C339" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C339" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A340" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C340" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C340" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A341" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C341" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C341" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A342" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B342" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C342" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C342" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A343" s="8" t="s">
         <v>324</v>
       </c>
@@ -5616,18 +5629,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21" outlineLevel="1">
+    <row r="344" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A344" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C344" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C344" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A345" s="8" t="s">
         <v>324</v>
       </c>
@@ -5638,249 +5651,249 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21" outlineLevel="1">
+    <row r="346" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A346" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C346" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C346" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A347" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C347" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C347" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A348" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C348" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C348" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A349" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C349" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C349" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A350" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C350" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C350" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C351" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C351" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A352" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C352" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C352" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C353" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C353" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A354" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C354" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="21">
+      <c r="C354" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="21" collapsed="1">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
-    </row>
-    <row r="357" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B356" s="15"/>
+      <c r="C356" s="15"/>
+    </row>
+    <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C357" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C357" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C358" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C358" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C359" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C359" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C360" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C360" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C361" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C361" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C362" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C362" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C363" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C363" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C364" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C364" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C365" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C365" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C366" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C366" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C367" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C367" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C368" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C368" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5891,18 +5904,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21" outlineLevel="1">
+    <row r="370" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C370" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C370" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5913,18 +5926,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21" outlineLevel="1">
+    <row r="372" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C372" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C372" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5935,150 +5948,150 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21" outlineLevel="1">
+    <row r="374" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C374" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C374" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B375" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C375" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C375" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B376" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C376" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C376" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C377" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C377" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C378" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C378" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C379" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C379" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C380" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C380" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C381" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C381" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C382" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C382" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C383" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C383" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C384" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C384" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C385" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C385" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C386" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C386" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -6089,117 +6102,117 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21" outlineLevel="1">
+    <row r="388" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C388" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C388" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C389" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C389" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C390" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C390" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C391" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C391" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C392" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C392" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C393" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C393" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C394" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C394" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C395" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C395" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C396" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C396" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C397" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C397" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6210,7 +6223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21" outlineLevel="1">
+    <row r="399" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6221,7 +6234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21" outlineLevel="1">
+    <row r="400" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A400" s="8" t="s">
         <v>343</v>
       </c>
@@ -6232,18 +6245,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" spans="1:3" ht="21" collapsed="1">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="22"/>
-      <c r="C402" s="22"/>
-    </row>
-    <row r="403" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
+    </row>
+    <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -6254,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21" outlineLevel="1">
+    <row r="404" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
@@ -6265,7 +6278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21" outlineLevel="1">
+    <row r="405" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
@@ -6276,7 +6289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21" outlineLevel="1">
+    <row r="406" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -6287,7 +6300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21" outlineLevel="1">
+    <row r="407" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -6298,7 +6311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21" outlineLevel="1">
+    <row r="408" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A408" s="8" t="s">
         <v>387</v>
       </c>
@@ -6309,40 +6322,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="21">
+    <row r="409" spans="1:3" ht="21" collapsed="1">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="23"/>
-      <c r="C410" s="23"/>
-    </row>
-    <row r="411" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B410" s="17"/>
+      <c r="C410" s="17"/>
+    </row>
+    <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C411" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C411" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C412" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C412" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6353,18 +6366,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21" outlineLevel="1">
+    <row r="414" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B414" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C414" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C414" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6375,7 +6388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21" outlineLevel="1">
+    <row r="416" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6386,29 +6399,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21" outlineLevel="1">
+    <row r="417" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B417" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C417" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C417" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B418" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C418" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C418" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6419,29 +6432,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21" outlineLevel="1">
+    <row r="420" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C420" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C420" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B421" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C421" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C421" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6452,128 +6465,128 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21" outlineLevel="1">
+    <row r="423" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B423" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C423" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C423" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B424" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C424" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C424" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C425" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C425" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B426" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C426" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C426" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C427" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C427" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C428" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C428" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C429" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C429" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B430" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C430" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C430" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B431" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C431" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C431" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B432" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C432" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C432" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B433" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C433" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6584,7 +6597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21" outlineLevel="1">
+    <row r="435" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6595,161 +6608,161 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21" outlineLevel="1">
+    <row r="436" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B436" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C436" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C436" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B437" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C437" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C437" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B438" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C438" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C438" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B439" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C439" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C439" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B440" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C440" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C440" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B441" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C441" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C441" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B442" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C442" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C442" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C443" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C443" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B444" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C444" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C444" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B445" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C445" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C445" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C446" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C446" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B447" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C447" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C447" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B448" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C448" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C448" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C449" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C449" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6760,205 +6773,205 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21" outlineLevel="1">
+    <row r="451" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B451" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C451" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C451" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B452" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C452" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C452" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B453" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C453" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C453" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C454" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C454" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B455" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C455" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C455" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B456" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C456" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C456" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B457" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C457" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C457" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B458" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C458" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C458" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B459" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C459" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C459" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B460" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C460" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C460" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C461" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C461" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B462" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C462" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C462" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B463" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C463" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C463" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B464" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C464" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C464" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B465" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C465" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C465" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B466" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C466" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C466" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B467" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C467" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C467" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B468" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C468" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C468" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -6969,7 +6982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21" outlineLevel="1">
+    <row r="470" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A470" s="5" t="s">
         <v>393</v>
       </c>
@@ -6980,84 +6993,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" spans="1:3" ht="21" collapsed="1">
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="20" t="s">
+      <c r="A472" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="20"/>
-      <c r="C472" s="20"/>
-    </row>
-    <row r="473" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B472" s="18"/>
+      <c r="C472" s="18"/>
+    </row>
+    <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B473" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C473" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C473" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A474" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B474" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C474" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C474" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A475" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B475" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C475" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C475" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A476" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B476" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C476" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C476" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A477" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B477" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C477" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C477" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A478" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B478" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C478" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C478" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A479" s="5" t="s">
         <v>453</v>
       </c>
@@ -7068,29 +7081,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21" outlineLevel="1">
+    <row r="480" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A480" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C480" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C480" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A481" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C481" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" ht="21" outlineLevel="1">
+      <c r="C481" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A482" s="5" t="s">
         <v>453</v>
       </c>
@@ -7101,23 +7114,24 @@
         <v>4</v>
       </c>
     </row>
+    <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9702825C-EC20-4E8E-A00A-89429E55838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768B5DA-63A4-4F3E-99EA-159B3D3661DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1466,6 +1467,18 @@
   </si>
   <si>
     <t>DONE:</t>
+  </si>
+  <si>
+    <t>Day Tracker</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1604,12 +1617,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1637,6 +1665,14 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1661,11 +1697,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1984,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:C402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2018,9 +2051,9 @@
       <c r="E4" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="F4" s="24" cm="1">
+      <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2030,17 +2063,17 @@
       <c r="E5" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="F5" s="23" cm="1">
+      <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2446,11 +2479,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2564,11 +2597,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3045,11 +3078,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3449,11 +3482,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="18" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3851,11 +3884,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="22" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="22"/>
-      <c r="C177" s="22"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4248,11 +4281,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="19" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="19"/>
-      <c r="C214" s="19"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4501,11 +4534,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="22" t="s">
+      <c r="A238" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4897,11 +4930,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="19" t="s">
+      <c r="A275" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="19"/>
-      <c r="C275" s="19"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5117,11 +5150,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="22" t="s">
+      <c r="A296" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="22"/>
-      <c r="C296" s="22"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5546,11 +5579,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="19" t="s">
+      <c r="A336" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="19"/>
-      <c r="C336" s="19"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5755,11 +5788,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="15" t="s">
+      <c r="A356" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="15"/>
-      <c r="C356" s="15"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6250,11 +6283,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="16" t="s">
+      <c r="A402" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="16"/>
-      <c r="C402" s="16"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6327,13 +6360,13 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="17" t="s">
+      <c r="A410" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="17"/>
-      <c r="C410" s="17"/>
-    </row>
-    <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
+    </row>
+    <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -6341,10 +6374,10 @@
         <v>394</v>
       </c>
       <c r="C411" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="21" outlineLevel="1">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -6355,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="413" spans="1:3" ht="21" outlineLevel="1">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6366,7 +6399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="414" spans="1:3" ht="21" outlineLevel="1">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6377,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="415" spans="1:3" ht="21" outlineLevel="1">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6388,7 +6421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="416" spans="1:3" ht="21" outlineLevel="1">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6399,7 +6432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="417" spans="1:3" ht="21" outlineLevel="1">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6410,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="418" spans="1:3" ht="21" outlineLevel="1">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6421,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="419" spans="1:3" ht="21" outlineLevel="1">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6432,7 +6465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="420" spans="1:3" ht="21" outlineLevel="1">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6443,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="421" spans="1:3" ht="21" outlineLevel="1">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6454,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="422" spans="1:3" ht="21" outlineLevel="1">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6465,7 +6498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="423" spans="1:3" ht="21" outlineLevel="1">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6476,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="424" spans="1:3" ht="21" outlineLevel="1">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6487,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="425" spans="1:3" ht="21" outlineLevel="1">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6498,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="426" spans="1:3" ht="21" outlineLevel="1">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6509,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="427" spans="1:3" ht="21" outlineLevel="1">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6520,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="428" spans="1:3" ht="21" outlineLevel="1">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6531,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="429" spans="1:3" ht="21" outlineLevel="1">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6542,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="430" spans="1:3" ht="21" outlineLevel="1">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6553,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="431" spans="1:3" ht="21" outlineLevel="1">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6564,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="432" spans="1:3" ht="21" outlineLevel="1">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6575,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="433" spans="1:3" ht="21" outlineLevel="1">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -6586,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="434" spans="1:3" ht="21" outlineLevel="1">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6597,7 +6630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="435" spans="1:3" ht="21" outlineLevel="1">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6608,7 +6641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="436" spans="1:3" ht="21" outlineLevel="1">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6619,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="437" spans="1:3" ht="21" outlineLevel="1">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6630,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="438" spans="1:3" ht="21" outlineLevel="1">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6641,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="439" spans="1:3" ht="21" outlineLevel="1">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6652,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="440" spans="1:3" ht="21" outlineLevel="1">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6663,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="441" spans="1:3" ht="21" outlineLevel="1">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6674,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="442" spans="1:3" ht="21" outlineLevel="1">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6685,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="443" spans="1:3" ht="21" outlineLevel="1">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6696,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="444" spans="1:3" ht="21" outlineLevel="1">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -6707,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="445" spans="1:3" ht="21" outlineLevel="1">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6718,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="446" spans="1:3" ht="21" outlineLevel="1">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6729,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="447" spans="1:3" ht="21" outlineLevel="1">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6740,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="448" spans="1:3" ht="21" outlineLevel="1">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -6751,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="449" spans="1:3" ht="21" outlineLevel="1">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -6762,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="450" spans="1:3" ht="21" outlineLevel="1">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6773,7 +6806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="451" spans="1:3" ht="21" outlineLevel="1">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -6784,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="452" spans="1:3" ht="21" outlineLevel="1">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -6795,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="453" spans="1:3" ht="21" outlineLevel="1">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -6806,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="454" spans="1:3" ht="21" outlineLevel="1">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -6817,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="455" spans="1:3" ht="21" outlineLevel="1">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -6828,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="456" spans="1:3" ht="21" outlineLevel="1">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -6839,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="457" spans="1:3" ht="21" outlineLevel="1">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -6850,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="458" spans="1:3" ht="21" outlineLevel="1">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -6861,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="459" spans="1:3" ht="21" outlineLevel="1">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -6872,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="460" spans="1:3" ht="21" outlineLevel="1">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -6883,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="461" spans="1:3" ht="21" outlineLevel="1">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -6894,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="462" spans="1:3" ht="21" outlineLevel="1">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -6905,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="463" spans="1:3" ht="21" outlineLevel="1">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -6916,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="464" spans="1:3" ht="21" outlineLevel="1">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -6927,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="465" spans="1:3" ht="21" outlineLevel="1">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -6938,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="466" spans="1:3" ht="21" outlineLevel="1">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -6949,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="467" spans="1:3" ht="21" outlineLevel="1">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -6960,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="468" spans="1:3" ht="21" outlineLevel="1">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -6971,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="469" spans="1:3" ht="21" outlineLevel="1">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -6982,7 +7015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="470" spans="1:3" ht="21" outlineLevel="1">
       <c r="A470" s="5" t="s">
         <v>393</v>
       </c>
@@ -6993,16 +7026,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="21" collapsed="1">
+    <row r="471" spans="1:3" ht="21">
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="18" t="s">
+      <c r="A472" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="18"/>
-      <c r="C472" s="18"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7583,4 +7616,322 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20848689-761B-4BF5-9A64-D3B8DC72D2EB}">
+  <dimension ref="B2:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="18">
+        <v>45429</v>
+      </c>
+      <c r="C4" s="17">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="18">
+        <v>45430</v>
+      </c>
+      <c r="C5" s="17">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="18">
+        <v>45431</v>
+      </c>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="18">
+        <v>45432</v>
+      </c>
+      <c r="C7" s="17">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="18">
+        <v>45433</v>
+      </c>
+      <c r="C8" s="17">
+        <v>10</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="18">
+        <v>45434</v>
+      </c>
+      <c r="C9" s="17">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="18">
+        <v>45435</v>
+      </c>
+      <c r="C10" s="17">
+        <v>10</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="18">
+        <v>45436</v>
+      </c>
+      <c r="C11" s="17">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="18">
+        <v>45437</v>
+      </c>
+      <c r="C12" s="17">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="18">
+        <v>45438</v>
+      </c>
+      <c r="C13" s="17">
+        <v>10</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="18">
+        <v>45439</v>
+      </c>
+      <c r="C14" s="17">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="18">
+        <v>45440</v>
+      </c>
+      <c r="C15" s="17">
+        <v>10</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="18">
+        <v>45441</v>
+      </c>
+      <c r="C16" s="17">
+        <v>10</v>
+      </c>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="18">
+        <v>45442</v>
+      </c>
+      <c r="C17" s="17">
+        <v>10</v>
+      </c>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="18">
+        <v>45443</v>
+      </c>
+      <c r="C18" s="17">
+        <v>10</v>
+      </c>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="18">
+        <v>45444</v>
+      </c>
+      <c r="C19" s="17">
+        <v>10</v>
+      </c>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="18">
+        <v>45445</v>
+      </c>
+      <c r="C20" s="17">
+        <v>10</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="18">
+        <v>45446</v>
+      </c>
+      <c r="C21" s="17">
+        <v>10</v>
+      </c>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="18">
+        <v>45447</v>
+      </c>
+      <c r="C22" s="17">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="18">
+        <v>45448</v>
+      </c>
+      <c r="C23" s="17">
+        <v>10</v>
+      </c>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="18">
+        <v>45449</v>
+      </c>
+      <c r="C24" s="17">
+        <v>10</v>
+      </c>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="18">
+        <v>45450</v>
+      </c>
+      <c r="C25" s="17">
+        <v>10</v>
+      </c>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="18">
+        <v>45451</v>
+      </c>
+      <c r="C26" s="17">
+        <v>10</v>
+      </c>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="18">
+        <v>45452</v>
+      </c>
+      <c r="C27" s="17">
+        <v>10</v>
+      </c>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="18">
+        <v>45453</v>
+      </c>
+      <c r="C28" s="17">
+        <v>10</v>
+      </c>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="18">
+        <v>45454</v>
+      </c>
+      <c r="C29" s="17">
+        <v>10</v>
+      </c>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="18">
+        <v>45455</v>
+      </c>
+      <c r="C30" s="17">
+        <v>10</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="18">
+        <v>45456</v>
+      </c>
+      <c r="C31" s="17">
+        <v>10</v>
+      </c>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="18">
+        <v>45457</v>
+      </c>
+      <c r="C32" s="17">
+        <v>10</v>
+      </c>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="18">
+        <v>45458</v>
+      </c>
+      <c r="C33" s="17">
+        <v>10</v>
+      </c>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="18">
+        <v>45459</v>
+      </c>
+      <c r="C34" s="17">
+        <v>10</v>
+      </c>
+      <c r="D34" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768B5DA-63A4-4F3E-99EA-159B3D3661DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97356589-CB80-4CED-875D-4A3FB36AA723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:C402"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4540,7 +4540,7 @@
       <c r="B238" s="26"/>
       <c r="C238" s="26"/>
     </row>
-    <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -4548,10 +4548,10 @@
         <v>231</v>
       </c>
       <c r="C239" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="21" outlineLevel="1">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="241" spans="1:3" ht="21" outlineLevel="1">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="242" spans="1:3" ht="21" outlineLevel="1">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="243" spans="1:3" ht="21" outlineLevel="1">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="244" spans="1:3" ht="21" outlineLevel="1">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="245" spans="1:3" ht="21" outlineLevel="1">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="246" spans="1:3" ht="21" outlineLevel="1">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="247" spans="1:3" ht="21" outlineLevel="1">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="248" spans="1:3" ht="21" outlineLevel="1">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="249" spans="1:3" ht="21" outlineLevel="1">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="250" spans="1:3" ht="21" outlineLevel="1">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="251" spans="1:3" ht="21" outlineLevel="1">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="252" spans="1:3" ht="21" outlineLevel="1">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="253" spans="1:3" ht="21" outlineLevel="1">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="254" spans="1:3" ht="21" outlineLevel="1">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="255" spans="1:3" ht="21" outlineLevel="1">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="256" spans="1:3" ht="21" outlineLevel="1">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="257" spans="1:3" ht="21" outlineLevel="1">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="258" spans="1:3" ht="21" outlineLevel="1">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="259" spans="1:3" ht="21" outlineLevel="1">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="260" spans="1:3" ht="21" outlineLevel="1">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="261" spans="1:3" ht="21" outlineLevel="1">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="262" spans="1:3" ht="21" outlineLevel="1">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="263" spans="1:3" ht="21" outlineLevel="1">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="264" spans="1:3" ht="21" outlineLevel="1">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="265" spans="1:3" ht="21" outlineLevel="1">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="266" spans="1:3" ht="21" outlineLevel="1">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="267" spans="1:3" ht="21" outlineLevel="1">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="268" spans="1:3" ht="21" outlineLevel="1">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="269" spans="1:3" ht="21" outlineLevel="1">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="270" spans="1:3" ht="21" outlineLevel="1">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="271" spans="1:3" ht="21" outlineLevel="1">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="272" spans="1:3" ht="21" outlineLevel="1">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="273" spans="1:3" ht="21" outlineLevel="1">
       <c r="A273" s="5" t="s">
         <v>230</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="21" collapsed="1">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
@@ -6366,7 +6366,7 @@
       <c r="B410" s="21"/>
       <c r="C410" s="21"/>
     </row>
-    <row r="411" spans="1:3" ht="21" outlineLevel="1">
+    <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21" outlineLevel="1">
+    <row r="412" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21" outlineLevel="1">
+    <row r="413" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21" outlineLevel="1">
+    <row r="414" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21" outlineLevel="1">
+    <row r="415" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21" outlineLevel="1">
+    <row r="416" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21" outlineLevel="1">
+    <row r="417" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21" outlineLevel="1">
+    <row r="418" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21" outlineLevel="1">
+    <row r="419" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21" outlineLevel="1">
+    <row r="420" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21" outlineLevel="1">
+    <row r="421" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21" outlineLevel="1">
+    <row r="422" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21" outlineLevel="1">
+    <row r="423" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21" outlineLevel="1">
+    <row r="424" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21" outlineLevel="1">
+    <row r="425" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21" outlineLevel="1">
+    <row r="426" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21" outlineLevel="1">
+    <row r="427" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21" outlineLevel="1">
+    <row r="428" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21" outlineLevel="1">
+    <row r="429" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21" outlineLevel="1">
+    <row r="430" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21" outlineLevel="1">
+    <row r="431" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21" outlineLevel="1">
+    <row r="432" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21" outlineLevel="1">
+    <row r="433" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21" outlineLevel="1">
+    <row r="434" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21" outlineLevel="1">
+    <row r="435" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21" outlineLevel="1">
+    <row r="436" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21" outlineLevel="1">
+    <row r="437" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21" outlineLevel="1">
+    <row r="438" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21" outlineLevel="1">
+    <row r="439" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21" outlineLevel="1">
+    <row r="440" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21" outlineLevel="1">
+    <row r="441" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21" outlineLevel="1">
+    <row r="442" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21" outlineLevel="1">
+    <row r="443" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21" outlineLevel="1">
+    <row r="444" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21" outlineLevel="1">
+    <row r="445" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21" outlineLevel="1">
+    <row r="446" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21" outlineLevel="1">
+    <row r="447" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21" outlineLevel="1">
+    <row r="448" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21" outlineLevel="1">
+    <row r="449" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21" outlineLevel="1">
+    <row r="450" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21" outlineLevel="1">
+    <row r="451" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21" outlineLevel="1">
+    <row r="452" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21" outlineLevel="1">
+    <row r="453" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21" outlineLevel="1">
+    <row r="454" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21" outlineLevel="1">
+    <row r="455" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21" outlineLevel="1">
+    <row r="456" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21" outlineLevel="1">
+    <row r="457" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21" outlineLevel="1">
+    <row r="458" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21" outlineLevel="1">
+    <row r="459" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21" outlineLevel="1">
+    <row r="460" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21" outlineLevel="1">
+    <row r="461" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21" outlineLevel="1">
+    <row r="462" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21" outlineLevel="1">
+    <row r="463" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21" outlineLevel="1">
+    <row r="464" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21" outlineLevel="1">
+    <row r="465" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21" outlineLevel="1">
+    <row r="466" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21" outlineLevel="1">
+    <row r="467" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21" outlineLevel="1">
+    <row r="468" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21" outlineLevel="1">
+    <row r="469" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21" outlineLevel="1">
+    <row r="470" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A470" s="5" t="s">
         <v>393</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" spans="1:3" ht="21" collapsed="1">
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97356589-CB80-4CED-875D-4A3FB36AA723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275B67C-7CFE-4D03-AD45-557BC8DA78FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1673,16 +1673,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1694,7 +1685,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2018,7 +2018,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,15 +2065,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2479,11 +2479,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3078,11 +3078,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3482,11 +3482,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3884,11 +3884,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4281,11 +4281,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4534,11 +4534,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4559,7 +4559,7 @@
         <v>232</v>
       </c>
       <c r="C240" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="21" outlineLevel="1">
@@ -4930,11 +4930,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5150,11 +5150,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5579,11 +5579,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5788,11 +5788,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6283,11 +6283,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6360,11 +6360,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7031,11 +7031,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7150,21 +7150,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275B67C-7CFE-4D03-AD45-557BC8DA78FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC604EA-4B84-4FCA-A19A-D9C4430F6205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1673,7 +1673,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1685,16 +1694,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,15 +2065,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2479,11 +2479,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3078,11 +3078,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3482,11 +3482,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3884,11 +3884,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4281,11 +4281,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4534,13 +4534,13 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
-    </row>
-    <row r="239" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
+    </row>
+    <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21" outlineLevel="1">
+    <row r="240" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21" outlineLevel="1">
+    <row r="241" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21" outlineLevel="1">
+    <row r="242" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21" outlineLevel="1">
+    <row r="243" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21" outlineLevel="1">
+    <row r="244" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21" outlineLevel="1">
+    <row r="245" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21" outlineLevel="1">
+    <row r="246" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21" outlineLevel="1">
+    <row r="247" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21" outlineLevel="1">
+    <row r="248" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21" outlineLevel="1">
+    <row r="249" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21" outlineLevel="1">
+    <row r="250" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21" outlineLevel="1">
+    <row r="251" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21" outlineLevel="1">
+    <row r="252" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21" outlineLevel="1">
+    <row r="253" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21" outlineLevel="1">
+    <row r="254" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21" outlineLevel="1">
+    <row r="255" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21" outlineLevel="1">
+    <row r="256" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21" outlineLevel="1">
+    <row r="257" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21" outlineLevel="1">
+    <row r="258" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21" outlineLevel="1">
+    <row r="259" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21" outlineLevel="1">
+    <row r="260" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21" outlineLevel="1">
+    <row r="261" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21" outlineLevel="1">
+    <row r="262" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21" outlineLevel="1">
+    <row r="263" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21" outlineLevel="1">
+    <row r="264" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21" outlineLevel="1">
+    <row r="265" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21" outlineLevel="1">
+    <row r="266" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21" outlineLevel="1">
+    <row r="267" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21" outlineLevel="1">
+    <row r="268" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21" outlineLevel="1">
+    <row r="269" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21" outlineLevel="1">
+    <row r="270" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21" outlineLevel="1">
+    <row r="271" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21" outlineLevel="1">
+    <row r="272" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21" outlineLevel="1">
+    <row r="273" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A273" s="5" t="s">
         <v>230</v>
       </c>
@@ -4925,16 +4925,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row r="274" spans="1:3" ht="21" collapsed="1">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5150,11 +5150,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5579,11 +5579,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5788,13 +5788,13 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
-    </row>
-    <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
+    </row>
+    <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -5802,10 +5802,10 @@
         <v>344</v>
       </c>
       <c r="C357" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="21" outlineLevel="1">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="359" spans="1:3" ht="21" outlineLevel="1">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="360" spans="1:3" ht="21" outlineLevel="1">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="361" spans="1:3" ht="21" outlineLevel="1">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="362" spans="1:3" ht="21" outlineLevel="1">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="363" spans="1:3" ht="21" outlineLevel="1">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="364" spans="1:3" ht="21" outlineLevel="1">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="365" spans="1:3" ht="21" outlineLevel="1">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="366" spans="1:3" ht="21" outlineLevel="1">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="367" spans="1:3" ht="21" outlineLevel="1">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="368" spans="1:3" ht="21" outlineLevel="1">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="369" spans="1:3" ht="21" outlineLevel="1">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="370" spans="1:3" ht="21" outlineLevel="1">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="371" spans="1:3" ht="21" outlineLevel="1">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="372" spans="1:3" ht="21" outlineLevel="1">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="373" spans="1:3" ht="21" outlineLevel="1">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="374" spans="1:3" ht="21" outlineLevel="1">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="375" spans="1:3" ht="21" outlineLevel="1">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="376" spans="1:3" ht="21" outlineLevel="1">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="377" spans="1:3" ht="21" outlineLevel="1">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="378" spans="1:3" ht="21" outlineLevel="1">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="379" spans="1:3" ht="21" outlineLevel="1">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="380" spans="1:3" ht="21" outlineLevel="1">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="381" spans="1:3" ht="21" outlineLevel="1">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="382" spans="1:3" ht="21" outlineLevel="1">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="383" spans="1:3" ht="21" outlineLevel="1">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="384" spans="1:3" ht="21" outlineLevel="1">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="385" spans="1:3" ht="21" outlineLevel="1">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="386" spans="1:3" ht="21" outlineLevel="1">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="387" spans="1:3" ht="21" outlineLevel="1">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="388" spans="1:3" ht="21" outlineLevel="1">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="389" spans="1:3" ht="21" outlineLevel="1">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="390" spans="1:3" ht="21" outlineLevel="1">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="391" spans="1:3" ht="21" outlineLevel="1">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="392" spans="1:3" ht="21" outlineLevel="1">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="393" spans="1:3" ht="21" outlineLevel="1">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="394" spans="1:3" ht="21" outlineLevel="1">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="395" spans="1:3" ht="21" outlineLevel="1">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="396" spans="1:3" ht="21" outlineLevel="1">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="397" spans="1:3" ht="21" outlineLevel="1">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="398" spans="1:3" ht="21" outlineLevel="1">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="399" spans="1:3" ht="21" outlineLevel="1">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="400" spans="1:3" ht="21" outlineLevel="1">
       <c r="A400" s="8" t="s">
         <v>343</v>
       </c>
@@ -6278,16 +6278,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="21" collapsed="1">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6360,11 +6360,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7031,11 +7031,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7150,21 +7150,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC604EA-4B84-4FCA-A19A-D9C4430F6205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBF568A-B631-440A-A7CF-5953BB0E830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1673,16 +1673,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1694,7 +1685,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,15 +2065,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2479,11 +2479,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3078,11 +3078,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3482,11 +3482,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3884,11 +3884,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4281,11 +4281,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4534,11 +4534,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4930,11 +4930,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5150,11 +5150,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5579,11 +5579,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5788,11 +5788,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -5813,7 +5813,7 @@
         <v>345</v>
       </c>
       <c r="C358" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21" outlineLevel="1">
@@ -6283,11 +6283,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6360,11 +6360,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7031,11 +7031,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7150,21 +7150,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBF568A-B631-440A-A7CF-5953BB0E830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4AB2F8-026D-4C5D-B47D-7C8BBA850159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2018,7 +2018,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="C358" sqref="C358"/>
+      <selection activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5824,7 +5824,7 @@
         <v>346</v>
       </c>
       <c r="C359" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21" outlineLevel="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4AB2F8-026D-4C5D-B47D-7C8BBA850159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10279603-1B9E-435B-8F7E-79B956D3D7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="C362" sqref="C362"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3084,7 +3084,7 @@
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
     </row>
-    <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -3092,10 +3092,10 @@
         <v>98</v>
       </c>
       <c r="C102" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="21" outlineLevel="1">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="104" spans="1:3" ht="21" outlineLevel="1">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="105" spans="1:3" ht="21" outlineLevel="1">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="106" spans="1:3" ht="21" outlineLevel="1">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="107" spans="1:3" ht="21" outlineLevel="1">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="108" spans="1:3" ht="21" outlineLevel="1">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="109" spans="1:3" ht="21" outlineLevel="1">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="110" spans="1:3" ht="21" outlineLevel="1">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="111" spans="1:3" ht="21" outlineLevel="1">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="112" spans="1:3" ht="21" outlineLevel="1">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="113" spans="1:3" ht="21" outlineLevel="1">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="114" spans="1:3" ht="21" outlineLevel="1">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="115" spans="1:3" ht="21" outlineLevel="1">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="116" spans="1:3" ht="21" outlineLevel="1">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="117" spans="1:3" ht="21" outlineLevel="1">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="118" spans="1:3" ht="21" outlineLevel="1">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="119" spans="1:3" ht="21" outlineLevel="1">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="120" spans="1:3" ht="21" outlineLevel="1">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="121" spans="1:3" ht="21" outlineLevel="1">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="122" spans="1:3" ht="21" outlineLevel="1">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="123" spans="1:3" ht="21" outlineLevel="1">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="124" spans="1:3" ht="21" outlineLevel="1">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="125" spans="1:3" ht="21" outlineLevel="1">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="126" spans="1:3" ht="21" outlineLevel="1">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="127" spans="1:3" ht="21" outlineLevel="1">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="128" spans="1:3" ht="21" outlineLevel="1">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="129" spans="1:3" ht="21" outlineLevel="1">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="130" spans="1:3" ht="21" outlineLevel="1">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="131" spans="1:3" ht="21" outlineLevel="1">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="132" spans="1:3" ht="21" outlineLevel="1">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="133" spans="1:3" ht="21" outlineLevel="1">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="134" spans="1:3" ht="21" outlineLevel="1">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="135" spans="1:3" ht="21" outlineLevel="1">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="136" spans="1:3" ht="21" outlineLevel="1">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="137" spans="1:3" ht="21" outlineLevel="1">
       <c r="A137" s="5" t="s">
         <v>97</v>
       </c>
@@ -3480,7 +3480,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
       <c r="A139" s="23" t="s">
         <v>134</v>
@@ -5794,7 +5793,7 @@
       <c r="B356" s="24"/>
       <c r="C356" s="24"/>
     </row>
-    <row r="357" spans="1:3" ht="21" outlineLevel="1">
+    <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21" outlineLevel="1">
+    <row r="358" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21" outlineLevel="1">
+    <row r="359" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21" outlineLevel="1">
+    <row r="360" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21" outlineLevel="1">
+    <row r="361" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21" outlineLevel="1">
+    <row r="362" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21" outlineLevel="1">
+    <row r="363" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21" outlineLevel="1">
+    <row r="364" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5882,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21" outlineLevel="1">
+    <row r="365" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21" outlineLevel="1">
+    <row r="366" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21" outlineLevel="1">
+    <row r="367" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21" outlineLevel="1">
+    <row r="368" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21" outlineLevel="1">
+    <row r="369" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5937,7 +5936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21" outlineLevel="1">
+    <row r="370" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21" outlineLevel="1">
+    <row r="371" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5959,7 +5958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21" outlineLevel="1">
+    <row r="372" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5970,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21" outlineLevel="1">
+    <row r="373" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21" outlineLevel="1">
+    <row r="374" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21" outlineLevel="1">
+    <row r="375" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21" outlineLevel="1">
+    <row r="376" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21" outlineLevel="1">
+    <row r="377" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21" outlineLevel="1">
+    <row r="378" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21" outlineLevel="1">
+    <row r="379" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21" outlineLevel="1">
+    <row r="380" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21" outlineLevel="1">
+    <row r="381" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21" outlineLevel="1">
+    <row r="382" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21" outlineLevel="1">
+    <row r="383" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -6091,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21" outlineLevel="1">
+    <row r="384" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21" outlineLevel="1">
+    <row r="385" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21" outlineLevel="1">
+    <row r="386" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -6124,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21" outlineLevel="1">
+    <row r="387" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -6135,7 +6134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21" outlineLevel="1">
+    <row r="388" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21" outlineLevel="1">
+    <row r="389" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21" outlineLevel="1">
+    <row r="390" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21" outlineLevel="1">
+    <row r="391" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -6179,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21" outlineLevel="1">
+    <row r="392" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21" outlineLevel="1">
+    <row r="393" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21" outlineLevel="1">
+    <row r="394" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21" outlineLevel="1">
+    <row r="395" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21" outlineLevel="1">
+    <row r="396" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21" outlineLevel="1">
+    <row r="397" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21" outlineLevel="1">
+    <row r="398" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6256,7 +6255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21" outlineLevel="1">
+    <row r="399" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21" outlineLevel="1">
+    <row r="400" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A400" s="8" t="s">
         <v>343</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" spans="1:3" ht="21" collapsed="1">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
@@ -7623,7 +7622,7 @@
   <dimension ref="B2:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -7656,7 +7655,9 @@
       <c r="C4" s="17">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="17">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="18">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10279603-1B9E-435B-8F7E-79B956D3D7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9260F59-ABB8-4C72-A40B-E0256CAA9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1673,7 +1673,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1685,16 +1694,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2018,7 +2018,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,15 +2065,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2479,11 +2479,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3078,11 +3078,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3114,7 +3114,7 @@
         <v>100</v>
       </c>
       <c r="C104" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21" outlineLevel="1">
@@ -3481,11 +3481,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3883,11 +3883,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4280,11 +4280,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4533,11 +4533,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4929,11 +4929,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5149,11 +5149,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5578,11 +5578,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5787,11 +5787,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6282,11 +6282,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6359,11 +6359,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7030,11 +7030,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7149,21 +7149,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9260F59-ABB8-4C72-A40B-E0256CAA9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301E20BE-A518-4CFC-B719-F5EF7219B241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3084,7 +3084,7 @@
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
     </row>
-    <row r="102" spans="1:3" ht="21" outlineLevel="1">
+    <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21" outlineLevel="1">
+    <row r="103" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21" outlineLevel="1">
+    <row r="104" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21" outlineLevel="1">
+    <row r="105" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21" outlineLevel="1">
+    <row r="106" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21" outlineLevel="1">
+    <row r="107" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21" outlineLevel="1">
+    <row r="108" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21" outlineLevel="1">
+    <row r="109" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21" outlineLevel="1">
+    <row r="110" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21" outlineLevel="1">
+    <row r="111" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21" outlineLevel="1">
+    <row r="112" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21" outlineLevel="1">
+    <row r="113" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21" outlineLevel="1">
+    <row r="114" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21" outlineLevel="1">
+    <row r="115" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21" outlineLevel="1">
+    <row r="116" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21" outlineLevel="1">
+    <row r="117" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21" outlineLevel="1">
+    <row r="118" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21" outlineLevel="1">
+    <row r="119" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21" outlineLevel="1">
+    <row r="120" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21" outlineLevel="1">
+    <row r="121" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21" outlineLevel="1">
+    <row r="122" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21" outlineLevel="1">
+    <row r="123" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21" outlineLevel="1">
+    <row r="124" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21" outlineLevel="1">
+    <row r="125" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21" outlineLevel="1">
+    <row r="126" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21" outlineLevel="1">
+    <row r="127" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21" outlineLevel="1">
+    <row r="128" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21" outlineLevel="1">
+    <row r="129" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21" outlineLevel="1">
+    <row r="130" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21" outlineLevel="1">
+    <row r="131" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21" outlineLevel="1">
+    <row r="132" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21" outlineLevel="1">
+    <row r="133" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21" outlineLevel="1">
+    <row r="134" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21" outlineLevel="1">
+    <row r="135" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21" outlineLevel="1">
+    <row r="136" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="21" outlineLevel="1">
+    <row r="137" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A137" s="5" t="s">
         <v>97</v>
       </c>
@@ -3480,6 +3480,7 @@
         <v>4</v>
       </c>
     </row>
+    <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
       <c r="A139" s="22" t="s">
         <v>134</v>
@@ -3487,7 +3488,7 @@
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
     </row>
-    <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3495,10 +3496,10 @@
         <v>135</v>
       </c>
       <c r="C140" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="21" outlineLevel="1">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="142" spans="1:3" ht="21" outlineLevel="1">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="143" spans="1:3" ht="21" outlineLevel="1">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="144" spans="1:3" ht="21" outlineLevel="1">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="145" spans="1:3" ht="21" outlineLevel="1">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="146" spans="1:3" ht="21" outlineLevel="1">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="147" spans="1:3" ht="21" outlineLevel="1">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="148" spans="1:3" ht="21" outlineLevel="1">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="149" spans="1:3" ht="21" outlineLevel="1">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="150" spans="1:3" ht="21" outlineLevel="1">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="151" spans="1:3" ht="21" outlineLevel="1">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="152" spans="1:3" ht="21" outlineLevel="1">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="153" spans="1:3" ht="21" outlineLevel="1">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="154" spans="1:3" ht="21" outlineLevel="1">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="155" spans="1:3" ht="21" outlineLevel="1">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="156" spans="1:3" ht="21" outlineLevel="1">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="157" spans="1:3" ht="21" outlineLevel="1">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="158" spans="1:3" ht="21" outlineLevel="1">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="159" spans="1:3" ht="21" outlineLevel="1">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="160" spans="1:3" ht="21" outlineLevel="1">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="161" spans="1:3" ht="21" outlineLevel="1">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="162" spans="1:3" ht="21" outlineLevel="1">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="163" spans="1:3" ht="21" outlineLevel="1">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="164" spans="1:3" ht="21" outlineLevel="1">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="165" spans="1:3" ht="21" outlineLevel="1">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="166" spans="1:3" ht="21" outlineLevel="1">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="167" spans="1:3" ht="21" outlineLevel="1">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -3795,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="168" spans="1:3" ht="21" outlineLevel="1">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="169" spans="1:3" ht="21" outlineLevel="1">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="170" spans="1:3" ht="21" outlineLevel="1">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="171" spans="1:3" ht="21" outlineLevel="1">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="172" spans="1:3" ht="21" outlineLevel="1">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="173" spans="1:3" ht="21" outlineLevel="1">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="174" spans="1:3" ht="21" outlineLevel="1">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="175" spans="1:3" ht="21" outlineLevel="1">
       <c r="A175" s="8" t="s">
         <v>134</v>
       </c>
@@ -3881,7 +3882,6 @@
       </c>
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="26" t="s">
         <v>171</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301E20BE-A518-4CFC-B719-F5EF7219B241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE13DF-F29E-4A69-B5D1-E1D778CF82E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1673,16 +1673,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1694,7 +1685,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2018,7 +2018,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,15 +2065,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2479,11 +2479,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3078,11 +3078,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3482,11 +3482,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3507,7 +3507,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21" outlineLevel="1">
@@ -3883,11 +3883,11 @@
       <c r="C175" s="4"/>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4280,11 +4280,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4533,11 +4533,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4929,11 +4929,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5149,11 +5149,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5578,11 +5578,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5787,11 +5787,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6282,11 +6282,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6359,11 +6359,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7030,11 +7030,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7149,21 +7149,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE13DF-F29E-4A69-B5D1-E1D778CF82E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD31905-265A-4455-9937-E8BFC27EBE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C297" sqref="C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3488,7 +3488,7 @@
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
     </row>
-    <row r="140" spans="1:3" ht="21" outlineLevel="1">
+    <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21" outlineLevel="1">
+    <row r="141" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21" outlineLevel="1">
+    <row r="142" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21" outlineLevel="1">
+    <row r="143" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21" outlineLevel="1">
+    <row r="144" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21" outlineLevel="1">
+    <row r="145" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21" outlineLevel="1">
+    <row r="146" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21" outlineLevel="1">
+    <row r="147" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21" outlineLevel="1">
+    <row r="148" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21" outlineLevel="1">
+    <row r="149" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21" outlineLevel="1">
+    <row r="150" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21" outlineLevel="1">
+    <row r="151" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21" outlineLevel="1">
+    <row r="152" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21" outlineLevel="1">
+    <row r="153" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21" outlineLevel="1">
+    <row r="154" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21" outlineLevel="1">
+    <row r="155" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21" outlineLevel="1">
+    <row r="156" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21" outlineLevel="1">
+    <row r="157" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21" outlineLevel="1">
+    <row r="158" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21" outlineLevel="1">
+    <row r="159" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21" outlineLevel="1">
+    <row r="160" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21" outlineLevel="1">
+    <row r="161" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21" outlineLevel="1">
+    <row r="162" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21" outlineLevel="1">
+    <row r="163" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21" outlineLevel="1">
+    <row r="164" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21" outlineLevel="1">
+    <row r="165" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21" outlineLevel="1">
+    <row r="166" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21" outlineLevel="1">
+    <row r="167" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21" outlineLevel="1">
+    <row r="168" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21" outlineLevel="1">
+    <row r="169" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21" outlineLevel="1">
+    <row r="170" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21" outlineLevel="1">
+    <row r="171" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21" outlineLevel="1">
+    <row r="172" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21" outlineLevel="1">
+    <row r="173" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21" outlineLevel="1">
+    <row r="174" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="21" outlineLevel="1">
+    <row r="175" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A175" s="8" t="s">
         <v>134</v>
       </c>
@@ -3882,6 +3882,7 @@
       </c>
       <c r="C175" s="4"/>
     </row>
+    <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="19" t="s">
         <v>171</v>
@@ -5155,7 +5156,7 @@
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
     </row>
-    <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
@@ -5163,10 +5164,10 @@
         <v>286</v>
       </c>
       <c r="C297" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="21" outlineLevel="1">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="299" spans="1:3" ht="21" outlineLevel="1">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="300" spans="1:3" ht="21" outlineLevel="1">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="301" spans="1:3" ht="21" outlineLevel="1">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="302" spans="1:3" ht="21" outlineLevel="1">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="303" spans="1:3" ht="21" outlineLevel="1">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="304" spans="1:3" ht="21" outlineLevel="1">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5243,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="305" spans="1:3" ht="21" outlineLevel="1">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="306" spans="1:3" ht="21" outlineLevel="1">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="307" spans="1:3" ht="21" outlineLevel="1">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="308" spans="1:3" ht="21" outlineLevel="1">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="309" spans="1:3" ht="21" outlineLevel="1">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="310" spans="1:3" ht="21" outlineLevel="1">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="311" spans="1:3" ht="21" outlineLevel="1">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="312" spans="1:3" ht="21" outlineLevel="1">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="313" spans="1:3" ht="21" outlineLevel="1">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="314" spans="1:3" ht="21" outlineLevel="1">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="315" spans="1:3" ht="21" outlineLevel="1">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="316" spans="1:3" ht="21" outlineLevel="1">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="317" spans="1:3" ht="21" outlineLevel="1">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="318" spans="1:3" ht="21" outlineLevel="1">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="319" spans="1:3" ht="21" outlineLevel="1">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="320" spans="1:3" ht="21" outlineLevel="1">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="321" spans="1:3" ht="21" outlineLevel="1">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5430,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="322" spans="1:3" ht="21" outlineLevel="1">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="323" spans="1:3" ht="21" outlineLevel="1">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="324" spans="1:3" ht="21" outlineLevel="1">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="325" spans="1:3" ht="21" outlineLevel="1">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="326" spans="1:3" ht="21" outlineLevel="1">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="327" spans="1:3" ht="21" outlineLevel="1">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="328" spans="1:3" ht="21" outlineLevel="1">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="329" spans="1:3" ht="21" outlineLevel="1">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="330" spans="1:3" ht="21" outlineLevel="1">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
@@ -5529,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="331" spans="1:3" ht="21" outlineLevel="1">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="332" spans="1:3" ht="21" outlineLevel="1">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="333" spans="1:3" ht="21" outlineLevel="1">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="334" spans="1:3" ht="21" outlineLevel="1">
       <c r="A334" s="5" t="s">
         <v>285</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="21" collapsed="1">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
@@ -7622,7 +7623,7 @@
   <dimension ref="B2:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -7666,7 +7667,9 @@
       <c r="C5" s="17">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="17">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="18">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD31905-265A-4455-9937-E8BFC27EBE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E920B4F-B89F-45F6-965E-35D21B1510B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1673,7 +1673,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1685,16 +1694,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2018,7 +2018,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C297" sqref="C297"/>
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,15 +2065,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2479,11 +2479,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3078,11 +3078,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3482,11 +3482,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3884,11 +3884,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4281,11 +4281,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4534,11 +4534,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4930,11 +4930,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5150,11 +5150,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5175,7 +5175,7 @@
         <v>287</v>
       </c>
       <c r="C298" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21" outlineLevel="1">
@@ -5579,11 +5579,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5788,11 +5788,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6283,11 +6283,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6360,11 +6360,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7031,11 +7031,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7150,21 +7150,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E920B4F-B89F-45F6-965E-35D21B1510B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6388BDB8-72D9-4293-B074-E0143B2559D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1673,16 +1673,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1694,7 +1685,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="C413" sqref="C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2065,15 +2065,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2479,11 +2479,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3078,11 +3078,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3482,11 +3482,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3884,11 +3884,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4281,11 +4281,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4534,11 +4534,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4930,11 +4930,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5150,13 +5150,13 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
-    </row>
-    <row r="297" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
+    </row>
+    <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21" outlineLevel="1">
+    <row r="298" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21" outlineLevel="1">
+    <row r="299" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21" outlineLevel="1">
+    <row r="300" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21" outlineLevel="1">
+    <row r="301" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21" outlineLevel="1">
+    <row r="302" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21" outlineLevel="1">
+    <row r="303" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21" outlineLevel="1">
+    <row r="304" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21" outlineLevel="1">
+    <row r="305" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21" outlineLevel="1">
+    <row r="306" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21" outlineLevel="1">
+    <row r="307" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21" outlineLevel="1">
+    <row r="308" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21" outlineLevel="1">
+    <row r="309" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21" outlineLevel="1">
+    <row r="310" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21" outlineLevel="1">
+    <row r="311" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21" outlineLevel="1">
+    <row r="312" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21" outlineLevel="1">
+    <row r="313" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21" outlineLevel="1">
+    <row r="314" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21" outlineLevel="1">
+    <row r="315" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21" outlineLevel="1">
+    <row r="316" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21" outlineLevel="1">
+    <row r="317" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21" outlineLevel="1">
+    <row r="318" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21" outlineLevel="1">
+    <row r="319" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21" outlineLevel="1">
+    <row r="320" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21" outlineLevel="1">
+    <row r="321" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21" outlineLevel="1">
+    <row r="322" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21" outlineLevel="1">
+    <row r="323" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21" outlineLevel="1">
+    <row r="324" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21" outlineLevel="1">
+    <row r="325" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21" outlineLevel="1">
+    <row r="326" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21" outlineLevel="1">
+    <row r="327" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21" outlineLevel="1">
+    <row r="328" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21" outlineLevel="1">
+    <row r="329" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21" outlineLevel="1">
+    <row r="330" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21" outlineLevel="1">
+    <row r="331" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21" outlineLevel="1">
+    <row r="332" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21" outlineLevel="1">
+    <row r="333" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21" outlineLevel="1">
+    <row r="334" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A334" s="5" t="s">
         <v>285</v>
       </c>
@@ -5574,16 +5574,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row r="335" spans="1:3" ht="21" collapsed="1">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5788,11 +5788,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6283,11 +6283,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6360,13 +6360,13 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
-    </row>
-    <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
+    </row>
+    <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="412" spans="1:3" ht="21" outlineLevel="1">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -6385,10 +6385,10 @@
         <v>395</v>
       </c>
       <c r="C412" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="21" outlineLevel="1">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="414" spans="1:3" ht="21" outlineLevel="1">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="415" spans="1:3" ht="21" outlineLevel="1">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="416" spans="1:3" ht="21" outlineLevel="1">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="417" spans="1:3" ht="21" outlineLevel="1">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="418" spans="1:3" ht="21" outlineLevel="1">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="419" spans="1:3" ht="21" outlineLevel="1">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="420" spans="1:3" ht="21" outlineLevel="1">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="421" spans="1:3" ht="21" outlineLevel="1">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="422" spans="1:3" ht="21" outlineLevel="1">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="423" spans="1:3" ht="21" outlineLevel="1">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="424" spans="1:3" ht="21" outlineLevel="1">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="425" spans="1:3" ht="21" outlineLevel="1">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="426" spans="1:3" ht="21" outlineLevel="1">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="427" spans="1:3" ht="21" outlineLevel="1">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="428" spans="1:3" ht="21" outlineLevel="1">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="429" spans="1:3" ht="21" outlineLevel="1">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="430" spans="1:3" ht="21" outlineLevel="1">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="431" spans="1:3" ht="21" outlineLevel="1">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="432" spans="1:3" ht="21" outlineLevel="1">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="433" spans="1:3" ht="21" outlineLevel="1">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="434" spans="1:3" ht="21" outlineLevel="1">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="435" spans="1:3" ht="21" outlineLevel="1">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="436" spans="1:3" ht="21" outlineLevel="1">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="437" spans="1:3" ht="21" outlineLevel="1">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="438" spans="1:3" ht="21" outlineLevel="1">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="439" spans="1:3" ht="21" outlineLevel="1">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="440" spans="1:3" ht="21" outlineLevel="1">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="441" spans="1:3" ht="21" outlineLevel="1">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="442" spans="1:3" ht="21" outlineLevel="1">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="443" spans="1:3" ht="21" outlineLevel="1">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="444" spans="1:3" ht="21" outlineLevel="1">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="445" spans="1:3" ht="21" outlineLevel="1">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="446" spans="1:3" ht="21" outlineLevel="1">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="447" spans="1:3" ht="21" outlineLevel="1">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="448" spans="1:3" ht="21" outlineLevel="1">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="449" spans="1:3" ht="21" outlineLevel="1">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="450" spans="1:3" ht="21" outlineLevel="1">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="451" spans="1:3" ht="21" outlineLevel="1">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="452" spans="1:3" ht="21" outlineLevel="1">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="453" spans="1:3" ht="21" outlineLevel="1">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="454" spans="1:3" ht="21" outlineLevel="1">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="455" spans="1:3" ht="21" outlineLevel="1">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="456" spans="1:3" ht="21" outlineLevel="1">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="457" spans="1:3" ht="21" outlineLevel="1">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="458" spans="1:3" ht="21" outlineLevel="1">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="459" spans="1:3" ht="21" outlineLevel="1">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="460" spans="1:3" ht="21" outlineLevel="1">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="461" spans="1:3" ht="21" outlineLevel="1">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="462" spans="1:3" ht="21" outlineLevel="1">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="463" spans="1:3" ht="21" outlineLevel="1">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="464" spans="1:3" ht="21" outlineLevel="1">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="465" spans="1:3" ht="21" outlineLevel="1">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="466" spans="1:3" ht="21" outlineLevel="1">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="467" spans="1:3" ht="21" outlineLevel="1">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="468" spans="1:3" ht="21" outlineLevel="1">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="469" spans="1:3" ht="21" outlineLevel="1">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="470" spans="1:3" ht="21" outlineLevel="1">
       <c r="A470" s="5" t="s">
         <v>393</v>
       </c>
@@ -7026,16 +7026,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="21" collapsed="1">
+    <row r="471" spans="1:3" ht="21">
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7150,21 +7150,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
@@ -7623,7 +7623,7 @@
   <dimension ref="B2:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -7678,7 +7678,9 @@
       <c r="C6" s="17">
         <v>10</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="18">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6388BDB8-72D9-4293-B074-E0143B2559D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3289592-68B1-42B8-84FF-E7FE7C20C7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1673,7 +1673,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1685,16 +1694,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="C413" sqref="C413"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2069,11 +2069,11 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2479,11 +2479,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3078,11 +3078,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3482,11 +3482,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3884,11 +3884,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4281,11 +4281,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4534,11 +4534,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4930,11 +4930,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5150,11 +5150,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5579,11 +5579,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5788,11 +5788,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6283,11 +6283,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6360,11 +6360,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7031,11 +7031,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7150,21 +7150,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3289592-68B1-42B8-84FF-E7FE7C20C7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52DCBAF-03E4-4617-83BC-A7F7FC0157CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -690,9 +690,6 @@
   </si>
   <si>
     <t>Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t>Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
@@ -2017,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A412" sqref="A412"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2035,7 +2032,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -2049,11 +2046,11 @@
         <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2061,16 +2058,16 @@
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="E5" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2598,7 +2595,7 @@
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -4287,7 +4284,7 @@
       <c r="B214" s="23"/>
       <c r="C214" s="23"/>
     </row>
-    <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4295,10 +4292,10 @@
         <v>208</v>
       </c>
       <c r="C215" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="21" outlineLevel="1">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4309,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="217" spans="1:3" ht="21" outlineLevel="1">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4320,232 +4317,232 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="218" spans="1:3" ht="21" outlineLevel="1">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C218" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="219" spans="1:3" ht="21" outlineLevel="1">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C219" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="220" spans="1:3" ht="21" outlineLevel="1">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="221" spans="1:3" ht="21" outlineLevel="1">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C221" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="222" spans="1:3" ht="21" outlineLevel="1">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C222" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="223" spans="1:3" ht="21" outlineLevel="1">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C223" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="224" spans="1:3" ht="21" outlineLevel="1">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C224" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="225" spans="1:3" ht="21" outlineLevel="1">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C225" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="226" spans="1:3" ht="21" outlineLevel="1">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C226" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="227" spans="1:3" ht="21" outlineLevel="1">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C227" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="228" spans="1:3" ht="21" outlineLevel="1">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C228" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="229" spans="1:3" ht="21" outlineLevel="1">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="230" spans="1:3" ht="21" outlineLevel="1">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="231" spans="1:3" ht="21" outlineLevel="1">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C231" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="232" spans="1:3" ht="21" outlineLevel="1">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C232" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="233" spans="1:3" ht="21" outlineLevel="1">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C233" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="234" spans="1:3" ht="21" outlineLevel="1">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C234" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="235" spans="1:3" ht="21" outlineLevel="1">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C235" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="236" spans="1:3" ht="21" outlineLevel="1">
       <c r="A236" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C236" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="21" collapsed="1">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B238" s="26"/>
       <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="C239" s="4" t="b">
         <v>1</v>
@@ -4553,10 +4550,10 @@
     </row>
     <row r="240" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A240" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C240" s="4" t="b">
         <v>1</v>
@@ -4564,10 +4561,10 @@
     </row>
     <row r="241" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A241" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
@@ -4575,10 +4572,10 @@
     </row>
     <row r="242" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A242" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C242" s="4" t="b">
         <v>0</v>
@@ -4586,10 +4583,10 @@
     </row>
     <row r="243" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A243" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C243" s="4" t="b">
         <v>0</v>
@@ -4597,10 +4594,10 @@
     </row>
     <row r="244" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A244" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C244" s="4" t="b">
         <v>0</v>
@@ -4608,10 +4605,10 @@
     </row>
     <row r="245" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A245" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C245" s="4" t="b">
         <v>0</v>
@@ -4619,10 +4616,10 @@
     </row>
     <row r="246" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A246" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C246" s="4" t="b">
         <v>0</v>
@@ -4630,10 +4627,10 @@
     </row>
     <row r="247" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A247" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C247" s="4" t="b">
         <v>0</v>
@@ -4641,10 +4638,10 @@
     </row>
     <row r="248" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A248" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C248" s="4" t="b">
         <v>0</v>
@@ -4652,10 +4649,10 @@
     </row>
     <row r="249" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A249" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C249" s="4" t="b">
         <v>0</v>
@@ -4663,10 +4660,10 @@
     </row>
     <row r="250" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A250" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C250" s="4" t="b">
         <v>0</v>
@@ -4674,10 +4671,10 @@
     </row>
     <row r="251" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A251" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C251" s="4" t="b">
         <v>0</v>
@@ -4685,10 +4682,10 @@
     </row>
     <row r="252" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A252" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C252" s="4" t="b">
         <v>0</v>
@@ -4696,10 +4693,10 @@
     </row>
     <row r="253" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A253" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C253" s="4" t="b">
         <v>0</v>
@@ -4707,10 +4704,10 @@
     </row>
     <row r="254" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A254" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C254" s="4" t="b">
         <v>0</v>
@@ -4718,10 +4715,10 @@
     </row>
     <row r="255" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A255" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C255" s="4" t="b">
         <v>0</v>
@@ -4729,10 +4726,10 @@
     </row>
     <row r="256" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A256" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C256" s="4" t="b">
         <v>0</v>
@@ -4740,10 +4737,10 @@
     </row>
     <row r="257" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A257" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C257" s="4" t="b">
         <v>0</v>
@@ -4751,10 +4748,10 @@
     </row>
     <row r="258" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A258" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C258" s="4" t="b">
         <v>0</v>
@@ -4762,10 +4759,10 @@
     </row>
     <row r="259" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A259" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C259" s="4" t="b">
         <v>0</v>
@@ -4773,10 +4770,10 @@
     </row>
     <row r="260" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A260" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C260" s="4" t="b">
         <v>0</v>
@@ -4784,10 +4781,10 @@
     </row>
     <row r="261" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A261" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C261" s="4" t="b">
         <v>0</v>
@@ -4795,10 +4792,10 @@
     </row>
     <row r="262" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A262" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C262" s="4" t="b">
         <v>0</v>
@@ -4806,10 +4803,10 @@
     </row>
     <row r="263" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A263" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C263" s="4" t="b">
         <v>0</v>
@@ -4817,10 +4814,10 @@
     </row>
     <row r="264" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A264" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C264" s="4" t="b">
         <v>0</v>
@@ -4828,10 +4825,10 @@
     </row>
     <row r="265" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A265" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C265" s="4" t="b">
         <v>0</v>
@@ -4839,10 +4836,10 @@
     </row>
     <row r="266" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A266" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4850,10 +4847,10 @@
     </row>
     <row r="267" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A267" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C267" s="4" t="b">
         <v>0</v>
@@ -4861,10 +4858,10 @@
     </row>
     <row r="268" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A268" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C268" s="4" t="b">
         <v>0</v>
@@ -4872,10 +4869,10 @@
     </row>
     <row r="269" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A269" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C269" s="4" t="b">
         <v>0</v>
@@ -4883,10 +4880,10 @@
     </row>
     <row r="270" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A270" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C270" s="4" t="b">
         <v>0</v>
@@ -4894,10 +4891,10 @@
     </row>
     <row r="271" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A271" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C271" s="4" t="b">
         <v>0</v>
@@ -4905,7 +4902,7 @@
     </row>
     <row r="272" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A272" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>87</v>
@@ -4916,10 +4913,10 @@
     </row>
     <row r="273" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A273" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C273" s="4" t="b">
         <v>0</v>
@@ -4931,17 +4928,17 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B275" s="23"/>
       <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="C276" s="4" t="b">
         <v>0</v>
@@ -4949,10 +4946,10 @@
     </row>
     <row r="277" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A277" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C277" s="4" t="b">
         <v>0</v>
@@ -4960,10 +4957,10 @@
     </row>
     <row r="278" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A278" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C278" s="4" t="b">
         <v>0</v>
@@ -4971,10 +4968,10 @@
     </row>
     <row r="279" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A279" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C279" s="4" t="b">
         <v>0</v>
@@ -4982,10 +4979,10 @@
     </row>
     <row r="280" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A280" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -4993,10 +4990,10 @@
     </row>
     <row r="281" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A281" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C281" s="4" t="b">
         <v>0</v>
@@ -5004,10 +5001,10 @@
     </row>
     <row r="282" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A282" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C282" s="4" t="b">
         <v>0</v>
@@ -5015,10 +5012,10 @@
     </row>
     <row r="283" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A283" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C283" s="4" t="b">
         <v>0</v>
@@ -5026,10 +5023,10 @@
     </row>
     <row r="284" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A284" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C284" s="4" t="b">
         <v>0</v>
@@ -5037,10 +5034,10 @@
     </row>
     <row r="285" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A285" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C285" s="4" t="b">
         <v>0</v>
@@ -5048,10 +5045,10 @@
     </row>
     <row r="286" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A286" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C286" s="4" t="b">
         <v>0</v>
@@ -5059,10 +5056,10 @@
     </row>
     <row r="287" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A287" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -5070,10 +5067,10 @@
     </row>
     <row r="288" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A288" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C288" s="4" t="b">
         <v>0</v>
@@ -5081,10 +5078,10 @@
     </row>
     <row r="289" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A289" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C289" s="4" t="b">
         <v>0</v>
@@ -5092,10 +5089,10 @@
     </row>
     <row r="290" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A290" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C290" s="4" t="b">
         <v>0</v>
@@ -5103,10 +5100,10 @@
     </row>
     <row r="291" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A291" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C291" s="4" t="b">
         <v>0</v>
@@ -5114,10 +5111,10 @@
     </row>
     <row r="292" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A292" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C292" s="4" t="b">
         <v>0</v>
@@ -5125,10 +5122,10 @@
     </row>
     <row r="293" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A293" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C293" s="4" t="b">
         <v>0</v>
@@ -5136,10 +5133,10 @@
     </row>
     <row r="294" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A294" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C294" s="4" t="b">
         <v>0</v>
@@ -5151,17 +5148,17 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B296" s="26"/>
       <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="C297" s="4" t="b">
         <v>1</v>
@@ -5169,10 +5166,10 @@
     </row>
     <row r="298" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A298" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C298" s="4" t="b">
         <v>1</v>
@@ -5180,10 +5177,10 @@
     </row>
     <row r="299" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A299" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C299" s="4" t="b">
         <v>0</v>
@@ -5191,10 +5188,10 @@
     </row>
     <row r="300" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A300" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C300" s="4" t="b">
         <v>0</v>
@@ -5202,10 +5199,10 @@
     </row>
     <row r="301" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A301" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C301" s="4" t="b">
         <v>0</v>
@@ -5213,10 +5210,10 @@
     </row>
     <row r="302" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A302" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C302" s="4" t="b">
         <v>0</v>
@@ -5224,10 +5221,10 @@
     </row>
     <row r="303" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A303" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C303" s="4" t="b">
         <v>0</v>
@@ -5235,10 +5232,10 @@
     </row>
     <row r="304" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A304" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C304" s="4" t="b">
         <v>0</v>
@@ -5246,10 +5243,10 @@
     </row>
     <row r="305" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A305" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C305" s="4" t="b">
         <v>0</v>
@@ -5257,10 +5254,10 @@
     </row>
     <row r="306" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A306" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5268,10 +5265,10 @@
     </row>
     <row r="307" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A307" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C307" s="4" t="b">
         <v>0</v>
@@ -5279,10 +5276,10 @@
     </row>
     <row r="308" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A308" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C308" s="4" t="b">
         <v>0</v>
@@ -5290,10 +5287,10 @@
     </row>
     <row r="309" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A309" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5301,10 +5298,10 @@
     </row>
     <row r="310" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A310" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C310" s="4" t="b">
         <v>0</v>
@@ -5312,10 +5309,10 @@
     </row>
     <row r="311" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A311" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C311" s="4" t="b">
         <v>0</v>
@@ -5323,10 +5320,10 @@
     </row>
     <row r="312" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A312" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C312" s="4" t="b">
         <v>0</v>
@@ -5334,10 +5331,10 @@
     </row>
     <row r="313" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A313" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C313" s="4" t="b">
         <v>0</v>
@@ -5345,10 +5342,10 @@
     </row>
     <row r="314" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A314" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C314" s="4" t="b">
         <v>0</v>
@@ -5356,10 +5353,10 @@
     </row>
     <row r="315" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A315" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C315" s="4" t="b">
         <v>0</v>
@@ -5367,10 +5364,10 @@
     </row>
     <row r="316" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A316" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C316" s="4" t="b">
         <v>0</v>
@@ -5378,10 +5375,10 @@
     </row>
     <row r="317" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A317" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C317" s="4" t="b">
         <v>0</v>
@@ -5389,10 +5386,10 @@
     </row>
     <row r="318" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A318" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C318" s="4" t="b">
         <v>0</v>
@@ -5400,10 +5397,10 @@
     </row>
     <row r="319" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A319" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C319" s="4" t="b">
         <v>0</v>
@@ -5411,10 +5408,10 @@
     </row>
     <row r="320" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A320" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C320" s="4" t="b">
         <v>0</v>
@@ -5422,10 +5419,10 @@
     </row>
     <row r="321" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A321" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C321" s="4" t="b">
         <v>0</v>
@@ -5433,10 +5430,10 @@
     </row>
     <row r="322" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A322" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5444,10 +5441,10 @@
     </row>
     <row r="323" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A323" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C323" s="4" t="b">
         <v>0</v>
@@ -5455,10 +5452,10 @@
     </row>
     <row r="324" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A324" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C324" s="4" t="b">
         <v>0</v>
@@ -5466,10 +5463,10 @@
     </row>
     <row r="325" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A325" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C325" s="4" t="b">
         <v>0</v>
@@ -5477,10 +5474,10 @@
     </row>
     <row r="326" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A326" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C326" s="4" t="b">
         <v>0</v>
@@ -5488,10 +5485,10 @@
     </row>
     <row r="327" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A327" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C327" s="4" t="b">
         <v>0</v>
@@ -5499,10 +5496,10 @@
     </row>
     <row r="328" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A328" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5510,10 +5507,10 @@
     </row>
     <row r="329" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A329" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C329" s="4" t="b">
         <v>0</v>
@@ -5521,10 +5518,10 @@
     </row>
     <row r="330" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A330" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C330" s="4" t="b">
         <v>0</v>
@@ -5532,10 +5529,10 @@
     </row>
     <row r="331" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A331" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C331" s="4" t="b">
         <v>0</v>
@@ -5543,10 +5540,10 @@
     </row>
     <row r="332" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A332" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C332" s="4" t="b">
         <v>0</v>
@@ -5554,10 +5551,10 @@
     </row>
     <row r="333" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A333" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C333" s="4" t="b">
         <v>0</v>
@@ -5565,10 +5562,10 @@
     </row>
     <row r="334" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A334" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C334" s="4" t="b">
         <v>0</v>
@@ -5580,17 +5577,17 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B336" s="23"/>
       <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="C337" s="4" t="b">
         <v>0</v>
@@ -5598,10 +5595,10 @@
     </row>
     <row r="338" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A338" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C338" s="4" t="b">
         <v>0</v>
@@ -5609,10 +5606,10 @@
     </row>
     <row r="339" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A339" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C339" s="4" t="b">
         <v>0</v>
@@ -5620,10 +5617,10 @@
     </row>
     <row r="340" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A340" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C340" s="4" t="b">
         <v>0</v>
@@ -5631,10 +5628,10 @@
     </row>
     <row r="341" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A341" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C341" s="4" t="b">
         <v>0</v>
@@ -5642,10 +5639,10 @@
     </row>
     <row r="342" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A342" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C342" s="4" t="b">
         <v>0</v>
@@ -5653,10 +5650,10 @@
     </row>
     <row r="343" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A343" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
@@ -5664,10 +5661,10 @@
     </row>
     <row r="344" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A344" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C344" s="4" t="b">
         <v>0</v>
@@ -5675,10 +5672,10 @@
     </row>
     <row r="345" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A345" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
@@ -5686,10 +5683,10 @@
     </row>
     <row r="346" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A346" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C346" s="4" t="b">
         <v>0</v>
@@ -5697,10 +5694,10 @@
     </row>
     <row r="347" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A347" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C347" s="4" t="b">
         <v>0</v>
@@ -5708,10 +5705,10 @@
     </row>
     <row r="348" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A348" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C348" s="4" t="b">
         <v>0</v>
@@ -5719,10 +5716,10 @@
     </row>
     <row r="349" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A349" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C349" s="4" t="b">
         <v>0</v>
@@ -5730,10 +5727,10 @@
     </row>
     <row r="350" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A350" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C350" s="4" t="b">
         <v>0</v>
@@ -5741,10 +5738,10 @@
     </row>
     <row r="351" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A351" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C351" s="4" t="b">
         <v>0</v>
@@ -5752,10 +5749,10 @@
     </row>
     <row r="352" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A352" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C352" s="4" t="b">
         <v>0</v>
@@ -5763,10 +5760,10 @@
     </row>
     <row r="353" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A353" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C353" s="4" t="b">
         <v>0</v>
@@ -5774,10 +5771,10 @@
     </row>
     <row r="354" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A354" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C354" s="4" t="b">
         <v>0</v>
@@ -5789,17 +5786,17 @@
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
       <c r="A356" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B357" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C357" s="4" t="b">
         <v>1</v>
@@ -5807,10 +5804,10 @@
     </row>
     <row r="358" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A358" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C358" s="4" t="b">
         <v>1</v>
@@ -5818,10 +5815,10 @@
     </row>
     <row r="359" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A359" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C359" s="4" t="b">
         <v>1</v>
@@ -5829,10 +5826,10 @@
     </row>
     <row r="360" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A360" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C360" s="4" t="b">
         <v>0</v>
@@ -5840,10 +5837,10 @@
     </row>
     <row r="361" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A361" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C361" s="4" t="b">
         <v>0</v>
@@ -5851,10 +5848,10 @@
     </row>
     <row r="362" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A362" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C362" s="4" t="b">
         <v>0</v>
@@ -5862,10 +5859,10 @@
     </row>
     <row r="363" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A363" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C363" s="4" t="b">
         <v>0</v>
@@ -5873,10 +5870,10 @@
     </row>
     <row r="364" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A364" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C364" s="4" t="b">
         <v>0</v>
@@ -5884,10 +5881,10 @@
     </row>
     <row r="365" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A365" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C365" s="4" t="b">
         <v>0</v>
@@ -5895,10 +5892,10 @@
     </row>
     <row r="366" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A366" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C366" s="4" t="b">
         <v>0</v>
@@ -5906,10 +5903,10 @@
     </row>
     <row r="367" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A367" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C367" s="4" t="b">
         <v>0</v>
@@ -5917,10 +5914,10 @@
     </row>
     <row r="368" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A368" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C368" s="4" t="b">
         <v>0</v>
@@ -5928,10 +5925,10 @@
     </row>
     <row r="369" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A369" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -5939,10 +5936,10 @@
     </row>
     <row r="370" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A370" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C370" s="4" t="b">
         <v>0</v>
@@ -5950,10 +5947,10 @@
     </row>
     <row r="371" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A371" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -5961,10 +5958,10 @@
     </row>
     <row r="372" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A372" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C372" s="4" t="b">
         <v>0</v>
@@ -5972,10 +5969,10 @@
     </row>
     <row r="373" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A373" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -5983,10 +5980,10 @@
     </row>
     <row r="374" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A374" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C374" s="4" t="b">
         <v>0</v>
@@ -5994,10 +5991,10 @@
     </row>
     <row r="375" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A375" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C375" s="4" t="b">
         <v>0</v>
@@ -6005,10 +6002,10 @@
     </row>
     <row r="376" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A376" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C376" s="4" t="b">
         <v>0</v>
@@ -6016,10 +6013,10 @@
     </row>
     <row r="377" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A377" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C377" s="4" t="b">
         <v>0</v>
@@ -6027,10 +6024,10 @@
     </row>
     <row r="378" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A378" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C378" s="4" t="b">
         <v>0</v>
@@ -6038,10 +6035,10 @@
     </row>
     <row r="379" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A379" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C379" s="4" t="b">
         <v>0</v>
@@ -6049,10 +6046,10 @@
     </row>
     <row r="380" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A380" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C380" s="4" t="b">
         <v>0</v>
@@ -6060,10 +6057,10 @@
     </row>
     <row r="381" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A381" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C381" s="4" t="b">
         <v>0</v>
@@ -6071,10 +6068,10 @@
     </row>
     <row r="382" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A382" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C382" s="4" t="b">
         <v>0</v>
@@ -6082,10 +6079,10 @@
     </row>
     <row r="383" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A383" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C383" s="4" t="b">
         <v>0</v>
@@ -6093,10 +6090,10 @@
     </row>
     <row r="384" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A384" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C384" s="4" t="b">
         <v>0</v>
@@ -6104,10 +6101,10 @@
     </row>
     <row r="385" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A385" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C385" s="4" t="b">
         <v>0</v>
@@ -6115,10 +6112,10 @@
     </row>
     <row r="386" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A386" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C386" s="4" t="b">
         <v>0</v>
@@ -6126,10 +6123,10 @@
     </row>
     <row r="387" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A387" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -6137,10 +6134,10 @@
     </row>
     <row r="388" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A388" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C388" s="4" t="b">
         <v>0</v>
@@ -6148,10 +6145,10 @@
     </row>
     <row r="389" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A389" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C389" s="4" t="b">
         <v>0</v>
@@ -6159,10 +6156,10 @@
     </row>
     <row r="390" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A390" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C390" s="4" t="b">
         <v>0</v>
@@ -6170,10 +6167,10 @@
     </row>
     <row r="391" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A391" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C391" s="4" t="b">
         <v>0</v>
@@ -6181,10 +6178,10 @@
     </row>
     <row r="392" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A392" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C392" s="4" t="b">
         <v>0</v>
@@ -6192,10 +6189,10 @@
     </row>
     <row r="393" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A393" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C393" s="4" t="b">
         <v>0</v>
@@ -6203,10 +6200,10 @@
     </row>
     <row r="394" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A394" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C394" s="4" t="b">
         <v>0</v>
@@ -6214,10 +6211,10 @@
     </row>
     <row r="395" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A395" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C395" s="4" t="b">
         <v>0</v>
@@ -6225,10 +6222,10 @@
     </row>
     <row r="396" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A396" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C396" s="4" t="b">
         <v>0</v>
@@ -6236,10 +6233,10 @@
     </row>
     <row r="397" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A397" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C397" s="4" t="b">
         <v>0</v>
@@ -6247,10 +6244,10 @@
     </row>
     <row r="398" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A398" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6258,10 +6255,10 @@
     </row>
     <row r="399" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A399" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6269,10 +6266,10 @@
     </row>
     <row r="400" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A400" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>4</v>
@@ -6284,17 +6281,17 @@
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
       <c r="A402" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B403" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6302,10 +6299,10 @@
     </row>
     <row r="404" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A404" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6313,10 +6310,10 @@
     </row>
     <row r="405" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A405" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6324,7 +6321,7 @@
     </row>
     <row r="406" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A406" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
         <v>89</v>
@@ -6335,10 +6332,10 @@
     </row>
     <row r="407" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A407" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6346,10 +6343,10 @@
     </row>
     <row r="408" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A408" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>4</v>
@@ -6361,688 +6358,688 @@
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
       <c r="A410" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B410" s="21"/>
       <c r="C410" s="21"/>
     </row>
-    <row r="411" spans="1:3" ht="21" outlineLevel="1">
+    <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B411" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="C411" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21" outlineLevel="1">
+    <row r="412" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A412" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C412" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21" outlineLevel="1">
+    <row r="413" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A413" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B413" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A414" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B414" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C413" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A414" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B414" s="6" t="s">
+      <c r="C414" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A415" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B415" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C414" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A415" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B415" s="6" t="s">
+      <c r="C415" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A416" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B416" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C415" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A416" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B416" s="6" t="s">
+      <c r="C416" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A417" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B417" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C416" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A417" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B417" s="6" t="s">
+      <c r="C417" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A418" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C418" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A419" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B419" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C417" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A418" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B418" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C418" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A419" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B419" s="6" t="s">
+      <c r="C419" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A420" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B420" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C419" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A420" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B420" s="6" t="s">
+      <c r="C420" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A421" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B421" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C420" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A421" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B421" s="6" t="s">
+      <c r="C421" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A422" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B422" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C421" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A422" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B422" s="6" t="s">
+      <c r="C422" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A423" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B423" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C422" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A423" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B423" s="6" t="s">
+      <c r="C423" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A424" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B424" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C423" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A424" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B424" s="6" t="s">
+      <c r="C424" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A425" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B425" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C424" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A425" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B425" s="6" t="s">
+      <c r="C425" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A426" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B426" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C425" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A426" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B426" s="6" t="s">
+      <c r="C426" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A427" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B427" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C426" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A427" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B427" s="6" t="s">
+      <c r="C427" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A428" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B428" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C427" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A428" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B428" s="6" t="s">
+      <c r="C428" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A429" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B429" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C428" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A429" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B429" s="6" t="s">
+      <c r="C429" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A430" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B430" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C429" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A430" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B430" s="6" t="s">
+      <c r="C430" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A431" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B431" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C430" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A431" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B431" s="6" t="s">
+      <c r="C431" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A432" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B432" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C431" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A432" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B432" s="6" t="s">
+      <c r="C432" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A433" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B433" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C432" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A433" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B433" s="6" t="s">
+      <c r="C433" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A434" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B434" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C433" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A434" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B434" s="6" t="s">
+      <c r="C434" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A435" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B435" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C434" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A435" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B435" s="6" t="s">
+      <c r="C435" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A436" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B436" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C435" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A436" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B436" s="6" t="s">
+      <c r="C436" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A437" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B437" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C436" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A437" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B437" s="6" t="s">
+      <c r="C437" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A438" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B438" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C437" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A438" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B438" s="6" t="s">
+      <c r="C438" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A439" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B439" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C438" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A439" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B439" s="6" t="s">
+      <c r="C439" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A440" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B440" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C439" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A440" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B440" s="6" t="s">
+      <c r="C440" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A441" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B441" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C440" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A441" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B441" s="6" t="s">
+      <c r="C441" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A442" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B442" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C441" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A442" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B442" s="6" t="s">
+      <c r="C442" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A443" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B443" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C442" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A443" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B443" s="6" t="s">
+      <c r="C443" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A444" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B444" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C443" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A444" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B444" s="6" t="s">
+      <c r="C444" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A445" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B445" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C444" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A445" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B445" s="6" t="s">
+      <c r="C445" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A446" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B446" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C445" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A446" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B446" s="6" t="s">
+      <c r="C446" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A447" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B447" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C446" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A447" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B447" s="6" t="s">
+      <c r="C447" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A448" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B448" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C447" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A448" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B448" s="6" t="s">
+      <c r="C448" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A449" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B449" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C448" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A449" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B449" s="6" t="s">
+      <c r="C449" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A450" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B450" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C449" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A450" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B450" s="6" t="s">
+      <c r="C450" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A451" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B451" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C450" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A451" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B451" s="6" t="s">
+      <c r="C451" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A452" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B452" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C451" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A452" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B452" s="6" t="s">
+      <c r="C452" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A453" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B453" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C452" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A453" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B453" s="6" t="s">
+      <c r="C453" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A454" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B454" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C453" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A454" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B454" s="6" t="s">
+      <c r="C454" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A455" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B455" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C454" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A455" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B455" s="6" t="s">
+      <c r="C455" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A456" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B456" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C455" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A456" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B456" s="6" t="s">
+      <c r="C456" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A457" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B457" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C456" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A457" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B457" s="6" t="s">
+      <c r="C457" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A458" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B458" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C457" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A458" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B458" s="6" t="s">
+      <c r="C458" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A459" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B459" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C458" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A459" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B459" s="6" t="s">
+      <c r="C459" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A460" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B460" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C459" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A460" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B460" s="6" t="s">
+      <c r="C460" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A461" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B461" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C460" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A461" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B461" s="6" t="s">
+      <c r="C461" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A462" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B462" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C461" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A462" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B462" s="6" t="s">
+      <c r="C462" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A463" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B463" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C462" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A463" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B463" s="6" t="s">
+      <c r="C463" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A464" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B464" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C463" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A464" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B464" s="6" t="s">
+      <c r="C464" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A465" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B465" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C464" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A465" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B465" s="6" t="s">
+      <c r="C465" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A466" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B466" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C465" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A466" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B466" s="6" t="s">
+      <c r="C466" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A467" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B467" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C466" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A467" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B467" s="6" t="s">
+      <c r="C467" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A468" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B468" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C467" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A468" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B468" s="6" t="s">
+      <c r="C468" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A469" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B469" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C468" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A469" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B469" s="6" t="s">
+      <c r="C469" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="A470" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B470" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C469" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="21" outlineLevel="1">
-      <c r="A470" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B470" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" spans="1:3" ht="21" collapsed="1">
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
       <c r="A472" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B472" s="22"/>
       <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B473" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C473" s="4" t="b">
         <v>0</v>
@@ -7050,10 +7047,10 @@
     </row>
     <row r="474" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C474" s="4" t="b">
         <v>0</v>
@@ -7061,10 +7058,10 @@
     </row>
     <row r="475" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C475" s="4" t="b">
         <v>0</v>
@@ -7072,10 +7069,10 @@
     </row>
     <row r="476" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A476" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C476" s="4" t="b">
         <v>0</v>
@@ -7083,10 +7080,10 @@
     </row>
     <row r="477" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A477" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C477" s="4" t="b">
         <v>0</v>
@@ -7094,10 +7091,10 @@
     </row>
     <row r="478" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A478" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C478" s="4" t="b">
         <v>0</v>
@@ -7105,10 +7102,10 @@
     </row>
     <row r="479" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A479" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7116,10 +7113,10 @@
     </row>
     <row r="480" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A480" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C480" s="4" t="b">
         <v>0</v>
@@ -7127,10 +7124,10 @@
     </row>
     <row r="481" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A481" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C481" s="4" t="b">
         <v>0</v>
@@ -7138,10 +7135,10 @@
     </row>
     <row r="482" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A482" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -7363,256 +7360,256 @@
     <hyperlink ref="B215" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
     <hyperlink ref="B216" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
     <hyperlink ref="B217" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B218" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B219" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B220" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B221" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B222" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B223" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B224" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B225" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B226" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B227" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B228" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B229" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B230" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B231" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B232" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B233" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B234" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B235" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B236" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B239" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B240" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B241" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B242" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B243" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B244" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B245" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B246" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B247" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B248" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B249" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B250" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B251" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B252" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B253" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B254" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B255" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B256" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B257" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B258" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B259" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B260" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B261" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B262" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B263" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B264" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B265" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B266" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B267" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B268" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B269" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B270" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B271" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B272" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B273" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B276" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B277" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B278" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B279" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B280" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B281" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B282" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B283" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B284" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B285" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B286" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B287" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B288" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B289" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B290" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B291" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B292" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B293" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B294" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B297" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B298" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B299" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B300" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B301" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B302" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B303" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B304" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B305" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B306" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B307" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B308" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B309" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B310" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B311" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B312" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B313" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B314" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B315" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B316" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B317" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B318" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B319" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B320" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B321" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B322" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B323" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B324" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B325" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B326" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B327" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B328" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B329" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B330" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B331" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B332" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B333" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B334" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B337" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B338" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B339" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B340" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B341" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B342" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B343" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B344" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B345" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B346" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B347" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B348" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B349" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B350" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B351" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B352" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B353" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B354" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B358" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B359" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B360" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B361" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B362" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B363" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B364" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B365" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B366" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B367" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B368" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B369" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B370" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B371" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B372" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B373" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B374" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B375" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B376" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B377" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B378" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B379" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B380" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B381" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B382" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B383" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B384" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B385" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B386" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B387" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B388" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B389" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B390" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B391" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B392" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B393" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B394" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B395" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B397" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B396" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B398" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B399" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B400" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B403" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B404" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B405" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B406" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B407" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B408" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B411" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B412" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B413" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B414" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B415" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B416" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B417" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B418" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B419" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B420" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B421" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B422" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B423" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B424" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B425" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B426" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B427" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B428" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B429" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B430" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B431" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B432" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B433" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B434" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B435" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B436" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B437" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B438" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B439" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B440" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B441" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B442" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B443" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B444" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B445" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B446" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B447" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B448" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B449" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B450" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B452" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B451" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B453" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B454" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B455" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B456" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B457" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B458" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B459" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B460" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B461" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B462" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B463" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B470" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B469" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B468" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B467" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B466" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B465" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B464" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B473" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B474" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B475" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B476" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B477" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B478" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B479" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B482" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B480" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B481" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B357" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B219" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B220" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B221" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B222" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B223" r:id="rId201" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B224" r:id="rId202" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B225" r:id="rId203" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B226" r:id="rId204" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B227" r:id="rId205" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B228" r:id="rId206" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B229" r:id="rId207" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B230" r:id="rId208" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B231" r:id="rId209" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B232" r:id="rId210" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B233" r:id="rId211" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B234" r:id="rId212" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B235" r:id="rId213" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B236" r:id="rId214" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B239" r:id="rId215" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B240" r:id="rId216" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B241" r:id="rId217" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B242" r:id="rId218" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B243" r:id="rId219" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B244" r:id="rId220" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B245" r:id="rId221" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B246" r:id="rId222" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B247" r:id="rId223" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B248" r:id="rId224" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B249" r:id="rId225" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B250" r:id="rId226" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B251" r:id="rId227" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B252" r:id="rId228" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B253" r:id="rId229" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B254" r:id="rId230" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B255" r:id="rId231" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B256" r:id="rId232" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B257" r:id="rId233" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B258" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B259" r:id="rId235" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B260" r:id="rId236" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B261" r:id="rId237" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B262" r:id="rId238" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B263" r:id="rId239" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B264" r:id="rId240" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B265" r:id="rId241" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B266" r:id="rId242" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B267" r:id="rId243" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B268" r:id="rId244" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B269" r:id="rId245" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B270" r:id="rId246" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B271" r:id="rId247" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B272" r:id="rId248" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B273" r:id="rId249" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B276" r:id="rId250" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B277" r:id="rId251" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B278" r:id="rId252" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B279" r:id="rId253" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B280" r:id="rId254" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B281" r:id="rId255" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B282" r:id="rId256" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B283" r:id="rId257" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B284" r:id="rId258" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B285" r:id="rId259" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B286" r:id="rId260" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B287" r:id="rId261" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B288" r:id="rId262" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B289" r:id="rId263" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B290" r:id="rId264" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B291" r:id="rId265" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B292" r:id="rId266" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B293" r:id="rId267" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B294" r:id="rId268" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B297" r:id="rId269" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B298" r:id="rId270" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B299" r:id="rId271" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B300" r:id="rId272" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B301" r:id="rId273" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B302" r:id="rId274" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B303" r:id="rId275" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B304" r:id="rId276" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B305" r:id="rId277" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B306" r:id="rId278" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B307" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B308" r:id="rId280" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B309" r:id="rId281" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B310" r:id="rId282" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B311" r:id="rId283" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B312" r:id="rId284" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B313" r:id="rId285" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B314" r:id="rId286" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B315" r:id="rId287" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B316" r:id="rId288" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B317" r:id="rId289" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B318" r:id="rId290" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B319" r:id="rId291" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B320" r:id="rId292" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B321" r:id="rId293" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B322" r:id="rId294" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B323" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B324" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B325" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B326" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B327" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B328" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B329" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B330" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B331" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B332" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B333" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B334" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B358" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B359" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B360" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B361" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B362" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B363" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B364" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B365" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B366" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B367" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B368" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B369" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B370" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B371" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B372" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B373" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B374" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B375" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B376" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B377" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B378" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B379" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B380" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B381" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B382" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B383" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B384" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B385" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B386" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B387" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B388" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B389" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B390" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B391" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B392" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B393" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B394" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B395" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B397" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B396" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B398" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B399" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B400" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B403" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B404" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B405" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B406" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B407" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B408" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B411" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B412" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B413" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B414" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B415" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B416" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B417" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B418" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B419" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B420" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B421" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B422" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B423" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B424" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B425" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B426" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B427" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B428" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B429" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B430" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B431" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B432" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B433" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B434" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B435" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B436" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B437" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B438" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B439" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B440" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B441" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B442" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B443" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B444" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B445" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B446" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B447" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B448" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B449" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B450" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B452" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B451" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B453" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B454" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B455" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B456" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B457" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B458" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B459" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B460" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B461" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B462" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B463" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B470" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B469" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B468" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B467" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B466" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B464" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B473" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B474" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B475" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B476" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B477" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B478" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B479" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B482" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B480" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B481" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B357" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B218" r:id="rId446" xr:uid="{C1442E98-1041-40F6-AD1D-ED7E3CD920A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7633,20 +7630,20 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>472</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="4" spans="2:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52DCBAF-03E4-4617-83BC-A7F7FC0157CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BBF2DA-4AA2-498B-9EB0-4524410F906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+      <selection activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4303,7 +4303,7 @@
         <v>209</v>
       </c>
       <c r="C216" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21" outlineLevel="1">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
@@ -7620,7 +7620,7 @@
   <dimension ref="B2:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -7686,7 +7686,9 @@
       <c r="C7" s="17">
         <v>10</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="18">
@@ -7695,7 +7697,9 @@
       <c r="C8" s="17">
         <v>10</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="18">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BBF2DA-4AA2-498B-9EB0-4524410F906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD349E6-B22C-4B09-9949-3CEBAA28AA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,13 +4278,13 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
-    </row>
-    <row r="215" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
+    </row>
+    <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21" outlineLevel="1">
+    <row r="216" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21" outlineLevel="1">
+    <row r="217" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21" outlineLevel="1">
+    <row r="218" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21" outlineLevel="1">
+    <row r="219" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21" outlineLevel="1">
+    <row r="220" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21" outlineLevel="1">
+    <row r="221" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21" outlineLevel="1">
+    <row r="222" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21" outlineLevel="1">
+    <row r="223" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21" outlineLevel="1">
+    <row r="224" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21" outlineLevel="1">
+    <row r="225" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21" outlineLevel="1">
+    <row r="226" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21" outlineLevel="1">
+    <row r="227" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21" outlineLevel="1">
+    <row r="228" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21" outlineLevel="1">
+    <row r="229" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21" outlineLevel="1">
+    <row r="230" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21" outlineLevel="1">
+    <row r="231" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21" outlineLevel="1">
+    <row r="232" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21" outlineLevel="1">
+    <row r="233" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21" outlineLevel="1">
+    <row r="234" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21" outlineLevel="1">
+    <row r="235" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21" outlineLevel="1">
+    <row r="236" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A236" s="5" t="s">
         <v>207</v>
       </c>
@@ -4526,16 +4526,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" spans="1:3" ht="21" collapsed="1">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,13 +6357,13 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
-    </row>
-    <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
+    </row>
+    <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
         <v>392</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="412" spans="1:3" ht="21" outlineLevel="1">
       <c r="A412" s="5" t="s">
         <v>392</v>
       </c>
@@ -6385,18 +6385,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="413" spans="1:3" ht="21" outlineLevel="1">
       <c r="A413" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B413" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C413" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C413" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="21" outlineLevel="1">
       <c r="A414" s="5" t="s">
         <v>392</v>
       </c>
@@ -6407,18 +6407,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="415" spans="1:3" ht="21" outlineLevel="1">
       <c r="A415" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C415" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C415" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="21" outlineLevel="1">
       <c r="A416" s="5" t="s">
         <v>392</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="417" spans="1:3" ht="21" outlineLevel="1">
       <c r="A417" s="5" t="s">
         <v>392</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="418" spans="1:3" ht="21" outlineLevel="1">
       <c r="A418" s="5" t="s">
         <v>392</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="419" spans="1:3" ht="21" outlineLevel="1">
       <c r="A419" s="5" t="s">
         <v>392</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="420" spans="1:3" ht="21" outlineLevel="1">
       <c r="A420" s="5" t="s">
         <v>392</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="421" spans="1:3" ht="21" outlineLevel="1">
       <c r="A421" s="5" t="s">
         <v>392</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="422" spans="1:3" ht="21" outlineLevel="1">
       <c r="A422" s="5" t="s">
         <v>392</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="423" spans="1:3" ht="21" outlineLevel="1">
       <c r="A423" s="5" t="s">
         <v>392</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="424" spans="1:3" ht="21" outlineLevel="1">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="425" spans="1:3" ht="21" outlineLevel="1">
       <c r="A425" s="5" t="s">
         <v>392</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="426" spans="1:3" ht="21" outlineLevel="1">
       <c r="A426" s="5" t="s">
         <v>392</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="427" spans="1:3" ht="21" outlineLevel="1">
       <c r="A427" s="5" t="s">
         <v>392</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="428" spans="1:3" ht="21" outlineLevel="1">
       <c r="A428" s="5" t="s">
         <v>392</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="429" spans="1:3" ht="21" outlineLevel="1">
       <c r="A429" s="5" t="s">
         <v>392</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="430" spans="1:3" ht="21" outlineLevel="1">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="431" spans="1:3" ht="21" outlineLevel="1">
       <c r="A431" s="5" t="s">
         <v>392</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="432" spans="1:3" ht="21" outlineLevel="1">
       <c r="A432" s="5" t="s">
         <v>392</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="433" spans="1:3" ht="21" outlineLevel="1">
       <c r="A433" s="5" t="s">
         <v>392</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="434" spans="1:3" ht="21" outlineLevel="1">
       <c r="A434" s="5" t="s">
         <v>392</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="435" spans="1:3" ht="21" outlineLevel="1">
       <c r="A435" s="5" t="s">
         <v>392</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="436" spans="1:3" ht="21" outlineLevel="1">
       <c r="A436" s="5" t="s">
         <v>392</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="437" spans="1:3" ht="21" outlineLevel="1">
       <c r="A437" s="5" t="s">
         <v>392</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="438" spans="1:3" ht="21" outlineLevel="1">
       <c r="A438" s="5" t="s">
         <v>392</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="439" spans="1:3" ht="21" outlineLevel="1">
       <c r="A439" s="5" t="s">
         <v>392</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="440" spans="1:3" ht="21" outlineLevel="1">
       <c r="A440" s="5" t="s">
         <v>392</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="441" spans="1:3" ht="21" outlineLevel="1">
       <c r="A441" s="5" t="s">
         <v>392</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="442" spans="1:3" ht="21" outlineLevel="1">
       <c r="A442" s="5" t="s">
         <v>392</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="443" spans="1:3" ht="21" outlineLevel="1">
       <c r="A443" s="5" t="s">
         <v>392</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="444" spans="1:3" ht="21" outlineLevel="1">
       <c r="A444" s="5" t="s">
         <v>392</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="445" spans="1:3" ht="21" outlineLevel="1">
       <c r="A445" s="5" t="s">
         <v>392</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="446" spans="1:3" ht="21" outlineLevel="1">
       <c r="A446" s="5" t="s">
         <v>392</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="447" spans="1:3" ht="21" outlineLevel="1">
       <c r="A447" s="5" t="s">
         <v>392</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="448" spans="1:3" ht="21" outlineLevel="1">
       <c r="A448" s="5" t="s">
         <v>392</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="449" spans="1:3" ht="21" outlineLevel="1">
       <c r="A449" s="5" t="s">
         <v>392</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="450" spans="1:3" ht="21" outlineLevel="1">
       <c r="A450" s="5" t="s">
         <v>392</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="451" spans="1:3" ht="21" outlineLevel="1">
       <c r="A451" s="5" t="s">
         <v>392</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="452" spans="1:3" ht="21" outlineLevel="1">
       <c r="A452" s="5" t="s">
         <v>392</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="453" spans="1:3" ht="21" outlineLevel="1">
       <c r="A453" s="5" t="s">
         <v>392</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="454" spans="1:3" ht="21" outlineLevel="1">
       <c r="A454" s="5" t="s">
         <v>392</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="455" spans="1:3" ht="21" outlineLevel="1">
       <c r="A455" s="5" t="s">
         <v>392</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="456" spans="1:3" ht="21" outlineLevel="1">
       <c r="A456" s="5" t="s">
         <v>392</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="457" spans="1:3" ht="21" outlineLevel="1">
       <c r="A457" s="5" t="s">
         <v>392</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="458" spans="1:3" ht="21" outlineLevel="1">
       <c r="A458" s="5" t="s">
         <v>392</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="459" spans="1:3" ht="21" outlineLevel="1">
       <c r="A459" s="5" t="s">
         <v>392</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="460" spans="1:3" ht="21" outlineLevel="1">
       <c r="A460" s="5" t="s">
         <v>392</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="461" spans="1:3" ht="21" outlineLevel="1">
       <c r="A461" s="5" t="s">
         <v>392</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="462" spans="1:3" ht="21" outlineLevel="1">
       <c r="A462" s="5" t="s">
         <v>392</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="463" spans="1:3" ht="21" outlineLevel="1">
       <c r="A463" s="5" t="s">
         <v>392</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="464" spans="1:3" ht="21" outlineLevel="1">
       <c r="A464" s="5" t="s">
         <v>392</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="465" spans="1:3" ht="21" outlineLevel="1">
       <c r="A465" s="5" t="s">
         <v>392</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="466" spans="1:3" ht="21" outlineLevel="1">
       <c r="A466" s="5" t="s">
         <v>392</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="467" spans="1:3" ht="21" outlineLevel="1">
       <c r="A467" s="5" t="s">
         <v>392</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="468" spans="1:3" ht="21" outlineLevel="1">
       <c r="A468" s="5" t="s">
         <v>392</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="469" spans="1:3" ht="21" outlineLevel="1">
       <c r="A469" s="5" t="s">
         <v>392</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="470" spans="1:3" ht="21" outlineLevel="1">
       <c r="A470" s="5" t="s">
         <v>392</v>
       </c>
@@ -7023,16 +7023,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="21" collapsed="1">
+    <row r="471" spans="1:3" ht="21">
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD349E6-B22C-4B09-9949-3CEBAA28AA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78299577-49ED-4C10-85E0-E4EA8F158F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="B414" sqref="B414"/>
+      <selection activeCell="C415" sqref="C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6404,7 +6404,7 @@
         <v>396</v>
       </c>
       <c r="C414" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78299577-49ED-4C10-85E0-E4EA8F158F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C3C32-3550-4145-B909-6AB22C9161DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="C415" sqref="C415"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="B418" sqref="B418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6415,7 +6415,7 @@
         <v>397</v>
       </c>
       <c r="C415" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C3C32-3550-4145-B909-6AB22C9161DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB450A9-EAFD-4827-A1E9-9AFBF2796499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="B418" sqref="B418"/>
+      <selection activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6437,7 +6437,7 @@
         <v>399</v>
       </c>
       <c r="C417" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB450A9-EAFD-4827-A1E9-9AFBF2796499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D442E7-600F-4225-800E-E28EE74BA2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="C418" sqref="C418"/>
+      <selection activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6448,7 +6448,7 @@
         <v>272</v>
       </c>
       <c r="C418" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D442E7-600F-4225-800E-E28EE74BA2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5077362A-BC6D-48C8-96FB-729F3D3BD301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+    <sheetView topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2066,11 +2066,11 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
@@ -7619,8 +7619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20848689-761B-4BF5-9A64-D3B8DC72D2EB}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -7708,7 +7708,9 @@
       <c r="C9" s="17">
         <v>10</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="17">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="18">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5077362A-BC6D-48C8-96FB-729F3D3BD301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EADE82-3C49-49B3-929C-87EC1AE95BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="C418" sqref="C418"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6470,7 +6470,7 @@
         <v>401</v>
       </c>
       <c r="C420" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
@@ -7619,8 +7619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20848689-761B-4BF5-9A64-D3B8DC72D2EB}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EADE82-3C49-49B3-929C-87EC1AE95BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D93B5F-9E59-400A-A357-A01EF5548BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="C424" sqref="C424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6480,8 +6480,8 @@
       <c r="B421" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C421" s="4" t="b">
-        <v>0</v>
+      <c r="C421" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21" outlineLevel="1">
@@ -6503,7 +6503,7 @@
         <v>404</v>
       </c>
       <c r="C423" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D93B5F-9E59-400A-A357-A01EF5548BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8493C5-C81E-417E-8901-C3DC8B4C08B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C424" sqref="C424"/>
+      <selection activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6514,7 +6514,7 @@
         <v>405</v>
       </c>
       <c r="C424" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8493C5-C81E-417E-8901-C3DC8B4C08B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647CE851-3D71-4F3F-8327-DA7A52EC1EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6525,7 +6525,7 @@
         <v>406</v>
       </c>
       <c r="C425" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647CE851-3D71-4F3F-8327-DA7A52EC1EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB17BE-4ACF-465A-B609-09F5DBA0CD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426"/>
+      <selection activeCell="C427" sqref="C427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6536,7 +6536,7 @@
         <v>407</v>
       </c>
       <c r="C426" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB17BE-4ACF-465A-B609-09F5DBA0CD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96928D1-A321-43EA-8C12-34D342B612C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="C427" sqref="C427"/>
+      <selection activeCell="B419" sqref="B419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6547,7 +6547,7 @@
         <v>408</v>
       </c>
       <c r="C427" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96928D1-A321-43EA-8C12-34D342B612C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21719305-ED55-4D1C-A322-2A6AA41DD072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="B419" sqref="B419"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="C429" sqref="C429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6558,7 +6558,7 @@
         <v>409</v>
       </c>
       <c r="C428" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21719305-ED55-4D1C-A322-2A6AA41DD072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D774CC1C-BBB7-451F-9925-1FEC8DA77F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="C429" sqref="C429"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="C430" sqref="C430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6569,7 +6569,7 @@
         <v>410</v>
       </c>
       <c r="C429" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D774CC1C-BBB7-451F-9925-1FEC8DA77F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E8D6F-0BE5-4940-BA89-48B191DD97C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="C430" sqref="C430"/>
+    <sheetView tabSelected="1" topLeftCell="B426" workbookViewId="0">
+      <selection activeCell="C431" sqref="C431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6580,7 +6580,7 @@
         <v>411</v>
       </c>
       <c r="C430" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E8D6F-0BE5-4940-BA89-48B191DD97C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5317927-F6AB-4F13-B901-0C2EC75470C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B426" workbookViewId="0">
-      <selection activeCell="C431" sqref="C431"/>
+      <selection activeCell="C433" sqref="C433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6591,7 +6591,7 @@
         <v>412</v>
       </c>
       <c r="C431" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5317927-F6AB-4F13-B901-0C2EC75470C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65689499-53EB-4766-ABC9-2CE11140E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6602,7 +6602,7 @@
         <v>413</v>
       </c>
       <c r="C432" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65689499-53EB-4766-ABC9-2CE11140E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578393DF-DC52-420C-9212-FC61026D8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6613,7 +6613,7 @@
         <v>414</v>
       </c>
       <c r="C433" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578393DF-DC52-420C-9212-FC61026D8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079FFC3-14BD-40CF-A00A-E3457590C5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B426" workbookViewId="0">
-      <selection activeCell="C433" sqref="C433"/>
+    <sheetView tabSelected="1" topLeftCell="B427" workbookViewId="0">
+      <selection activeCell="C437" sqref="C437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6646,7 +6646,7 @@
         <v>417</v>
       </c>
       <c r="C436" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079FFC3-14BD-40CF-A00A-E3457590C5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5901C976-0D42-44AF-A665-0F8594BF2DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B427" workbookViewId="0">
-      <selection activeCell="C437" sqref="C437"/>
+    <sheetView tabSelected="1" topLeftCell="B425" workbookViewId="0">
+      <selection activeCell="C438" sqref="C438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,7 +6657,7 @@
         <v>418</v>
       </c>
       <c r="C437" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="21" outlineLevel="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5901C976-0D42-44AF-A665-0F8594BF2DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96812A7-DA30-461A-A3F0-F72A066FCEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B425" workbookViewId="0">
-      <selection activeCell="C438" sqref="C438"/>
+    <sheetView tabSelected="1" topLeftCell="B424" workbookViewId="0">
+      <selection activeCell="C439" sqref="C439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6668,7 +6668,7 @@
         <v>419</v>
       </c>
       <c r="C438" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96812A7-DA30-461A-A3F0-F72A066FCEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39DFECC-A669-4106-B837-EFD22E68BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B424" workbookViewId="0">
-      <selection activeCell="C439" sqref="C439"/>
+      <selection activeCell="C440" sqref="C440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6679,7 +6679,7 @@
         <v>420</v>
       </c>
       <c r="C439" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39DFECC-A669-4106-B837-EFD22E68BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A966C-0B9F-4C02-ADF9-3BF3638D0A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B424" workbookViewId="0">
-      <selection activeCell="C440" sqref="C440"/>
+    <sheetView tabSelected="1" topLeftCell="C424" workbookViewId="0">
+      <selection activeCell="C441" sqref="C441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6690,7 +6690,7 @@
         <v>421</v>
       </c>
       <c r="C440" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A966C-0B9F-4C02-ADF9-3BF3638D0A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9405CBBF-21EC-4060-A553-DB7757695512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C424" workbookViewId="0">
-      <selection activeCell="C441" sqref="C441"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="B441" sqref="B441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6701,7 +6701,7 @@
         <v>422</v>
       </c>
       <c r="C441" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9405CBBF-21EC-4060-A553-DB7757695512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE224DCD-88A2-42C2-93A1-7395B8983CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="B441" sqref="B441"/>
+    <sheetView tabSelected="1" topLeftCell="B425" workbookViewId="0">
+      <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6712,7 +6712,7 @@
         <v>423</v>
       </c>
       <c r="C442" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE224DCD-88A2-42C2-93A1-7395B8983CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7044653-7E82-49C5-A9D7-31637D9300CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B425" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443"/>
+    <sheetView tabSelected="1" topLeftCell="B432" workbookViewId="0">
+      <selection activeCell="C444" sqref="C444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6723,7 +6723,7 @@
         <v>424</v>
       </c>
       <c r="C443" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7044653-7E82-49C5-A9D7-31637D9300CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6EF6CC-A13A-40E5-BFC8-3D9559EAD0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,7 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B432" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
       <selection activeCell="C444" sqref="C444"/>
     </sheetView>
   </sheetViews>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6734,7 +6734,7 @@
         <v>425</v>
       </c>
       <c r="C444" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6EF6CC-A13A-40E5-BFC8-3D9559EAD0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA071D3-B7C7-4322-9E0B-DE04FA46F3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="C444" sqref="C444"/>
+      <selection activeCell="C446" sqref="C446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6745,7 +6745,7 @@
         <v>426</v>
       </c>
       <c r="C445" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA071D3-B7C7-4322-9E0B-DE04FA46F3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A0DE27-CFA1-4300-AF13-EA56305BEE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="C446" sqref="C446"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="C447" sqref="C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6756,7 +6756,7 @@
         <v>427</v>
       </c>
       <c r="C446" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A0DE27-CFA1-4300-AF13-EA56305BEE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32126E74-0D9A-4667-B490-521957E2814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6767,7 +6767,7 @@
         <v>428</v>
       </c>
       <c r="C447" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32126E74-0D9A-4667-B490-521957E2814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56E7D60-FAD4-4432-B80C-BDFA43495EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="C447" sqref="C447"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6778,7 +6778,7 @@
         <v>429</v>
       </c>
       <c r="C448" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56E7D60-FAD4-4432-B80C-BDFA43495EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4309CBD-41F3-48F2-B9B1-2D40AEA8B94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="C448" sqref="C448"/>
+      <selection activeCell="C450" sqref="C450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6789,7 +6789,7 @@
         <v>430</v>
       </c>
       <c r="C449" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4309CBD-41F3-48F2-B9B1-2D40AEA8B94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A6CD96-EECD-449D-B969-68CE61966921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="C450" sqref="C450"/>
+      <selection activeCell="C452" sqref="C452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6811,7 +6811,7 @@
         <v>432</v>
       </c>
       <c r="C451" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A6CD96-EECD-449D-B969-68CE61966921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9585CEDD-1F91-4401-A86A-F5BEA2EEDB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="C452" sqref="C452"/>
+      <selection activeCell="C453" sqref="C453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6822,7 +6822,7 @@
         <v>433</v>
       </c>
       <c r="C452" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9585CEDD-1F91-4401-A86A-F5BEA2EEDB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F43102A-65DB-484B-B1C7-C5A045D42585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="C453" sqref="C453"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="C454" sqref="C454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6833,7 +6833,7 @@
         <v>434</v>
       </c>
       <c r="C453" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F43102A-65DB-484B-B1C7-C5A045D42585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DA500-7666-4773-88B9-DA3A13B5083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="C454" sqref="C454"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="C455" sqref="C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6844,7 +6844,7 @@
         <v>435</v>
       </c>
       <c r="C454" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DA500-7666-4773-88B9-DA3A13B5083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B59F98-E364-4DCF-9F79-1B0FE308D6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="C456" sqref="C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6855,7 +6855,7 @@
         <v>436</v>
       </c>
       <c r="C455" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B59F98-E364-4DCF-9F79-1B0FE308D6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22737D48-9364-4646-BA8B-5C0BCE8A0BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="C456" sqref="C456"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="C458" sqref="C458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6865,8 +6865,8 @@
       <c r="B456" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C456" s="4" t="b">
-        <v>0</v>
+      <c r="C456" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="21" outlineLevel="1">
@@ -6877,7 +6877,7 @@
         <v>438</v>
       </c>
       <c r="C457" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="21" outlineLevel="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22737D48-9364-4646-BA8B-5C0BCE8A0BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD1C77-1821-40D1-9778-8109C12CB5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="C458" sqref="C458"/>
+      <selection activeCell="C459" sqref="C459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6888,7 +6888,7 @@
         <v>439</v>
       </c>
       <c r="C458" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD1C77-1821-40D1-9778-8109C12CB5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AD0246-76FD-4691-9759-681D2459B549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="C459" sqref="C459"/>
+      <selection activeCell="C460" sqref="C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6899,7 +6899,7 @@
         <v>440</v>
       </c>
       <c r="C459" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AD0246-76FD-4691-9759-681D2459B549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC19352-AA52-4125-BE24-66B27FE71693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="C460" sqref="C460"/>
+    <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
+      <selection activeCell="C462" sqref="C462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3075,11 +3075,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3881,11 +3881,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4278,11 +4278,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4531,11 +4531,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4927,11 +4927,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5147,11 +5147,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5576,11 +5576,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5785,11 +5785,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6280,11 +6280,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6357,11 +6357,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6909,8 +6909,8 @@
       <c r="B460" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C460" s="4" t="b">
-        <v>0</v>
+      <c r="C460" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="21" outlineLevel="1">
@@ -6921,7 +6921,7 @@
         <v>442</v>
       </c>
       <c r="C461" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="21" outlineLevel="1">
@@ -7028,11 +7028,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7147,21 +7147,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC19352-AA52-4125-BE24-66B27FE71693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C2FA7-886E-4039-A68F-DF1E51BE1939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="C462" sqref="C462"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="C463" sqref="C463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2600,7 +2600,7 @@
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
     </row>
-    <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="58" spans="1:3" ht="21" outlineLevel="1">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="59" spans="1:3" ht="21" outlineLevel="1">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="60" spans="1:3" ht="21" outlineLevel="1">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="61" spans="1:3" ht="21" outlineLevel="1">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="62" spans="1:3" ht="21" outlineLevel="1">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="63" spans="1:3" ht="21" outlineLevel="1">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="64" spans="1:3" ht="21" outlineLevel="1">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="65" spans="1:3" ht="21" outlineLevel="1">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="66" spans="1:3" ht="21" outlineLevel="1">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="67" spans="1:3" ht="21" outlineLevel="1">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="68" spans="1:3" ht="21" outlineLevel="1">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="69" spans="1:3" ht="21" outlineLevel="1">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="70" spans="1:3" ht="21" outlineLevel="1">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="71" spans="1:3" ht="21" outlineLevel="1">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="72" spans="1:3" ht="21" outlineLevel="1">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="73" spans="1:3" ht="21" outlineLevel="1">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="74" spans="1:3" ht="21" outlineLevel="1">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="75" spans="1:3" ht="21" outlineLevel="1">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="76" spans="1:3" ht="21" outlineLevel="1">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="77" spans="1:3" ht="21" outlineLevel="1">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="78" spans="1:3" ht="21" outlineLevel="1">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="79" spans="1:3" ht="21" outlineLevel="1">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="80" spans="1:3" ht="21" outlineLevel="1">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="81" spans="1:3" ht="21" outlineLevel="1">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="82" spans="1:3" ht="21" outlineLevel="1">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="83" spans="1:3" ht="21" outlineLevel="1">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="84" spans="1:3" ht="21" outlineLevel="1">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="85" spans="1:3" ht="21" outlineLevel="1">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="86" spans="1:3" ht="21" outlineLevel="1">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="87" spans="1:3" ht="21" outlineLevel="1">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="88" spans="1:3" ht="21" outlineLevel="1">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="89" spans="1:3" ht="21" outlineLevel="1">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="90" spans="1:3" ht="21" outlineLevel="1">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="91" spans="1:3" ht="21" outlineLevel="1">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="92" spans="1:3" ht="21" outlineLevel="1">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="93" spans="1:3" ht="21" outlineLevel="1">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="94" spans="1:3" ht="21" outlineLevel="1">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="95" spans="1:3" ht="21" outlineLevel="1">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="96" spans="1:3" ht="21" outlineLevel="1">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="97" spans="1:3" ht="21" outlineLevel="1">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="98" spans="1:3" ht="21" outlineLevel="1">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="99" spans="1:3" ht="21" outlineLevel="1">
       <c r="A99" s="5" t="s">
         <v>53</v>
       </c>
@@ -3073,7 +3073,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="26" t="s">
         <v>97</v>
@@ -6932,7 +6931,7 @@
         <v>443</v>
       </c>
       <c r="C462" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="21" outlineLevel="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C2FA7-886E-4039-A68F-DF1E51BE1939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7198C59-EFB3-4029-BD80-E6590609BF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C463" sqref="C463"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="C464" sqref="C464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3074,11 +3074,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3478,11 +3478,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3880,11 +3880,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4277,11 +4277,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4530,11 +4530,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4926,11 +4926,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5146,11 +5146,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5575,11 +5575,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5784,11 +5784,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6279,11 +6279,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6356,11 +6356,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6942,7 +6942,7 @@
         <v>444</v>
       </c>
       <c r="C463" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="21" outlineLevel="1">
@@ -7027,11 +7027,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7146,21 +7146,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7198C59-EFB3-4029-BD80-E6590609BF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716475D9-8E26-46B8-8CFB-449E9E204798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1670,7 +1670,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1682,16 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="C464" sqref="C464"/>
+      <selection activeCell="C466" sqref="C466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3074,11 +3074,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3478,11 +3478,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3880,11 +3880,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4277,11 +4277,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4530,11 +4530,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4926,11 +4926,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5146,11 +5146,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5575,11 +5575,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5784,11 +5784,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6279,11 +6279,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6356,11 +6356,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6952,8 +6952,8 @@
       <c r="B464" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C464" s="4" t="b">
-        <v>0</v>
+      <c r="C464" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="21" outlineLevel="1">
@@ -6964,7 +6964,7 @@
         <v>446</v>
       </c>
       <c r="C465" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="21" outlineLevel="1">
@@ -7027,11 +7027,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7146,21 +7146,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716475D9-8E26-46B8-8CFB-449E9E204798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A58DC9-44FD-435B-B50A-F709A848A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1670,16 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,7 +1682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="C466" sqref="C466"/>
+      <selection activeCell="A462" sqref="A462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2476,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,11 +2594,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" ht="21" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3074,11 +3074,11 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3478,11 +3478,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3880,11 +3880,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4277,11 +4277,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4530,11 +4530,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -4926,11 +4926,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5146,11 +5146,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5575,11 +5575,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5784,11 +5784,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="24"/>
     </row>
     <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6279,11 +6279,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6356,11 +6356,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
+      <c r="B410" s="26"/>
+      <c r="C410" s="26"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6975,7 +6975,7 @@
         <v>447</v>
       </c>
       <c r="C466" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="21" outlineLevel="1">
@@ -7027,11 +7027,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="22" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="22"/>
-      <c r="C472" s="22"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7146,21 +7146,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A58DC9-44FD-435B-B50A-F709A848A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0755CA-5067-4CCE-BFD2-979187AAB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1482,7 +1482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1573,6 +1573,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1634,7 +1641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1670,6 +1677,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2014,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="A462" sqref="A462"/>
+    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="A458" sqref="A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2050,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2062,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2476,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2594,13 +2604,13 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+    </row>
+    <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2611,7 +2621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21" outlineLevel="1">
+    <row r="58" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2622,7 +2632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21" outlineLevel="1">
+    <row r="59" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2633,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21" outlineLevel="1">
+    <row r="60" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21" outlineLevel="1">
+    <row r="61" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2655,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21" outlineLevel="1">
+    <row r="62" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2666,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21" outlineLevel="1">
+    <row r="63" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2677,7 +2687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21" outlineLevel="1">
+    <row r="64" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2688,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21" outlineLevel="1">
+    <row r="65" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2699,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21" outlineLevel="1">
+    <row r="66" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2710,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21" outlineLevel="1">
+    <row r="67" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2721,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21" outlineLevel="1">
+    <row r="68" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2732,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21" outlineLevel="1">
+    <row r="69" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2743,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21" outlineLevel="1">
+    <row r="70" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2754,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" outlineLevel="1">
+    <row r="71" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2765,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21" outlineLevel="1">
+    <row r="72" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2776,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21" outlineLevel="1">
+    <row r="73" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2787,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21" outlineLevel="1">
+    <row r="74" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2798,7 +2808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21" outlineLevel="1">
+    <row r="75" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" outlineLevel="1">
+    <row r="76" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2820,7 +2830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21" outlineLevel="1">
+    <row r="77" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2831,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21" outlineLevel="1">
+    <row r="78" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2842,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21" outlineLevel="1">
+    <row r="79" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2853,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21" outlineLevel="1">
+    <row r="80" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2864,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21" outlineLevel="1">
+    <row r="81" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2875,7 +2885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" outlineLevel="1">
+    <row r="82" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2886,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21" outlineLevel="1">
+    <row r="83" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2897,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21" outlineLevel="1">
+    <row r="84" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2908,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21" outlineLevel="1">
+    <row r="85" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2919,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21" outlineLevel="1">
+    <row r="86" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2930,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21" outlineLevel="1">
+    <row r="87" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2941,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21" outlineLevel="1">
+    <row r="88" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2952,7 +2962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21" outlineLevel="1">
+    <row r="89" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21" outlineLevel="1">
+    <row r="90" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2974,7 +2984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21" outlineLevel="1">
+    <row r="91" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2985,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21" outlineLevel="1">
+    <row r="92" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2996,7 +3006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21" outlineLevel="1">
+    <row r="93" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -3007,7 +3017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21" outlineLevel="1">
+    <row r="94" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -3018,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21" outlineLevel="1">
+    <row r="95" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -3029,7 +3039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21" outlineLevel="1">
+    <row r="96" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -3040,7 +3050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21" outlineLevel="1">
+    <row r="97" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -3051,7 +3061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21" outlineLevel="1">
+    <row r="98" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -3062,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="21" outlineLevel="1">
+    <row r="99" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A99" s="5" t="s">
         <v>53</v>
       </c>
@@ -3073,12 +3083,13 @@
         <v>4</v>
       </c>
     </row>
+    <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3478,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3879,14 +3890,14 @@
       <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
-    <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="19" t="s">
+    <row r="177" spans="1:4" ht="21">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-    </row>
-    <row r="178" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+    </row>
+    <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3896,8 +3907,11 @@
       <c r="C178" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D178" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3907,8 +3921,11 @@
       <c r="C179" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D179" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3918,8 +3935,11 @@
       <c r="C180" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D180" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3929,8 +3949,11 @@
       <c r="C181" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D181" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3940,8 +3963,11 @@
       <c r="C182" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D182" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3951,8 +3977,11 @@
       <c r="C183" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D183" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3962,8 +3991,11 @@
       <c r="C184" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D184" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3973,8 +4005,11 @@
       <c r="C185" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D185" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3984,8 +4019,11 @@
       <c r="C186" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D186" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3995,8 +4033,11 @@
       <c r="C187" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D187" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -4006,8 +4047,11 @@
       <c r="C188" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D188" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -4017,8 +4061,11 @@
       <c r="C189" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D189" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -4028,8 +4075,11 @@
       <c r="C190" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D190" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -4039,8 +4089,11 @@
       <c r="C191" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D191" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -4050,8 +4103,11 @@
       <c r="C192" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D192" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4061,30 +4117,39 @@
       <c r="C193" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D193" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C194" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C194" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C195" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C195" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4094,41 +4159,53 @@
       <c r="C196" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D196" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C197" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C197" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C198" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C198" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C199" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C199" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4138,19 +4215,25 @@
       <c r="C200" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D200" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C201" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C201" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4160,19 +4243,25 @@
       <c r="C202" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D202" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C203" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C203" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4182,19 +4271,25 @@
       <c r="C204" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D204" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C205" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C205" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4204,63 +4299,81 @@
       <c r="C206" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D206" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C207" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C207" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C208" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C208" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C209" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C209" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C210" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C210" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C211" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C211" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A212" s="5" t="s">
         <v>171</v>
       </c>
@@ -4270,20 +4383,23 @@
       <c r="C212" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="21" collapsed="1">
+      <c r="D212" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="21" collapsed="1">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="20" t="s">
+    <row r="214" spans="1:4" ht="21">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
-    </row>
-    <row r="215" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
+    </row>
+    <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4293,8 +4409,11 @@
       <c r="C215" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D215" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4304,41 +4423,53 @@
       <c r="C216" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D216" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C217" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C217" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C218" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C218" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C219" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C219" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4348,96 +4479,123 @@
       <c r="C220" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D220" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C221" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C221" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C222" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C222" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C223" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C223" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C224" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C224" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C225" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C225" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D225" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C226" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C226" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D226" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C227" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C227" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D227" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C228" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C228" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4447,8 +4605,11 @@
       <c r="C229" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D229" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4458,85 +4619,106 @@
       <c r="C230" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D230" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C231" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C231" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C232" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C232" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D232" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C233" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C233" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D233" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C234" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C234" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C235" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C235" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D235" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A236" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C236" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="21" collapsed="1">
+      <c r="C236" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="21" collapsed="1">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="19" t="s">
+    <row r="238" spans="1:4" ht="21">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
-    </row>
-    <row r="239" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+    </row>
+    <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
         <v>229</v>
       </c>
@@ -4547,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="240" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A240" s="5" t="s">
         <v>229</v>
       </c>
@@ -4926,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5146,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5575,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5757,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="353" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A353" s="8" t="s">
         <v>323</v>
       </c>
@@ -5768,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="354" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A354" s="8" t="s">
         <v>323</v>
       </c>
@@ -5779,18 +5961,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="21" collapsed="1">
+    <row r="355" spans="1:4" ht="21" collapsed="1">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:3" ht="21" customHeight="1">
-      <c r="A356" s="24" t="s">
+    <row r="356" spans="1:4" ht="21" customHeight="1">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="24"/>
-      <c r="C356" s="24"/>
-    </row>
-    <row r="357" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
+    </row>
+    <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
         <v>342</v>
       </c>
@@ -5801,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="358" spans="1:4" ht="21" outlineLevel="1">
       <c r="A358" s="8" t="s">
         <v>342</v>
       </c>
@@ -5812,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="359" spans="1:4" ht="21" outlineLevel="1">
       <c r="A359" s="8" t="s">
         <v>342</v>
       </c>
@@ -5823,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="360" spans="1:4" ht="21" outlineLevel="1">
       <c r="A360" s="8" t="s">
         <v>342</v>
       </c>
@@ -5831,10 +6013,13 @@
         <v>346</v>
       </c>
       <c r="C360" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="D360" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="21" outlineLevel="1">
       <c r="A361" s="8" t="s">
         <v>342</v>
       </c>
@@ -5844,30 +6029,39 @@
       <c r="C361" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D361" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="21" outlineLevel="1">
       <c r="A362" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C362" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C362" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D362" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="21" outlineLevel="1">
       <c r="A363" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C363" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C363" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D363" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="21" outlineLevel="1">
       <c r="A364" s="8" t="s">
         <v>342</v>
       </c>
@@ -5877,8 +6071,11 @@
       <c r="C364" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D364" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="21" outlineLevel="1">
       <c r="A365" s="8" t="s">
         <v>342</v>
       </c>
@@ -5888,30 +6085,39 @@
       <c r="C365" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D365" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="21" outlineLevel="1">
       <c r="A366" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C366" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C366" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D366" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="21" outlineLevel="1">
       <c r="A367" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C367" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C367" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D367" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="21" outlineLevel="1">
       <c r="A368" s="8" t="s">
         <v>342</v>
       </c>
@@ -5921,8 +6127,11 @@
       <c r="C368" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D368" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="21" outlineLevel="1">
       <c r="A369" s="8" t="s">
         <v>342</v>
       </c>
@@ -5932,19 +6141,25 @@
       <c r="C369" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D369" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="21" outlineLevel="1">
       <c r="A370" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C370" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C370" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D370" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="21" outlineLevel="1">
       <c r="A371" s="8" t="s">
         <v>342</v>
       </c>
@@ -5954,8 +6169,11 @@
       <c r="C371" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D371" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="21" outlineLevel="1">
       <c r="A372" s="8" t="s">
         <v>342</v>
       </c>
@@ -5965,8 +6183,11 @@
       <c r="C372" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D372" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="21" outlineLevel="1">
       <c r="A373" s="8" t="s">
         <v>342</v>
       </c>
@@ -5976,8 +6197,11 @@
       <c r="C373" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D373" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="21" outlineLevel="1">
       <c r="A374" s="8" t="s">
         <v>342</v>
       </c>
@@ -5987,8 +6211,11 @@
       <c r="C374" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D374" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="21" outlineLevel="1">
       <c r="A375" s="8" t="s">
         <v>342</v>
       </c>
@@ -5998,8 +6225,11 @@
       <c r="C375" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D375" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="21" outlineLevel="1">
       <c r="A376" s="8" t="s">
         <v>342</v>
       </c>
@@ -6009,8 +6239,11 @@
       <c r="C376" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D376" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="21" outlineLevel="1">
       <c r="A377" s="8" t="s">
         <v>342</v>
       </c>
@@ -6020,8 +6253,11 @@
       <c r="C377" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D377" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="21" outlineLevel="1">
       <c r="A378" s="8" t="s">
         <v>342</v>
       </c>
@@ -6031,8 +6267,11 @@
       <c r="C378" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D378" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="21" outlineLevel="1">
       <c r="A379" s="8" t="s">
         <v>342</v>
       </c>
@@ -6042,8 +6281,11 @@
       <c r="C379" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D379" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="21" outlineLevel="1">
       <c r="A380" s="8" t="s">
         <v>342</v>
       </c>
@@ -6053,19 +6295,25 @@
       <c r="C380" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D380" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="21" outlineLevel="1">
       <c r="A381" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C381" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C381" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D381" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="21" outlineLevel="1">
       <c r="A382" s="8" t="s">
         <v>342</v>
       </c>
@@ -6075,8 +6323,11 @@
       <c r="C382" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D382" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="21" outlineLevel="1">
       <c r="A383" s="8" t="s">
         <v>342</v>
       </c>
@@ -6086,8 +6337,11 @@
       <c r="C383" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D383" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="21" outlineLevel="1">
       <c r="A384" s="8" t="s">
         <v>342</v>
       </c>
@@ -6097,8 +6351,11 @@
       <c r="C384" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D384" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="21" outlineLevel="1">
       <c r="A385" s="8" t="s">
         <v>342</v>
       </c>
@@ -6108,19 +6365,25 @@
       <c r="C385" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D385" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="21" outlineLevel="1">
       <c r="A386" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C386" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C386" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D386" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="21" outlineLevel="1">
       <c r="A387" s="8" t="s">
         <v>342</v>
       </c>
@@ -6130,118 +6393,151 @@
       <c r="C387" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D387" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="21" outlineLevel="1">
       <c r="A388" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C388" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C388" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D388" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="21" outlineLevel="1">
       <c r="A389" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C389" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C389" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D389" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="21" outlineLevel="1">
       <c r="A390" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C390" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C390" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D390" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="21" outlineLevel="1">
       <c r="A391" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C391" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C391" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D391" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="21" outlineLevel="1">
       <c r="A392" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C392" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C392" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D392" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="21" outlineLevel="1">
       <c r="A393" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C393" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C393" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D393" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="21" outlineLevel="1">
       <c r="A394" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C394" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C394" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D394" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="21" outlineLevel="1">
       <c r="A395" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C395" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C395" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D395" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="21" outlineLevel="1">
       <c r="A396" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C396" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C396" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D396" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="21" outlineLevel="1">
       <c r="A397" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C397" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C397" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D397" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="21" outlineLevel="1">
       <c r="A398" s="8" t="s">
         <v>342</v>
       </c>
@@ -6251,8 +6547,11 @@
       <c r="C398" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D398" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="21" outlineLevel="1">
       <c r="A399" s="8" t="s">
         <v>342</v>
       </c>
@@ -6262,8 +6561,11 @@
       <c r="C399" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="D399" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="21" outlineLevel="1">
       <c r="A400" s="8" t="s">
         <v>342</v>
       </c>
@@ -6273,17 +6575,20 @@
       <c r="C400" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" ht="21" collapsed="1">
+      <c r="D400" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="25"/>
-      <c r="C402" s="25"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6356,11 +6661,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="26"/>
-      <c r="C410" s="26"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -6986,7 +7291,7 @@
         <v>448</v>
       </c>
       <c r="C467" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="21" outlineLevel="1">
@@ -6996,8 +7301,8 @@
       <c r="B468" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C468" s="4" t="b">
-        <v>0</v>
+      <c r="C468" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21" outlineLevel="1">
@@ -7027,11 +7332,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7628,11 +7933,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="17" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0755CA-5067-4CCE-BFD2-979187AAB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3939A867-4209-455F-94C4-615F97E44A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3891,11 +3891,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4393,11 +4393,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4712,11 +4712,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5108,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,11 +5966,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6027,7 +6027,7 @@
         <v>347</v>
       </c>
       <c r="C361" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361" s="4" t="b">
         <v>0</v>
@@ -6584,11 +6584,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,13 +6661,13 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
-    </row>
-    <row r="411" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
+    </row>
+    <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
         <v>392</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21" outlineLevel="1">
+    <row r="412" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A412" s="5" t="s">
         <v>392</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21" outlineLevel="1">
+    <row r="413" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A413" s="5" t="s">
         <v>392</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21" outlineLevel="1">
+    <row r="414" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A414" s="5" t="s">
         <v>392</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21" outlineLevel="1">
+    <row r="415" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A415" s="5" t="s">
         <v>392</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21" outlineLevel="1">
+    <row r="416" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A416" s="5" t="s">
         <v>392</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21" outlineLevel="1">
+    <row r="417" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A417" s="5" t="s">
         <v>392</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21" outlineLevel="1">
+    <row r="418" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A418" s="5" t="s">
         <v>392</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21" outlineLevel="1">
+    <row r="419" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A419" s="5" t="s">
         <v>392</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21" outlineLevel="1">
+    <row r="420" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A420" s="5" t="s">
         <v>392</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21" outlineLevel="1">
+    <row r="421" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A421" s="5" t="s">
         <v>392</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21" outlineLevel="1">
+    <row r="422" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A422" s="5" t="s">
         <v>392</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21" outlineLevel="1">
+    <row r="423" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A423" s="5" t="s">
         <v>392</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21" outlineLevel="1">
+    <row r="424" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21" outlineLevel="1">
+    <row r="425" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A425" s="5" t="s">
         <v>392</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21" outlineLevel="1">
+    <row r="426" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A426" s="5" t="s">
         <v>392</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21" outlineLevel="1">
+    <row r="427" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A427" s="5" t="s">
         <v>392</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21" outlineLevel="1">
+    <row r="428" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A428" s="5" t="s">
         <v>392</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21" outlineLevel="1">
+    <row r="429" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A429" s="5" t="s">
         <v>392</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21" outlineLevel="1">
+    <row r="430" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21" outlineLevel="1">
+    <row r="431" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A431" s="5" t="s">
         <v>392</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21" outlineLevel="1">
+    <row r="432" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A432" s="5" t="s">
         <v>392</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21" outlineLevel="1">
+    <row r="433" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A433" s="5" t="s">
         <v>392</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21" outlineLevel="1">
+    <row r="434" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A434" s="5" t="s">
         <v>392</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21" outlineLevel="1">
+    <row r="435" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A435" s="5" t="s">
         <v>392</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21" outlineLevel="1">
+    <row r="436" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A436" s="5" t="s">
         <v>392</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21" outlineLevel="1">
+    <row r="437" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A437" s="5" t="s">
         <v>392</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21" outlineLevel="1">
+    <row r="438" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A438" s="5" t="s">
         <v>392</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21" outlineLevel="1">
+    <row r="439" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A439" s="5" t="s">
         <v>392</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21" outlineLevel="1">
+    <row r="440" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A440" s="5" t="s">
         <v>392</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21" outlineLevel="1">
+    <row r="441" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A441" s="5" t="s">
         <v>392</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21" outlineLevel="1">
+    <row r="442" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A442" s="5" t="s">
         <v>392</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21" outlineLevel="1">
+    <row r="443" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A443" s="5" t="s">
         <v>392</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21" outlineLevel="1">
+    <row r="444" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A444" s="5" t="s">
         <v>392</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21" outlineLevel="1">
+    <row r="445" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A445" s="5" t="s">
         <v>392</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21" outlineLevel="1">
+    <row r="446" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A446" s="5" t="s">
         <v>392</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21" outlineLevel="1">
+    <row r="447" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A447" s="5" t="s">
         <v>392</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21" outlineLevel="1">
+    <row r="448" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A448" s="5" t="s">
         <v>392</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21" outlineLevel="1">
+    <row r="449" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A449" s="5" t="s">
         <v>392</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21" outlineLevel="1">
+    <row r="450" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A450" s="5" t="s">
         <v>392</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21" outlineLevel="1">
+    <row r="451" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A451" s="5" t="s">
         <v>392</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21" outlineLevel="1">
+    <row r="452" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A452" s="5" t="s">
         <v>392</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21" outlineLevel="1">
+    <row r="453" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A453" s="5" t="s">
         <v>392</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21" outlineLevel="1">
+    <row r="454" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A454" s="5" t="s">
         <v>392</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21" outlineLevel="1">
+    <row r="455" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A455" s="5" t="s">
         <v>392</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21" outlineLevel="1">
+    <row r="456" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A456" s="5" t="s">
         <v>392</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21" outlineLevel="1">
+    <row r="457" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A457" s="5" t="s">
         <v>392</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21" outlineLevel="1">
+    <row r="458" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A458" s="5" t="s">
         <v>392</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21" outlineLevel="1">
+    <row r="459" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A459" s="5" t="s">
         <v>392</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21" outlineLevel="1">
+    <row r="460" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A460" s="5" t="s">
         <v>392</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21" outlineLevel="1">
+    <row r="461" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A461" s="5" t="s">
         <v>392</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21" outlineLevel="1">
+    <row r="462" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A462" s="5" t="s">
         <v>392</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21" outlineLevel="1">
+    <row r="463" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A463" s="5" t="s">
         <v>392</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21" outlineLevel="1">
+    <row r="464" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A464" s="5" t="s">
         <v>392</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21" outlineLevel="1">
+    <row r="465" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A465" s="5" t="s">
         <v>392</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21" outlineLevel="1">
+    <row r="466" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A466" s="5" t="s">
         <v>392</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21" outlineLevel="1">
+    <row r="467" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A467" s="5" t="s">
         <v>392</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21" outlineLevel="1">
+    <row r="468" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A468" s="5" t="s">
         <v>392</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21" outlineLevel="1">
+    <row r="469" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A469" s="5" t="s">
         <v>392</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21" outlineLevel="1">
+    <row r="470" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A470" s="5" t="s">
         <v>392</v>
       </c>
@@ -7327,16 +7327,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" spans="1:3" ht="21" collapsed="1">
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7451,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3939A867-4209-455F-94C4-615F97E44A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEBCB7D-7A9B-4736-86A3-C5E9A1310887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C362" sqref="C362"/>
+      <selection activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3891,11 +3891,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4393,11 +4393,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4712,11 +4712,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5108,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,11 +5966,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6069,7 +6069,7 @@
         <v>350</v>
       </c>
       <c r="C364" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D364" s="4" t="b">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>351</v>
       </c>
       <c r="C365" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D365" s="4" t="b">
         <v>0</v>
@@ -6584,11 +6584,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,11 +6661,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7332,11 +7332,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7451,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEBCB7D-7A9B-4736-86A3-C5E9A1310887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEEE1C-D4AA-4D4D-AED4-0718A00B97ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C366" sqref="C366"/>
+      <selection activeCell="C365" sqref="C365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEEE1C-D4AA-4D4D-AED4-0718A00B97ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674BCB6-D3EA-4BAF-8761-C89531341B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C365" sqref="C365"/>
+      <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3891,11 +3891,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4393,11 +4393,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4712,11 +4712,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5108,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,11 +5966,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6125,7 +6125,7 @@
         <v>354</v>
       </c>
       <c r="C368" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D368" s="4" t="b">
         <v>0</v>
@@ -6584,11 +6584,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,11 +6661,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7332,11 +7332,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7451,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674BCB6-D3EA-4BAF-8761-C89531341B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7323D938-E5A2-4D65-8C5C-26F3E5B86BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C369" sqref="C369"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3891,11 +3891,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4393,11 +4393,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4712,11 +4712,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5108,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,11 +5966,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6181,7 +6181,7 @@
         <v>358</v>
       </c>
       <c r="C372" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D372" s="4" t="b">
         <v>0</v>
@@ -6584,11 +6584,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,11 +6661,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7332,11 +7332,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7451,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7323D938-E5A2-4D65-8C5C-26F3E5B86BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7716DB57-CCDD-4E45-8B74-DD91F0CC908C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="C373" sqref="C373"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3891,11 +3891,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4393,11 +4393,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4712,11 +4712,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5108,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,11 +5966,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6209,7 +6209,7 @@
         <v>360</v>
       </c>
       <c r="C374" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D374" s="4" t="b">
         <v>0</v>
@@ -6584,11 +6584,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,11 +6661,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7332,11 +7332,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7451,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7716DB57-CCDD-4E45-8B74-DD91F0CC908C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A128FE1-CD0C-472A-BF70-C5C8D422025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="B367" sqref="B367"/>
+      <selection activeCell="B375" sqref="B375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3891,11 +3891,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4393,11 +4393,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4712,11 +4712,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5108,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,11 +5966,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6223,7 +6223,7 @@
         <v>361</v>
       </c>
       <c r="C375" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D375" s="4" t="b">
         <v>0</v>
@@ -6584,11 +6584,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,11 +6661,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7332,11 +7332,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7451,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A128FE1-CD0C-472A-BF70-C5C8D422025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0E8AA-437C-413D-8DA3-B63C2D606CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="B375" sqref="B375"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="C377" sqref="C377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6237,7 +6237,7 @@
         <v>362</v>
       </c>
       <c r="C376" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D376" s="4" t="b">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>363</v>
       </c>
       <c r="C377" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D377" s="4" t="b">
         <v>0</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0E8AA-437C-413D-8DA3-B63C2D606CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED20A8C7-2B73-4E6F-81AC-A7817A38D7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="C377" sqref="C377"/>
+      <selection activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3891,11 +3891,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4393,11 +4393,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4712,11 +4712,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5108,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,11 +5966,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6265,7 +6265,7 @@
         <v>364</v>
       </c>
       <c r="C378" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D378" s="4" t="b">
         <v>0</v>
@@ -6584,11 +6584,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,11 +6661,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7332,11 +7332,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7451,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED20A8C7-2B73-4E6F-81AC-A7817A38D7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987BAAFE-104F-4C25-8BB8-F3D444D44E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="C379" sqref="C379"/>
+      <selection activeCell="C380" sqref="C380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3891,11 +3891,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4393,11 +4393,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4712,11 +4712,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5108,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,11 +5966,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6279,7 +6279,7 @@
         <v>365</v>
       </c>
       <c r="C379" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D379" s="4" t="b">
         <v>0</v>
@@ -6584,11 +6584,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,11 +6661,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7332,11 +7332,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7451,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987BAAFE-104F-4C25-8BB8-F3D444D44E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC05A38-1EA9-4A86-BCDE-325A5F046CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="C380" sqref="C380"/>
+      <selection activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3891,11 +3891,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4393,11 +4393,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4712,11 +4712,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5108,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,11 +5966,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6293,7 +6293,7 @@
         <v>366</v>
       </c>
       <c r="C380" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D380" s="4" t="b">
         <v>0</v>
@@ -6584,11 +6584,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,11 +6661,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7332,11 +7332,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7451,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC05A38-1EA9-4A86-BCDE-325A5F046CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065604E5-45F3-4418-8624-173CCDC624EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="C382" sqref="C382"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="C383" sqref="C383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3891,11 +3891,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4393,11 +4393,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4712,11 +4712,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5108,11 +5108,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5328,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5757,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,11 +5966,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6321,7 +6321,7 @@
         <v>368</v>
       </c>
       <c r="C382" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D382" s="4" t="b">
         <v>0</v>
@@ -6584,11 +6584,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,11 +6661,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7332,11 +7332,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7451,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065604E5-45F3-4418-8624-173CCDC624EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949FEC8-96D9-42D9-AFDB-F9FA19EA20D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="C383" sqref="C383"/>
+    <sheetView tabSelected="1" topLeftCell="B372" workbookViewId="0">
+      <selection activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6335,7 +6335,7 @@
         <v>369</v>
       </c>
       <c r="C383" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D383" s="4" t="b">
         <v>0</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949FEC8-96D9-42D9-AFDB-F9FA19EA20D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F345F508-107D-4AA7-9014-05448242F48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B372" workbookViewId="0">
-      <selection activeCell="C384" sqref="C384"/>
+    <sheetView tabSelected="1" topLeftCell="B374" workbookViewId="0">
+      <selection activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6349,7 +6349,7 @@
         <v>370</v>
       </c>
       <c r="C384" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D384" s="4" t="b">
         <v>0</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F345F508-107D-4AA7-9014-05448242F48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41FFFF-3D32-4B8F-834D-4FC947190E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B374" workbookViewId="0">
-      <selection activeCell="C382" sqref="C382"/>
+      <selection activeCell="C386" sqref="C386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6363,7 +6363,7 @@
         <v>371</v>
       </c>
       <c r="C385" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D385" s="4" t="b">
         <v>0</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41FFFF-3D32-4B8F-834D-4FC947190E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C79A6D-10B5-41FC-ABBF-0F2DA725C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B374" workbookViewId="0">
-      <selection activeCell="C386" sqref="C386"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2076,11 +2076,11 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,13 +3489,13 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-    </row>
-    <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+    </row>
+    <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="141" spans="1:3" ht="21" outlineLevel="1">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="142" spans="1:3" ht="21" outlineLevel="1">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="143" spans="1:3" ht="21" outlineLevel="1">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3539,18 +3539,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="144" spans="1:3" ht="21" outlineLevel="1">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C144" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C144" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="21" outlineLevel="1">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="146" spans="1:3" ht="21" outlineLevel="1">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3572,18 +3572,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="147" spans="1:3" ht="21" outlineLevel="1">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C147" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C147" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="21" outlineLevel="1">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="149" spans="1:3" ht="21" outlineLevel="1">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="150" spans="1:3" ht="21" outlineLevel="1">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="151" spans="1:3" ht="21" outlineLevel="1">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="152" spans="1:3" ht="21" outlineLevel="1">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="153" spans="1:3" ht="21" outlineLevel="1">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3649,40 +3649,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="154" spans="1:3" ht="21" outlineLevel="1">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C154" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C154" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="21" outlineLevel="1">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C155" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C155" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="21" outlineLevel="1">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C156" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C156" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="21" outlineLevel="1">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="158" spans="1:3" ht="21" outlineLevel="1">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="159" spans="1:3" ht="21" outlineLevel="1">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3715,29 +3715,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="160" spans="1:3" ht="21" outlineLevel="1">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C160" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C160" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="21" outlineLevel="1">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C161" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C161" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="21" outlineLevel="1">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="163" spans="1:3" ht="21" outlineLevel="1">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="164" spans="1:3" ht="21" outlineLevel="1">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="165" spans="1:3" ht="21" outlineLevel="1">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="166" spans="1:3" ht="21" outlineLevel="1">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3792,112 +3792,113 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="167" spans="1:3" ht="21" outlineLevel="1">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C167" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C167" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="21" outlineLevel="1">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C168" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C168" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="21" outlineLevel="1">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C169" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C169" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="21" outlineLevel="1">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C170" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C170" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="21" outlineLevel="1">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C171" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C171" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="21" outlineLevel="1">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C172" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C172" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="21" outlineLevel="1">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C173" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C173" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="21" outlineLevel="1">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C174" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+      <c r="C174" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="21" outlineLevel="1">
       <c r="A175" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C175" s="4"/>
-    </row>
-    <row r="176" spans="1:3" collapsed="1"/>
+      <c r="C175" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-    </row>
-    <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
+    </row>
+    <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="179" spans="1:4" ht="21" outlineLevel="1">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="180" spans="1:4" ht="21" outlineLevel="1">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="181" spans="1:4" ht="21" outlineLevel="1">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="182" spans="1:4" ht="21" outlineLevel="1">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="183" spans="1:4" ht="21" outlineLevel="1">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="184" spans="1:4" ht="21" outlineLevel="1">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="185" spans="1:4" ht="21" outlineLevel="1">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="186" spans="1:4" ht="21" outlineLevel="1">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="187" spans="1:4" ht="21" outlineLevel="1">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="188" spans="1:4" ht="21" outlineLevel="1">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="189" spans="1:4" ht="21" outlineLevel="1">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="190" spans="1:4" ht="21" outlineLevel="1">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="191" spans="1:4" ht="21" outlineLevel="1">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="192" spans="1:4" ht="21" outlineLevel="1">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="193" spans="1:4" ht="21" outlineLevel="1">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="194" spans="1:4" ht="21" outlineLevel="1">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="195" spans="1:4" ht="21" outlineLevel="1">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="196" spans="1:4" ht="21" outlineLevel="1">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="197" spans="1:4" ht="21" outlineLevel="1">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="198" spans="1:4" ht="21" outlineLevel="1">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="199" spans="1:4" ht="21" outlineLevel="1">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="200" spans="1:4" ht="21" outlineLevel="1">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="201" spans="1:4" ht="21" outlineLevel="1">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="202" spans="1:4" ht="21" outlineLevel="1">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="203" spans="1:4" ht="21" outlineLevel="1">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="204" spans="1:4" ht="21" outlineLevel="1">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="205" spans="1:4" ht="21" outlineLevel="1">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="206" spans="1:4" ht="21" outlineLevel="1">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="207" spans="1:4" ht="21" outlineLevel="1">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="208" spans="1:4" ht="21" outlineLevel="1">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="209" spans="1:4" ht="21" outlineLevel="1">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="210" spans="1:4" ht="21" outlineLevel="1">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="211" spans="1:4" ht="21" outlineLevel="1">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="212" spans="1:4" ht="21" outlineLevel="1">
       <c r="A212" s="5" t="s">
         <v>171</v>
       </c>
@@ -4387,19 +4388,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="21" collapsed="1">
+    <row r="213" spans="1:4" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
-    </row>
-    <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
+    </row>
+    <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="216" spans="1:4" ht="21" outlineLevel="1">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="217" spans="1:4" ht="21" outlineLevel="1">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="218" spans="1:4" ht="21" outlineLevel="1">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="219" spans="1:4" ht="21" outlineLevel="1">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="220" spans="1:4" ht="21" outlineLevel="1">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="221" spans="1:4" ht="21" outlineLevel="1">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="222" spans="1:4" ht="21" outlineLevel="1">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="223" spans="1:4" ht="21" outlineLevel="1">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="224" spans="1:4" ht="21" outlineLevel="1">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="225" spans="1:4" ht="21" outlineLevel="1">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="226" spans="1:4" ht="21" outlineLevel="1">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="227" spans="1:4" ht="21" outlineLevel="1">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="228" spans="1:4" ht="21" outlineLevel="1">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="229" spans="1:4" ht="21" outlineLevel="1">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="230" spans="1:4" ht="21" outlineLevel="1">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="231" spans="1:4" ht="21" outlineLevel="1">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="232" spans="1:4" ht="21" outlineLevel="1">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="233" spans="1:4" ht="21" outlineLevel="1">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="234" spans="1:4" ht="21" outlineLevel="1">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="235" spans="1:4" ht="21" outlineLevel="1">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="236" spans="1:4" ht="21" outlineLevel="1">
       <c r="A236" s="5" t="s">
         <v>207</v>
       </c>
@@ -4707,18 +4708,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="21" collapsed="1">
+    <row r="237" spans="1:4" ht="21">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
-    </row>
-    <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
+    </row>
+    <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
         <v>229</v>
       </c>
@@ -4729,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="21" hidden="1" outlineLevel="1">
+    <row r="240" spans="1:4" ht="21" outlineLevel="1">
       <c r="A240" s="5" t="s">
         <v>229</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="241" spans="1:3" ht="21" outlineLevel="1">
       <c r="A241" s="5" t="s">
         <v>229</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="242" spans="1:3" ht="21" outlineLevel="1">
       <c r="A242" s="5" t="s">
         <v>229</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="243" spans="1:3" ht="21" outlineLevel="1">
       <c r="A243" s="5" t="s">
         <v>229</v>
       </c>
@@ -4773,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="244" spans="1:3" ht="21" outlineLevel="1">
       <c r="A244" s="5" t="s">
         <v>229</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="245" spans="1:3" ht="21" outlineLevel="1">
       <c r="A245" s="5" t="s">
         <v>229</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="246" spans="1:3" ht="21" outlineLevel="1">
       <c r="A246" s="5" t="s">
         <v>229</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="247" spans="1:3" ht="21" outlineLevel="1">
       <c r="A247" s="5" t="s">
         <v>229</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="248" spans="1:3" ht="21" outlineLevel="1">
       <c r="A248" s="5" t="s">
         <v>229</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="249" spans="1:3" ht="21" outlineLevel="1">
       <c r="A249" s="5" t="s">
         <v>229</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="250" spans="1:3" ht="21" outlineLevel="1">
       <c r="A250" s="5" t="s">
         <v>229</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="251" spans="1:3" ht="21" outlineLevel="1">
       <c r="A251" s="5" t="s">
         <v>229</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="252" spans="1:3" ht="21" outlineLevel="1">
       <c r="A252" s="5" t="s">
         <v>229</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="253" spans="1:3" ht="21" outlineLevel="1">
       <c r="A253" s="5" t="s">
         <v>229</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="254" spans="1:3" ht="21" outlineLevel="1">
       <c r="A254" s="5" t="s">
         <v>229</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="255" spans="1:3" ht="21" outlineLevel="1">
       <c r="A255" s="5" t="s">
         <v>229</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="256" spans="1:3" ht="21" outlineLevel="1">
       <c r="A256" s="5" t="s">
         <v>229</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="257" spans="1:3" ht="21" outlineLevel="1">
       <c r="A257" s="5" t="s">
         <v>229</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="258" spans="1:3" ht="21" outlineLevel="1">
       <c r="A258" s="5" t="s">
         <v>229</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="259" spans="1:3" ht="21" outlineLevel="1">
       <c r="A259" s="5" t="s">
         <v>229</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="260" spans="1:3" ht="21" outlineLevel="1">
       <c r="A260" s="5" t="s">
         <v>229</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="261" spans="1:3" ht="21" outlineLevel="1">
       <c r="A261" s="5" t="s">
         <v>229</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="262" spans="1:3" ht="21" outlineLevel="1">
       <c r="A262" s="5" t="s">
         <v>229</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="263" spans="1:3" ht="21" outlineLevel="1">
       <c r="A263" s="5" t="s">
         <v>229</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="264" spans="1:3" ht="21" outlineLevel="1">
       <c r="A264" s="5" t="s">
         <v>229</v>
       </c>
@@ -5004,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="265" spans="1:3" ht="21" outlineLevel="1">
       <c r="A265" s="5" t="s">
         <v>229</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="266" spans="1:3" ht="21" outlineLevel="1">
       <c r="A266" s="5" t="s">
         <v>229</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="267" spans="1:3" ht="21" outlineLevel="1">
       <c r="A267" s="5" t="s">
         <v>229</v>
       </c>
@@ -5037,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="268" spans="1:3" ht="21" outlineLevel="1">
       <c r="A268" s="5" t="s">
         <v>229</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="269" spans="1:3" ht="21" outlineLevel="1">
       <c r="A269" s="5" t="s">
         <v>229</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="270" spans="1:3" ht="21" outlineLevel="1">
       <c r="A270" s="5" t="s">
         <v>229</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="271" spans="1:3" ht="21" outlineLevel="1">
       <c r="A271" s="5" t="s">
         <v>229</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="272" spans="1:3" ht="21" outlineLevel="1">
       <c r="A272" s="5" t="s">
         <v>229</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21" hidden="1" outlineLevel="1">
+    <row r="273" spans="1:3" ht="21" outlineLevel="1">
       <c r="A273" s="5" t="s">
         <v>229</v>
       </c>
@@ -5103,16 +5104,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="21" collapsed="1">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5328,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5757,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5966,13 +5967,13 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
-    </row>
-    <row r="357" spans="1:4" ht="21" outlineLevel="1">
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
+    </row>
+    <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
         <v>342</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="21" outlineLevel="1">
+    <row r="358" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A358" s="8" t="s">
         <v>342</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="21" outlineLevel="1">
+    <row r="359" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A359" s="8" t="s">
         <v>342</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="21" outlineLevel="1">
+    <row r="360" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A360" s="8" t="s">
         <v>342</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="21" outlineLevel="1">
+    <row r="361" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A361" s="8" t="s">
         <v>342</v>
       </c>
@@ -6033,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="21" outlineLevel="1">
+    <row r="362" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A362" s="8" t="s">
         <v>342</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="21" outlineLevel="1">
+    <row r="363" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A363" s="8" t="s">
         <v>342</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="21" outlineLevel="1">
+    <row r="364" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A364" s="8" t="s">
         <v>342</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="21" outlineLevel="1">
+    <row r="365" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A365" s="8" t="s">
         <v>342</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="21" outlineLevel="1">
+    <row r="366" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A366" s="8" t="s">
         <v>342</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="21" outlineLevel="1">
+    <row r="367" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A367" s="8" t="s">
         <v>342</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="21" outlineLevel="1">
+    <row r="368" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A368" s="8" t="s">
         <v>342</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="21" outlineLevel="1">
+    <row r="369" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A369" s="8" t="s">
         <v>342</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="21" outlineLevel="1">
+    <row r="370" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A370" s="8" t="s">
         <v>342</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="21" outlineLevel="1">
+    <row r="371" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A371" s="8" t="s">
         <v>342</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="21" outlineLevel="1">
+    <row r="372" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A372" s="8" t="s">
         <v>342</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="21" outlineLevel="1">
+    <row r="373" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A373" s="8" t="s">
         <v>342</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="21" outlineLevel="1">
+    <row r="374" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A374" s="8" t="s">
         <v>342</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="21" outlineLevel="1">
+    <row r="375" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A375" s="8" t="s">
         <v>342</v>
       </c>
@@ -6229,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="21" outlineLevel="1">
+    <row r="376" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A376" s="8" t="s">
         <v>342</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="21" outlineLevel="1">
+    <row r="377" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A377" s="8" t="s">
         <v>342</v>
       </c>
@@ -6257,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="21" outlineLevel="1">
+    <row r="378" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A378" s="8" t="s">
         <v>342</v>
       </c>
@@ -6271,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="21" outlineLevel="1">
+    <row r="379" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A379" s="8" t="s">
         <v>342</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="21" outlineLevel="1">
+    <row r="380" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A380" s="8" t="s">
         <v>342</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="21" outlineLevel="1">
+    <row r="381" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A381" s="8" t="s">
         <v>342</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="21" outlineLevel="1">
+    <row r="382" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A382" s="8" t="s">
         <v>342</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="21" outlineLevel="1">
+    <row r="383" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A383" s="8" t="s">
         <v>342</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="21" outlineLevel="1">
+    <row r="384" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A384" s="8" t="s">
         <v>342</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="21" outlineLevel="1">
+    <row r="385" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A385" s="8" t="s">
         <v>342</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="21" outlineLevel="1">
+    <row r="386" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A386" s="8" t="s">
         <v>342</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="21" outlineLevel="1">
+    <row r="387" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A387" s="8" t="s">
         <v>342</v>
       </c>
@@ -6397,7 +6398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="21" outlineLevel="1">
+    <row r="388" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A388" s="8" t="s">
         <v>342</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="21" outlineLevel="1">
+    <row r="389" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A389" s="8" t="s">
         <v>342</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="21" outlineLevel="1">
+    <row r="390" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A390" s="8" t="s">
         <v>342</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="21" outlineLevel="1">
+    <row r="391" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A391" s="8" t="s">
         <v>342</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="21" outlineLevel="1">
+    <row r="392" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A392" s="8" t="s">
         <v>342</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="21" outlineLevel="1">
+    <row r="393" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A393" s="8" t="s">
         <v>342</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="21" outlineLevel="1">
+    <row r="394" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A394" s="8" t="s">
         <v>342</v>
       </c>
@@ -6495,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="21" outlineLevel="1">
+    <row r="395" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A395" s="8" t="s">
         <v>342</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="21" outlineLevel="1">
+    <row r="396" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A396" s="8" t="s">
         <v>342</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="21" outlineLevel="1">
+    <row r="397" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A397" s="8" t="s">
         <v>342</v>
       </c>
@@ -6537,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="21" outlineLevel="1">
+    <row r="398" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A398" s="8" t="s">
         <v>342</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="21" outlineLevel="1">
+    <row r="399" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A399" s="8" t="s">
         <v>342</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="21" outlineLevel="1">
+    <row r="400" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A400" s="8" t="s">
         <v>342</v>
       </c>
@@ -6579,16 +6580,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" spans="1:3" ht="21" collapsed="1">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6661,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7332,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7451,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C79A6D-10B5-41FC-ABBF-0F2DA725C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C29420-2D53-43FD-BA75-7958D4686A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3525,7 +3525,7 @@
         <v>137</v>
       </c>
       <c r="C142" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C29420-2D53-43FD-BA75-7958D4686A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B9AE2B-54A3-4069-8914-4AA4A5A545E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3536,7 +3536,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B9AE2B-54A3-4069-8914-4AA4A5A545E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D100D180-2DDF-4B11-A3A3-B0E00CFE37EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3558,7 +3558,7 @@
         <v>140</v>
       </c>
       <c r="C145" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D100D180-2DDF-4B11-A3A3-B0E00CFE37EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F026D9FC-F465-4E68-A6A3-1FAEB06E5677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
       <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3569,7 +3569,7 @@
         <v>141</v>
       </c>
       <c r="C146" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F026D9FC-F465-4E68-A6A3-1FAEB06E5677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D67A18F-727A-4F91-9C76-A09BDD96B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3591,7 +3591,7 @@
         <v>143</v>
       </c>
       <c r="C148" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D67A18F-727A-4F91-9C76-A09BDD96B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5278D7F0-0400-4FDD-A159-9733DFCD7183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3602,7 +3602,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5278D7F0-0400-4FDD-A159-9733DFCD7183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3B2468-C64C-425B-853B-2C3C6E35F26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3613,7 +3613,7 @@
         <v>145</v>
       </c>
       <c r="C150" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3B2468-C64C-425B-853B-2C3C6E35F26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB4257-F582-47F0-A90D-24336037D8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3624,7 +3624,7 @@
         <v>146</v>
       </c>
       <c r="C151" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB4257-F582-47F0-A90D-24336037D8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7AC450-D059-42FD-B970-47C9D60572D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="C147" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3690,7 +3690,7 @@
         <v>152</v>
       </c>
       <c r="C157" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7AC450-D059-42FD-B970-47C9D60572D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C997E-B351-44E8-BC9A-27D1ABFF7457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="10500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C147" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3701,7 +3701,7 @@
         <v>153</v>
       </c>
       <c r="C158" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C997E-B351-44E8-BC9A-27D1ABFF7457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6F4B47-9B5F-487D-8FBF-08704A2443A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="10500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C147" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="B147" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3712,7 +3712,7 @@
         <v>154</v>
       </c>
       <c r="C159" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6F4B47-9B5F-487D-8FBF-08704A2443A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB4367-BFBE-4632-AA44-6693B7FB19CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="10500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B147" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="B150" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3756,7 +3756,7 @@
         <v>158</v>
       </c>
       <c r="C163" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB4367-BFBE-4632-AA44-6693B7FB19CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6812A07F-BF0B-4029-8C2F-544E564D4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B150" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3767,7 +3767,7 @@
         <v>159</v>
       </c>
       <c r="C164" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6812A07F-BF0B-4029-8C2F-544E564D4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E5EC52-16F1-49B7-A988-0F511F5BD99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B150" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="B147" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3635,7 +3635,7 @@
         <v>147</v>
       </c>
       <c r="C152" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E5EC52-16F1-49B7-A988-0F511F5BD99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B868EB4-22D2-4975-B45B-505BA0B65E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B147" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="B153" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3646,7 +3646,7 @@
         <v>148</v>
       </c>
       <c r="C153" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B868EB4-22D2-4975-B45B-505BA0B65E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85002471-1BE4-42B2-800C-601D43EBBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B153" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3745,7 +3745,7 @@
         <v>157</v>
       </c>
       <c r="C162" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21" outlineLevel="1">
@@ -3892,11 +3892,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4394,11 +4394,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,11 +4713,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5109,11 +5109,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5329,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5758,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5967,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6585,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6662,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7333,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7452,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85002471-1BE4-42B2-800C-601D43EBBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7296B87-6915-4E2C-9B51-B895D14CEB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,13 +3489,13 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
-    </row>
-    <row r="140" spans="1:3" ht="21" outlineLevel="1">
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+    </row>
+    <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21" outlineLevel="1">
+    <row r="141" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21" outlineLevel="1">
+    <row r="142" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21" outlineLevel="1">
+    <row r="143" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21" outlineLevel="1">
+    <row r="144" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21" outlineLevel="1">
+    <row r="145" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21" outlineLevel="1">
+    <row r="146" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21" outlineLevel="1">
+    <row r="147" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21" outlineLevel="1">
+    <row r="148" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21" outlineLevel="1">
+    <row r="149" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21" outlineLevel="1">
+    <row r="150" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21" outlineLevel="1">
+    <row r="151" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21" outlineLevel="1">
+    <row r="152" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21" outlineLevel="1">
+    <row r="153" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21" outlineLevel="1">
+    <row r="154" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21" outlineLevel="1">
+    <row r="155" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21" outlineLevel="1">
+    <row r="156" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21" outlineLevel="1">
+    <row r="157" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21" outlineLevel="1">
+    <row r="158" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21" outlineLevel="1">
+    <row r="159" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21" outlineLevel="1">
+    <row r="160" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21" outlineLevel="1">
+    <row r="161" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21" outlineLevel="1">
+    <row r="162" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21" outlineLevel="1">
+    <row r="163" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21" outlineLevel="1">
+    <row r="164" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21" outlineLevel="1">
+    <row r="165" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21" outlineLevel="1">
+    <row r="166" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21" outlineLevel="1">
+    <row r="167" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21" outlineLevel="1">
+    <row r="168" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21" outlineLevel="1">
+    <row r="169" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21" outlineLevel="1">
+    <row r="170" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21" outlineLevel="1">
+    <row r="171" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21" outlineLevel="1">
+    <row r="172" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21" outlineLevel="1">
+    <row r="173" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21" outlineLevel="1">
+    <row r="174" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="21" outlineLevel="1">
+    <row r="175" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A175" s="8" t="s">
         <v>134</v>
       </c>
@@ -3891,12 +3891,13 @@
         <v>4</v>
       </c>
     </row>
+    <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -3906,7 +3907,7 @@
         <v>172</v>
       </c>
       <c r="C178" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" s="4" t="b">
         <v>0</v>
@@ -3920,7 +3921,7 @@
         <v>173</v>
       </c>
       <c r="C179" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" s="4" t="b">
         <v>0</v>
@@ -4394,11 +4395,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4713,13 +4714,13 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
-    </row>
-    <row r="239" spans="1:4" ht="21" outlineLevel="1">
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+    </row>
+    <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
         <v>229</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="21" outlineLevel="1">
+    <row r="240" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A240" s="5" t="s">
         <v>229</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21" outlineLevel="1">
+    <row r="241" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A241" s="5" t="s">
         <v>229</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21" outlineLevel="1">
+    <row r="242" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A242" s="5" t="s">
         <v>229</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21" outlineLevel="1">
+    <row r="243" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A243" s="5" t="s">
         <v>229</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21" outlineLevel="1">
+    <row r="244" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A244" s="5" t="s">
         <v>229</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21" outlineLevel="1">
+    <row r="245" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A245" s="5" t="s">
         <v>229</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21" outlineLevel="1">
+    <row r="246" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A246" s="5" t="s">
         <v>229</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21" outlineLevel="1">
+    <row r="247" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A247" s="5" t="s">
         <v>229</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21" outlineLevel="1">
+    <row r="248" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A248" s="5" t="s">
         <v>229</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21" outlineLevel="1">
+    <row r="249" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A249" s="5" t="s">
         <v>229</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21" outlineLevel="1">
+    <row r="250" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A250" s="5" t="s">
         <v>229</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21" outlineLevel="1">
+    <row r="251" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A251" s="5" t="s">
         <v>229</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21" outlineLevel="1">
+    <row r="252" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A252" s="5" t="s">
         <v>229</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21" outlineLevel="1">
+    <row r="253" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A253" s="5" t="s">
         <v>229</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21" outlineLevel="1">
+    <row r="254" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A254" s="5" t="s">
         <v>229</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21" outlineLevel="1">
+    <row r="255" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A255" s="5" t="s">
         <v>229</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21" outlineLevel="1">
+    <row r="256" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A256" s="5" t="s">
         <v>229</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21" outlineLevel="1">
+    <row r="257" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A257" s="5" t="s">
         <v>229</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21" outlineLevel="1">
+    <row r="258" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A258" s="5" t="s">
         <v>229</v>
       </c>
@@ -4939,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21" outlineLevel="1">
+    <row r="259" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A259" s="5" t="s">
         <v>229</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21" outlineLevel="1">
+    <row r="260" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A260" s="5" t="s">
         <v>229</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21" outlineLevel="1">
+    <row r="261" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A261" s="5" t="s">
         <v>229</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21" outlineLevel="1">
+    <row r="262" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A262" s="5" t="s">
         <v>229</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21" outlineLevel="1">
+    <row r="263" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A263" s="5" t="s">
         <v>229</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21" outlineLevel="1">
+    <row r="264" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A264" s="5" t="s">
         <v>229</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21" outlineLevel="1">
+    <row r="265" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A265" s="5" t="s">
         <v>229</v>
       </c>
@@ -5016,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21" outlineLevel="1">
+    <row r="266" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A266" s="5" t="s">
         <v>229</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21" outlineLevel="1">
+    <row r="267" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A267" s="5" t="s">
         <v>229</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21" outlineLevel="1">
+    <row r="268" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A268" s="5" t="s">
         <v>229</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21" outlineLevel="1">
+    <row r="269" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A269" s="5" t="s">
         <v>229</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21" outlineLevel="1">
+    <row r="270" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A270" s="5" t="s">
         <v>229</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21" outlineLevel="1">
+    <row r="271" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A271" s="5" t="s">
         <v>229</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21" outlineLevel="1">
+    <row r="272" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A272" s="5" t="s">
         <v>229</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21" outlineLevel="1">
+    <row r="273" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A273" s="5" t="s">
         <v>229</v>
       </c>
@@ -5104,16 +5105,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row r="274" spans="1:3" ht="21" collapsed="1">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5329,11 +5330,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5758,11 +5759,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5967,11 +5968,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6585,11 +6586,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6662,11 +6663,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7333,11 +7334,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7452,21 +7453,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7296B87-6915-4E2C-9B51-B895D14CEB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F5F729-AE01-49D3-8C30-0E30DFA56318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1726,9 +1726,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1766,7 +1766,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1872,7 +1872,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2014,7 +2014,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2024,18 +2024,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" topLeftCell="C181" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6">
+    <row r="1" spans="1:6" ht="25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3935,7 +3935,7 @@
         <v>174</v>
       </c>
       <c r="C180" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" s="4" t="b">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>175</v>
       </c>
       <c r="C181" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" s="4" t="b">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>176</v>
       </c>
       <c r="C182" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" s="4" t="b">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>177</v>
       </c>
       <c r="C183" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" s="4" t="b">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>178</v>
       </c>
       <c r="C184" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" s="4" t="b">
         <v>0</v>
@@ -7929,9 +7929,9 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F5F729-AE01-49D3-8C30-0E30DFA56318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF0C82-0E83-43FA-812B-69380652A487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C181" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="C183" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4005,7 +4005,7 @@
         <v>179</v>
       </c>
       <c r="C185" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" s="4" t="b">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>180</v>
       </c>
       <c r="C186" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" s="4" t="b">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>181</v>
       </c>
       <c r="C187" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" s="4" t="b">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>182</v>
       </c>
       <c r="C188" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" s="4" t="b">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>183</v>
       </c>
       <c r="C189" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" s="4" t="b">
         <v>0</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF0C82-0E83-43FA-812B-69380652A487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D206A0-7F8E-43F7-A13A-CF656D66EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C183" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="B200" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3893,11 +3893,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4075,7 +4075,7 @@
         <v>184</v>
       </c>
       <c r="C190" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" s="4" t="b">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>185</v>
       </c>
       <c r="C191" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" s="4" t="b">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>186</v>
       </c>
       <c r="C192" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" s="4" t="b">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>187</v>
       </c>
       <c r="C193" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" s="4" t="b">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>194</v>
       </c>
       <c r="C200" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" s="4" t="b">
         <v>0</v>
@@ -4243,7 +4243,7 @@
         <v>196</v>
       </c>
       <c r="C202" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" s="4" t="b">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>198</v>
       </c>
       <c r="C204" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" s="4" t="b">
         <v>0</v>
@@ -4395,11 +4395,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4714,11 +4714,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5110,11 +5110,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5330,11 +5330,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5759,11 +5759,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5968,11 +5968,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6586,11 +6586,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6663,11 +6663,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7334,11 +7334,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7453,21 +7453,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D206A0-7F8E-43F7-A13A-CF656D66EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB1637-F58A-4B0E-9999-6F0DBF10653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B200" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4228,8 +4228,8 @@
       <c r="B201" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>4</v>
+      <c r="C201" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D201" s="4" t="b">
         <v>0</v>
@@ -4368,8 +4368,8 @@
       <c r="B211" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>4</v>
+      <c r="C211" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="D211" s="4" t="b">
         <v>0</v>
@@ -4382,8 +4382,8 @@
       <c r="B212" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C212" s="4" t="b">
-        <v>0</v>
+      <c r="C212" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D212" s="4" t="b">
         <v>0</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\DSA-with-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB1637-F58A-4B0E-9999-6F0DBF10653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44C9CBC-73FE-4F4B-B4D4-004393CC45B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1726,9 +1726,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1766,7 +1766,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1872,7 +1872,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2014,7 +2014,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2024,18 +2024,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25">
+    <row r="1" spans="1:6" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3893,13 +3893,13 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
-    </row>
-    <row r="178" spans="1:4" ht="21" outlineLevel="1">
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+    </row>
+    <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="21" outlineLevel="1">
+    <row r="179" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="21" outlineLevel="1">
+    <row r="180" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="21" outlineLevel="1">
+    <row r="181" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="21" outlineLevel="1">
+    <row r="182" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="21" outlineLevel="1">
+    <row r="183" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="21" outlineLevel="1">
+    <row r="184" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="21" outlineLevel="1">
+    <row r="185" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="21" outlineLevel="1">
+    <row r="186" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="21" outlineLevel="1">
+    <row r="187" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="21" outlineLevel="1">
+    <row r="188" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="21" outlineLevel="1">
+    <row r="189" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="21" outlineLevel="1">
+    <row r="190" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="21" outlineLevel="1">
+    <row r="191" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="21" outlineLevel="1">
+    <row r="192" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="21" outlineLevel="1">
+    <row r="193" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="21" outlineLevel="1">
+    <row r="194" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="21" outlineLevel="1">
+    <row r="195" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="21" outlineLevel="1">
+    <row r="196" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="21" outlineLevel="1">
+    <row r="197" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="21" outlineLevel="1">
+    <row r="198" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="21" outlineLevel="1">
+    <row r="199" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="21" outlineLevel="1">
+    <row r="200" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="21" outlineLevel="1">
+    <row r="201" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="21" outlineLevel="1">
+    <row r="202" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="21" outlineLevel="1">
+    <row r="203" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="21" outlineLevel="1">
+    <row r="204" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="21" outlineLevel="1">
+    <row r="205" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="21" outlineLevel="1">
+    <row r="206" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="21" outlineLevel="1">
+    <row r="207" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="21" outlineLevel="1">
+    <row r="208" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="21" outlineLevel="1">
+    <row r="209" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="21" outlineLevel="1">
+    <row r="210" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="21" outlineLevel="1">
+    <row r="211" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="21" outlineLevel="1">
+    <row r="212" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A212" s="5" t="s">
         <v>171</v>
       </c>
@@ -4389,17 +4389,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="21">
+    <row r="213" spans="1:4" ht="21" collapsed="1">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4465,7 +4465,7 @@
         <v>211</v>
       </c>
       <c r="C219" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219" s="4" t="b">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>215</v>
       </c>
       <c r="C223" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223" s="4" t="b">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>217</v>
       </c>
       <c r="C225" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225" s="4" t="b">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>218</v>
       </c>
       <c r="C226" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" s="4" t="b">
         <v>0</v>
@@ -4714,11 +4714,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5110,11 +5110,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5330,11 +5330,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5759,11 +5759,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5968,11 +5968,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6586,11 +6586,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6663,11 +6663,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7334,11 +7334,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7453,21 +7453,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
@@ -7929,9 +7929,9 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44C9CBC-73FE-4F4B-B4D4-004393CC45B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED7AF23-1ACE-4196-A027-3F4CEF91A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3893,11 +3893,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4395,11 +4395,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4577,7 +4577,7 @@
         <v>219</v>
       </c>
       <c r="C227" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227" s="4" t="b">
         <v>0</v>
@@ -4714,11 +4714,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5110,11 +5110,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5330,11 +5330,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5759,11 +5759,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5968,11 +5968,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6586,11 +6586,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6663,11 +6663,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7334,11 +7334,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7453,21 +7453,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED7AF23-1ACE-4196-A027-3F4CEF91A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28299B-DF2A-420A-A95D-382A150E2882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3893,11 +3893,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4395,11 +4395,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4647,7 +4647,7 @@
         <v>224</v>
       </c>
       <c r="C232" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232" s="4" t="b">
         <v>0</v>
@@ -4714,11 +4714,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5110,11 +5110,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5330,11 +5330,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5759,11 +5759,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5968,11 +5968,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6586,11 +6586,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6663,11 +6663,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7334,11 +7334,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7453,21 +7453,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28299B-DF2A-420A-A95D-382A150E2882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742188CD-8918-4C03-96B5-77561D6E66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3893,11 +3893,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4395,11 +4395,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4661,7 +4661,7 @@
         <v>225</v>
       </c>
       <c r="C233" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" s="4" t="b">
         <v>0</v>
@@ -4714,11 +4714,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5110,11 +5110,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5330,11 +5330,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5759,11 +5759,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5968,11 +5968,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6586,11 +6586,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6663,11 +6663,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7334,11 +7334,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7453,21 +7453,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742188CD-8918-4C03-96B5-77561D6E66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E66673D-251D-4573-AE3C-4D8B4A40BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3893,11 +3893,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4395,11 +4395,11 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
     </row>
     <row r="215" spans="1:4" ht="21" outlineLevel="1">
       <c r="A215" s="5" t="s">
@@ -4675,7 +4675,7 @@
         <v>226</v>
       </c>
       <c r="C234" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" s="4" t="b">
         <v>0</v>
@@ -4714,11 +4714,11 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5110,11 +5110,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5330,11 +5330,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5759,11 +5759,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="24"/>
-      <c r="C336" s="24"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5968,11 +5968,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="20" t="s">
+      <c r="A356" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6586,11 +6586,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
+      <c r="B402" s="26"/>
+      <c r="C402" s="26"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6663,11 +6663,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="22" t="s">
+      <c r="A410" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="22"/>
-      <c r="C410" s="22"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7334,11 +7334,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
+      <c r="B472" s="24"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7453,21 +7453,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A336:C336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E66673D-251D-4573-AE3C-4D8B4A40BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E17A905-AC54-4E39-81B9-7231E124341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1680,7 +1680,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,16 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A45" s="8" t="s">
@@ -2604,11 +2604,11 @@
     </row>
     <row r="55" spans="1:3" collapsed="1"/>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A57" s="5" t="s">
@@ -3085,11 +3085,11 @@
     </row>
     <row r="100" spans="1:3" collapsed="1"/>
     <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
     </row>
     <row r="102" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A102" s="5" t="s">
@@ -3489,11 +3489,11 @@
     </row>
     <row r="138" spans="1:3" collapsed="1"/>
     <row r="139" spans="1:3" ht="21" customHeight="1">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A140" s="8" t="s">
@@ -3893,11 +3893,11 @@
     </row>
     <row r="176" spans="1:3" collapsed="1"/>
     <row r="177" spans="1:4" ht="21">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A178" s="5" t="s">
@@ -4395,13 +4395,13 @@
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:4" ht="21">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
-    </row>
-    <row r="215" spans="1:4" ht="21" outlineLevel="1">
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
+    </row>
+    <row r="215" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="21" outlineLevel="1">
+    <row r="216" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="21" outlineLevel="1">
+    <row r="217" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="21" outlineLevel="1">
+    <row r="218" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="21" outlineLevel="1">
+    <row r="219" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="21" outlineLevel="1">
+    <row r="220" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="21" outlineLevel="1">
+    <row r="221" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="21" outlineLevel="1">
+    <row r="222" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="21" outlineLevel="1">
+    <row r="223" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="21" outlineLevel="1">
+    <row r="224" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="21" outlineLevel="1">
+    <row r="225" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="21" outlineLevel="1">
+    <row r="226" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="21" outlineLevel="1">
+    <row r="227" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="21" outlineLevel="1">
+    <row r="228" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="21" outlineLevel="1">
+    <row r="229" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="21" outlineLevel="1">
+    <row r="230" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="21" outlineLevel="1">
+    <row r="231" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="21" outlineLevel="1">
+    <row r="232" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="21" outlineLevel="1">
+    <row r="233" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="21" outlineLevel="1">
+    <row r="234" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="21" outlineLevel="1">
+    <row r="235" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4689,13 +4689,13 @@
         <v>227</v>
       </c>
       <c r="C235" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="21" outlineLevel="1">
+    <row r="236" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A236" s="5" t="s">
         <v>207</v>
       </c>
@@ -4709,16 +4709,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="21">
+    <row r="237" spans="1:4" ht="21" collapsed="1">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="21">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A239" s="5" t="s">
@@ -5110,11 +5110,11 @@
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="24"/>
     </row>
     <row r="276" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A276" s="5" t="s">
@@ -5330,11 +5330,11 @@
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A297" s="5" t="s">
@@ -5759,11 +5759,11 @@
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="21"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
     </row>
     <row r="337" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A337" s="8" t="s">
@@ -5968,11 +5968,11 @@
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:4" ht="21" customHeight="1">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B356" s="25"/>
-      <c r="C356" s="25"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:4" ht="21" hidden="1" outlineLevel="1">
       <c r="A357" s="8" t="s">
@@ -6586,11 +6586,11 @@
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21" customHeight="1">
-      <c r="A402" s="26" t="s">
+      <c r="A402" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="B402" s="26"/>
-      <c r="C402" s="26"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
     </row>
     <row r="403" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A403" s="8" t="s">
@@ -6663,11 +6663,11 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21" customHeight="1">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A411" s="5" t="s">
@@ -7334,11 +7334,11 @@
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21" customHeight="1">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="24"/>
-      <c r="C472" s="24"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" ht="21" hidden="1" outlineLevel="1">
       <c r="A473" s="5" t="s">
@@ -7453,21 +7453,21 @@
     <row r="483" spans="1:3" collapsed="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A356:C356"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="A410:C410"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A296:C296"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\DSA with Python\DSA-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E17A905-AC54-4E39-81B9-7231E124341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79737651-CAFF-48B5-B8FA-A17254B191C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1680,16 +1680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1701,7 +1692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelRow="1"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">SUM(IF(C7:C42=FALSE,1,0))+SUM(IF(C57:C99=FALSE,1,0))+SUM(IF(C45:C54=FALSE,1,0))+SUM(IF(C102:C137=FALSE,1,0))+SUM(IF(C140:C175=FALSE,1,0))+SUM(IF(C178:C212=FALSE,1,0))+SUM(IF(C215:C236=FALSE,1,0))+SUM(IF(C239:C273=FALSE,1,0))+SUM(IF(C276:C294=FALSE,1,0))+SUM(IF(C297:C334=FALSE,1,0))+SUM(IF(C337:C354=FALSE,1,0))+SUM(IF(C357:C400=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C403:C408=FALSE,1,0))+SUM(IF(C411:C470=FALSE,1,0))+SUM(IF(C473:C482=FALSE,1,0))</f>
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21">
@@ -2072,15 +2072,15 @@
       </c>
       <c r="F5" s="15" cm="1">
         <f t="array" ref="F5">SUM(IF(C7:C42=TRUE,1,0))+SUM(IF(C57:C99=TRUE,1,0))+SUM(IF(C45:C54=TRUE,1,0))+SUM(IF(C102:C137=TRUE,1,0))+SUM(IF(C140:C175=TRUE,1,0))+SUM(IF(C178:C212=TRUE,1,0))+SUM(IF(C215:C236=TRUE,1,0))+SUM(IF(C239:C273=TRUE,1,0))+SUM(IF(C276:C294=TRUE,1,0))+SUM(IF(C297:C334=TRUE,1,0))+SUM(IF(C337:C354=TRUE,1,0))+SUM(IF(C357:C400=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C403:C408=TRUE,1,0))+SUM(IF(C411:C470=TRUE,1,0))+SUM(IF(C473:C482=TRUE,1,0))</f>
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21" hidden="1" outlineLevel="1">
       <c r="A7" s="5" t="s">
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="20" t="s">
         <v>42<